--- a/database/industries/shishe/kehamda/product/monthly.xlsx
+++ b/database/industries/shishe/kehamda/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A12AE16-407E-42F7-AF52-40F87D43700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866C5241-D2B6-4877-805B-D4A5F973B0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 3 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 4 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 5 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 4 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 6 منتهی به 1401/09</t>
   </si>
   <si>
     <t>انواع ظروف شیشه ای</t>
@@ -1426,47 +1426,47 @@
       <c r="L11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>57</v>
+      <c r="M11" s="11">
+        <v>5812</v>
+      </c>
+      <c r="N11" s="11">
+        <v>5753</v>
       </c>
       <c r="O11" s="11">
-        <v>5812</v>
+        <v>6036</v>
       </c>
       <c r="P11" s="11">
-        <v>5753</v>
+        <v>6011</v>
       </c>
       <c r="Q11" s="11">
-        <v>6036</v>
+        <v>6226</v>
       </c>
       <c r="R11" s="11">
-        <v>6011</v>
+        <v>6080</v>
       </c>
       <c r="S11" s="11">
-        <v>6226</v>
+        <v>5939</v>
       </c>
       <c r="T11" s="11">
-        <v>6080</v>
+        <v>6012</v>
       </c>
       <c r="U11" s="11">
-        <v>5939</v>
+        <v>5701</v>
       </c>
       <c r="V11" s="11">
-        <v>6012</v>
+        <v>6415</v>
       </c>
       <c r="W11" s="11">
-        <v>5701</v>
+        <v>5961</v>
       </c>
       <c r="X11" s="11">
-        <v>6415</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>5961</v>
-      </c>
-      <c r="Z11" s="11">
         <v>6164</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA11" s="11" t="s">
         <v>57</v>
@@ -1562,34 +1562,34 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>5891</v>
+        <v>6209</v>
       </c>
       <c r="F12" s="13">
-        <v>5937</v>
+        <v>6527</v>
       </c>
       <c r="G12" s="13">
-        <v>6209</v>
+        <v>5823</v>
       </c>
       <c r="H12" s="13">
-        <v>6527</v>
+        <v>6301</v>
       </c>
       <c r="I12" s="13">
-        <v>5823</v>
+        <v>5777</v>
       </c>
       <c r="J12" s="13">
-        <v>6301</v>
+        <v>6317</v>
       </c>
       <c r="K12" s="13">
-        <v>5777</v>
+        <v>6254</v>
       </c>
       <c r="L12" s="13">
-        <v>6317</v>
-      </c>
-      <c r="M12" s="13">
-        <v>6254</v>
-      </c>
-      <c r="N12" s="13">
         <v>6184</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="O12" s="13" t="s">
         <v>57</v>
@@ -1780,95 +1780,95 @@
       <c r="X13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>57</v>
+      <c r="Y13" s="11">
+        <v>5802</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>5647</v>
       </c>
       <c r="AA13" s="11">
-        <v>5802</v>
+        <v>6003</v>
       </c>
       <c r="AB13" s="11">
-        <v>5647</v>
+        <v>5610</v>
       </c>
       <c r="AC13" s="11">
-        <v>6003</v>
+        <v>5307</v>
       </c>
       <c r="AD13" s="11">
-        <v>5610</v>
+        <v>5804</v>
       </c>
       <c r="AE13" s="11">
-        <v>5307</v>
+        <v>6180</v>
       </c>
       <c r="AF13" s="11">
-        <v>5804</v>
+        <v>6152</v>
       </c>
       <c r="AG13" s="11">
-        <v>6180</v>
+        <v>6455</v>
       </c>
       <c r="AH13" s="11">
-        <v>6152</v>
+        <v>6708</v>
       </c>
       <c r="AI13" s="11">
-        <v>6455</v>
+        <v>6433</v>
       </c>
       <c r="AJ13" s="11">
-        <v>6708</v>
+        <v>6495</v>
       </c>
       <c r="AK13" s="11">
-        <v>6433</v>
+        <v>6340</v>
       </c>
       <c r="AL13" s="11">
-        <v>6495</v>
+        <v>6507</v>
       </c>
       <c r="AM13" s="11">
-        <v>6340</v>
+        <v>6445</v>
       </c>
       <c r="AN13" s="11">
-        <v>6507</v>
+        <v>6225</v>
       </c>
       <c r="AO13" s="11">
-        <v>6445</v>
+        <v>6345</v>
       </c>
       <c r="AP13" s="11">
-        <v>6225</v>
+        <v>6033</v>
       </c>
       <c r="AQ13" s="11">
-        <v>6345</v>
+        <v>5866</v>
       </c>
       <c r="AR13" s="11">
-        <v>6033</v>
+        <v>6466</v>
       </c>
       <c r="AS13" s="11">
-        <v>5866</v>
+        <v>6368</v>
       </c>
       <c r="AT13" s="11">
-        <v>6466</v>
+        <v>9629</v>
       </c>
       <c r="AU13" s="11">
-        <v>6368</v>
+        <v>9438</v>
       </c>
       <c r="AV13" s="11">
-        <v>9629</v>
+        <v>7693</v>
       </c>
       <c r="AW13" s="11">
-        <v>9438</v>
+        <v>7215</v>
       </c>
       <c r="AX13" s="11">
-        <v>7693</v>
+        <v>6594</v>
       </c>
       <c r="AY13" s="11">
-        <v>7215</v>
+        <v>7795</v>
       </c>
       <c r="AZ13" s="11">
-        <v>6594</v>
+        <v>8972</v>
       </c>
       <c r="BA13" s="11">
-        <v>7795</v>
+        <v>8924</v>
       </c>
       <c r="BB13" s="11">
-        <v>8972</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1994,11 +1994,11 @@
       <c r="X15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z15" s="17" t="s">
-        <v>57</v>
+      <c r="Y15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="17">
+        <v>0</v>
       </c>
       <c r="AA15" s="17">
         <v>0</v>
@@ -2092,154 +2092,154 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19">
-        <v>5891</v>
+        <v>6209</v>
       </c>
       <c r="F16" s="19">
-        <v>5937</v>
+        <v>6527</v>
       </c>
       <c r="G16" s="19">
-        <v>6209</v>
+        <v>5823</v>
       </c>
       <c r="H16" s="19">
-        <v>6527</v>
+        <v>6301</v>
       </c>
       <c r="I16" s="19">
-        <v>5823</v>
+        <v>5777</v>
       </c>
       <c r="J16" s="19">
-        <v>6301</v>
+        <v>6317</v>
       </c>
       <c r="K16" s="19">
-        <v>5777</v>
+        <v>6254</v>
       </c>
       <c r="L16" s="19">
-        <v>6317</v>
+        <v>6184</v>
       </c>
       <c r="M16" s="19">
-        <v>6254</v>
+        <v>5812</v>
       </c>
       <c r="N16" s="19">
-        <v>6184</v>
+        <v>5753</v>
       </c>
       <c r="O16" s="19">
-        <v>5812</v>
+        <v>6036</v>
       </c>
       <c r="P16" s="19">
-        <v>5753</v>
+        <v>6011</v>
       </c>
       <c r="Q16" s="19">
-        <v>6036</v>
+        <v>6226</v>
       </c>
       <c r="R16" s="19">
-        <v>6011</v>
+        <v>6080</v>
       </c>
       <c r="S16" s="19">
-        <v>6226</v>
+        <v>5939</v>
       </c>
       <c r="T16" s="19">
-        <v>6080</v>
+        <v>6012</v>
       </c>
       <c r="U16" s="19">
-        <v>5939</v>
+        <v>5701</v>
       </c>
       <c r="V16" s="19">
-        <v>6012</v>
+        <v>6415</v>
       </c>
       <c r="W16" s="19">
-        <v>5701</v>
+        <v>5961</v>
       </c>
       <c r="X16" s="19">
-        <v>6415</v>
+        <v>6164</v>
       </c>
       <c r="Y16" s="19">
-        <v>5961</v>
+        <v>5802</v>
       </c>
       <c r="Z16" s="19">
-        <v>6164</v>
+        <v>5647</v>
       </c>
       <c r="AA16" s="19">
-        <v>5802</v>
+        <v>6003</v>
       </c>
       <c r="AB16" s="19">
-        <v>5647</v>
+        <v>5610</v>
       </c>
       <c r="AC16" s="19">
-        <v>6003</v>
+        <v>5307</v>
       </c>
       <c r="AD16" s="19">
-        <v>5610</v>
+        <v>5804</v>
       </c>
       <c r="AE16" s="19">
-        <v>5307</v>
+        <v>6180</v>
       </c>
       <c r="AF16" s="19">
-        <v>5804</v>
+        <v>6152</v>
       </c>
       <c r="AG16" s="19">
-        <v>6180</v>
+        <v>6455</v>
       </c>
       <c r="AH16" s="19">
-        <v>6152</v>
+        <v>6708</v>
       </c>
       <c r="AI16" s="19">
-        <v>6455</v>
+        <v>6433</v>
       </c>
       <c r="AJ16" s="19">
-        <v>6708</v>
+        <v>6495</v>
       </c>
       <c r="AK16" s="19">
-        <v>6433</v>
+        <v>6340</v>
       </c>
       <c r="AL16" s="19">
-        <v>6495</v>
+        <v>6507</v>
       </c>
       <c r="AM16" s="19">
-        <v>6340</v>
+        <v>6445</v>
       </c>
       <c r="AN16" s="19">
-        <v>6507</v>
+        <v>6225</v>
       </c>
       <c r="AO16" s="19">
-        <v>6445</v>
+        <v>6345</v>
       </c>
       <c r="AP16" s="19">
-        <v>6225</v>
+        <v>6033</v>
       </c>
       <c r="AQ16" s="19">
-        <v>6345</v>
+        <v>5866</v>
       </c>
       <c r="AR16" s="19">
-        <v>6033</v>
+        <v>6466</v>
       </c>
       <c r="AS16" s="19">
-        <v>5866</v>
+        <v>6368</v>
       </c>
       <c r="AT16" s="19">
-        <v>6466</v>
+        <v>9629</v>
       </c>
       <c r="AU16" s="19">
-        <v>6368</v>
+        <v>9438</v>
       </c>
       <c r="AV16" s="19">
-        <v>9629</v>
+        <v>7693</v>
       </c>
       <c r="AW16" s="19">
-        <v>9438</v>
+        <v>7215</v>
       </c>
       <c r="AX16" s="19">
-        <v>7693</v>
+        <v>6594</v>
       </c>
       <c r="AY16" s="19">
-        <v>7215</v>
+        <v>7795</v>
       </c>
       <c r="AZ16" s="19">
-        <v>6594</v>
+        <v>8972</v>
       </c>
       <c r="BA16" s="19">
-        <v>7795</v>
+        <v>8924</v>
       </c>
       <c r="BB16" s="19">
-        <v>8972</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2708,47 +2708,47 @@
       <c r="L23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>57</v>
+      <c r="M23" s="11">
+        <v>4786</v>
+      </c>
+      <c r="N23" s="11">
+        <v>4945</v>
       </c>
       <c r="O23" s="11">
-        <v>4786</v>
+        <v>6800</v>
       </c>
       <c r="P23" s="11">
-        <v>4945</v>
+        <v>6177</v>
       </c>
       <c r="Q23" s="11">
-        <v>6800</v>
+        <v>4474</v>
       </c>
       <c r="R23" s="11">
-        <v>6177</v>
+        <v>6253</v>
       </c>
       <c r="S23" s="11">
-        <v>4474</v>
+        <v>5923</v>
       </c>
       <c r="T23" s="11">
-        <v>6253</v>
+        <v>6811</v>
       </c>
       <c r="U23" s="11">
-        <v>5923</v>
+        <v>8553</v>
       </c>
       <c r="V23" s="11">
-        <v>6811</v>
+        <v>6879</v>
       </c>
       <c r="W23" s="11">
-        <v>8553</v>
+        <v>6734</v>
       </c>
       <c r="X23" s="11">
-        <v>6879</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>6734</v>
-      </c>
-      <c r="Z23" s="11">
         <v>5493</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA23" s="11" t="s">
         <v>57</v>
@@ -2844,34 +2844,34 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>6246</v>
+        <v>5242</v>
       </c>
       <c r="F24" s="13">
-        <v>5756</v>
+        <v>6277</v>
       </c>
       <c r="G24" s="13">
-        <v>5242</v>
+        <v>4772</v>
       </c>
       <c r="H24" s="13">
-        <v>6277</v>
+        <v>5043</v>
       </c>
       <c r="I24" s="13">
-        <v>4772</v>
+        <v>8225</v>
       </c>
       <c r="J24" s="13">
-        <v>5043</v>
+        <v>7418</v>
       </c>
       <c r="K24" s="13">
-        <v>8225</v>
+        <v>7214</v>
       </c>
       <c r="L24" s="13">
-        <v>7418</v>
-      </c>
-      <c r="M24" s="13">
-        <v>7214</v>
-      </c>
-      <c r="N24" s="13">
         <v>5252</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="O24" s="13" t="s">
         <v>57</v>
@@ -3062,95 +3062,95 @@
       <c r="X25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>57</v>
+      <c r="Y25" s="11">
+        <v>7207</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>6209</v>
       </c>
       <c r="AA25" s="11">
-        <v>7207</v>
+        <v>6609</v>
       </c>
       <c r="AB25" s="11">
-        <v>6209</v>
+        <v>6566</v>
       </c>
       <c r="AC25" s="11">
-        <v>6609</v>
+        <v>5299</v>
       </c>
       <c r="AD25" s="11">
-        <v>6566</v>
+        <v>6192</v>
       </c>
       <c r="AE25" s="11">
-        <v>5299</v>
+        <v>6710</v>
       </c>
       <c r="AF25" s="11">
-        <v>6192</v>
+        <v>5853</v>
       </c>
       <c r="AG25" s="11">
-        <v>6710</v>
+        <v>6851</v>
       </c>
       <c r="AH25" s="11">
-        <v>5853</v>
+        <v>4435</v>
       </c>
       <c r="AI25" s="11">
-        <v>6851</v>
+        <v>6885</v>
       </c>
       <c r="AJ25" s="11">
-        <v>4435</v>
+        <v>6410</v>
       </c>
       <c r="AK25" s="11">
-        <v>6885</v>
+        <v>5950</v>
       </c>
       <c r="AL25" s="11">
-        <v>6410</v>
+        <v>6615</v>
       </c>
       <c r="AM25" s="11">
-        <v>5950</v>
+        <v>7390</v>
       </c>
       <c r="AN25" s="11">
-        <v>6615</v>
+        <v>5184</v>
       </c>
       <c r="AO25" s="11">
-        <v>7390</v>
+        <v>6372</v>
       </c>
       <c r="AP25" s="11">
-        <v>5184</v>
+        <v>5440</v>
       </c>
       <c r="AQ25" s="11">
-        <v>6372</v>
+        <v>5612</v>
       </c>
       <c r="AR25" s="11">
-        <v>5440</v>
+        <v>5270</v>
       </c>
       <c r="AS25" s="11">
-        <v>5612</v>
+        <v>8214</v>
       </c>
       <c r="AT25" s="11">
-        <v>5270</v>
+        <v>5509</v>
       </c>
       <c r="AU25" s="11">
-        <v>8214</v>
+        <v>5464</v>
       </c>
       <c r="AV25" s="11">
-        <v>5509</v>
+        <v>5752</v>
       </c>
       <c r="AW25" s="11">
-        <v>5464</v>
+        <v>5596</v>
       </c>
       <c r="AX25" s="11">
-        <v>5752</v>
+        <v>6336</v>
       </c>
       <c r="AY25" s="11">
-        <v>5596</v>
+        <v>6135</v>
       </c>
       <c r="AZ25" s="11">
-        <v>6336</v>
+        <v>5394</v>
       </c>
       <c r="BA25" s="11">
-        <v>6135</v>
+        <v>6370</v>
       </c>
       <c r="BB25" s="11">
-        <v>5394</v>
+        <v>5860</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3276,11 +3276,11 @@
       <c r="X27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z27" s="17" t="s">
-        <v>57</v>
+      <c r="Y27" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="17">
+        <v>0</v>
       </c>
       <c r="AA27" s="17">
         <v>0</v>
@@ -3492,41 +3492,41 @@
       <c r="X29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>57</v>
+      <c r="Y29" s="11">
+        <v>-20</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>0</v>
       </c>
       <c r="AA29" s="11">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="11">
         <v>0</v>
       </c>
       <c r="AC29" s="11">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AD29" s="11">
         <v>0</v>
       </c>
       <c r="AE29" s="11">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="11">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AG29" s="11">
         <v>0</v>
       </c>
       <c r="AH29" s="11">
-        <v>-14</v>
-      </c>
-      <c r="AI29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ29" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AK29" s="11" t="s">
         <v>57</v>
@@ -3534,53 +3534,53 @@
       <c r="AL29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM29" s="11" t="s">
-        <v>57</v>
+      <c r="AM29" s="11">
+        <v>-22</v>
       </c>
       <c r="AN29" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AO29" s="11">
-        <v>-22</v>
-      </c>
-      <c r="AP29" s="11" t="s">
-        <v>57</v>
+        <v>-115</v>
+      </c>
+      <c r="AP29" s="11">
+        <v>-178</v>
       </c>
       <c r="AQ29" s="11">
-        <v>-115</v>
+        <v>-46</v>
       </c>
       <c r="AR29" s="11">
-        <v>-178</v>
-      </c>
-      <c r="AS29" s="11">
-        <v>-46</v>
-      </c>
-      <c r="AT29" s="11">
         <v>-98</v>
       </c>
+      <c r="AS29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT29" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AU29" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AV29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AW29" s="11" t="s">
-        <v>57</v>
+      <c r="AW29" s="11">
+        <v>-36</v>
       </c>
       <c r="AX29" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AY29" s="11">
-        <v>-36</v>
-      </c>
-      <c r="AZ29" s="11" t="s">
-        <v>57</v>
+        <v>-152</v>
+      </c>
+      <c r="AZ29" s="11">
+        <v>-29</v>
       </c>
       <c r="BA29" s="11">
-        <v>-152</v>
+        <v>-31</v>
       </c>
       <c r="BB29" s="11">
-        <v>-29</v>
+        <v>-314</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3649,35 +3649,35 @@
       <c r="X30" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Y30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z30" s="19" t="s">
-        <v>57</v>
+      <c r="Y30" s="19">
+        <v>-20</v>
+      </c>
+      <c r="Z30" s="19">
+        <v>0</v>
       </c>
       <c r="AA30" s="19">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="19">
         <v>0</v>
       </c>
       <c r="AC30" s="19">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AD30" s="19">
         <v>0</v>
       </c>
       <c r="AE30" s="19">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="19">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AG30" s="19">
         <v>0</v>
       </c>
       <c r="AH30" s="19">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="19">
         <v>0</v>
@@ -3692,28 +3692,28 @@
         <v>0</v>
       </c>
       <c r="AM30" s="19">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="AN30" s="19">
         <v>0</v>
       </c>
       <c r="AO30" s="19">
-        <v>-22</v>
+        <v>-115</v>
       </c>
       <c r="AP30" s="19">
-        <v>0</v>
+        <v>-178</v>
       </c>
       <c r="AQ30" s="19">
-        <v>-115</v>
+        <v>-46</v>
       </c>
       <c r="AR30" s="19">
-        <v>-178</v>
+        <v>-98</v>
       </c>
       <c r="AS30" s="19">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="19">
-        <v>-98</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="19">
         <v>0</v>
@@ -3722,22 +3722,22 @@
         <v>0</v>
       </c>
       <c r="AW30" s="19">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="AX30" s="19">
         <v>0</v>
       </c>
       <c r="AY30" s="19">
-        <v>-36</v>
+        <v>-152</v>
       </c>
       <c r="AZ30" s="19">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="BA30" s="19">
-        <v>-152</v>
+        <v>-31</v>
       </c>
       <c r="BB30" s="19">
-        <v>-29</v>
+        <v>-314</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3747,154 +3747,154 @@
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17">
-        <v>6246</v>
+        <v>5242</v>
       </c>
       <c r="F31" s="17">
-        <v>5756</v>
+        <v>6277</v>
       </c>
       <c r="G31" s="17">
-        <v>5242</v>
+        <v>4772</v>
       </c>
       <c r="H31" s="17">
-        <v>6277</v>
+        <v>5043</v>
       </c>
       <c r="I31" s="17">
-        <v>4772</v>
+        <v>8225</v>
       </c>
       <c r="J31" s="17">
-        <v>5043</v>
+        <v>7418</v>
       </c>
       <c r="K31" s="17">
-        <v>8225</v>
+        <v>7214</v>
       </c>
       <c r="L31" s="17">
-        <v>7418</v>
+        <v>5252</v>
       </c>
       <c r="M31" s="17">
-        <v>7214</v>
+        <v>4786</v>
       </c>
       <c r="N31" s="17">
-        <v>5252</v>
+        <v>4945</v>
       </c>
       <c r="O31" s="17">
-        <v>4786</v>
+        <v>6800</v>
       </c>
       <c r="P31" s="17">
-        <v>4945</v>
+        <v>6177</v>
       </c>
       <c r="Q31" s="17">
-        <v>6800</v>
+        <v>4474</v>
       </c>
       <c r="R31" s="17">
-        <v>6177</v>
+        <v>6253</v>
       </c>
       <c r="S31" s="17">
-        <v>4474</v>
+        <v>5923</v>
       </c>
       <c r="T31" s="17">
-        <v>6253</v>
+        <v>6811</v>
       </c>
       <c r="U31" s="17">
-        <v>5923</v>
+        <v>8553</v>
       </c>
       <c r="V31" s="17">
-        <v>6811</v>
+        <v>6879</v>
       </c>
       <c r="W31" s="17">
-        <v>8553</v>
+        <v>6734</v>
       </c>
       <c r="X31" s="17">
-        <v>6879</v>
+        <v>5493</v>
       </c>
       <c r="Y31" s="17">
-        <v>6734</v>
+        <v>7187</v>
       </c>
       <c r="Z31" s="17">
-        <v>5493</v>
+        <v>6209</v>
       </c>
       <c r="AA31" s="17">
-        <v>7187</v>
+        <v>6609</v>
       </c>
       <c r="AB31" s="17">
-        <v>6209</v>
+        <v>6566</v>
       </c>
       <c r="AC31" s="17">
-        <v>6609</v>
+        <v>5267</v>
       </c>
       <c r="AD31" s="17">
-        <v>6566</v>
+        <v>6192</v>
       </c>
       <c r="AE31" s="17">
-        <v>5267</v>
+        <v>6710</v>
       </c>
       <c r="AF31" s="17">
-        <v>6192</v>
+        <v>5839</v>
       </c>
       <c r="AG31" s="17">
-        <v>6710</v>
+        <v>6851</v>
       </c>
       <c r="AH31" s="17">
-        <v>5839</v>
+        <v>4435</v>
       </c>
       <c r="AI31" s="17">
-        <v>6851</v>
+        <v>6885</v>
       </c>
       <c r="AJ31" s="17">
-        <v>4435</v>
+        <v>6410</v>
       </c>
       <c r="AK31" s="17">
-        <v>6885</v>
+        <v>5950</v>
       </c>
       <c r="AL31" s="17">
-        <v>6410</v>
+        <v>6615</v>
       </c>
       <c r="AM31" s="17">
-        <v>5950</v>
+        <v>7368</v>
       </c>
       <c r="AN31" s="17">
-        <v>6615</v>
+        <v>5184</v>
       </c>
       <c r="AO31" s="17">
-        <v>7368</v>
+        <v>6257</v>
       </c>
       <c r="AP31" s="17">
-        <v>5184</v>
+        <v>5262</v>
       </c>
       <c r="AQ31" s="17">
-        <v>6257</v>
+        <v>5566</v>
       </c>
       <c r="AR31" s="17">
-        <v>5262</v>
+        <v>5172</v>
       </c>
       <c r="AS31" s="17">
-        <v>5566</v>
+        <v>8214</v>
       </c>
       <c r="AT31" s="17">
-        <v>5172</v>
+        <v>5509</v>
       </c>
       <c r="AU31" s="17">
-        <v>8214</v>
+        <v>5464</v>
       </c>
       <c r="AV31" s="17">
-        <v>5509</v>
+        <v>5752</v>
       </c>
       <c r="AW31" s="17">
-        <v>5464</v>
+        <v>5560</v>
       </c>
       <c r="AX31" s="17">
-        <v>5752</v>
+        <v>6336</v>
       </c>
       <c r="AY31" s="17">
-        <v>5560</v>
+        <v>5983</v>
       </c>
       <c r="AZ31" s="17">
-        <v>6336</v>
+        <v>5365</v>
       </c>
       <c r="BA31" s="17">
-        <v>5983</v>
+        <v>6339</v>
       </c>
       <c r="BB31" s="17">
-        <v>5365</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4363,47 +4363,47 @@
       <c r="L38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>57</v>
+      <c r="M38" s="11">
+        <v>160981</v>
+      </c>
+      <c r="N38" s="11">
+        <v>169111</v>
       </c>
       <c r="O38" s="11">
-        <v>160981</v>
+        <v>231161</v>
       </c>
       <c r="P38" s="11">
-        <v>169111</v>
+        <v>214358</v>
       </c>
       <c r="Q38" s="11">
-        <v>231161</v>
+        <v>153211</v>
       </c>
       <c r="R38" s="11">
-        <v>214358</v>
+        <v>214331</v>
       </c>
       <c r="S38" s="11">
-        <v>153211</v>
+        <v>206298</v>
       </c>
       <c r="T38" s="11">
-        <v>214331</v>
+        <v>237827</v>
       </c>
       <c r="U38" s="11">
-        <v>206298</v>
+        <v>304372</v>
       </c>
       <c r="V38" s="11">
-        <v>237827</v>
+        <v>247873</v>
       </c>
       <c r="W38" s="11">
-        <v>304372</v>
+        <v>273114</v>
       </c>
       <c r="X38" s="11">
-        <v>247873</v>
-      </c>
-      <c r="Y38" s="11">
-        <v>273114</v>
-      </c>
-      <c r="Z38" s="11">
         <v>231526</v>
+      </c>
+      <c r="Y38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z38" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA38" s="11" t="s">
         <v>57</v>
@@ -4499,34 +4499,34 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>123594</v>
+        <v>110227</v>
       </c>
       <c r="F39" s="13">
-        <v>124173</v>
+        <v>132457</v>
       </c>
       <c r="G39" s="13">
-        <v>110227</v>
+        <v>110411</v>
       </c>
       <c r="H39" s="13">
-        <v>132457</v>
+        <v>127681</v>
       </c>
       <c r="I39" s="13">
-        <v>110411</v>
+        <v>206007</v>
       </c>
       <c r="J39" s="13">
-        <v>127681</v>
+        <v>189017</v>
       </c>
       <c r="K39" s="13">
-        <v>206007</v>
+        <v>214536</v>
       </c>
       <c r="L39" s="13">
-        <v>189017</v>
-      </c>
-      <c r="M39" s="13">
-        <v>214536</v>
-      </c>
-      <c r="N39" s="13">
         <v>169432</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="O39" s="13" t="s">
         <v>57</v>
@@ -4717,95 +4717,95 @@
       <c r="X40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z40" s="11" t="s">
-        <v>57</v>
+      <c r="Y40" s="11">
+        <v>308457</v>
+      </c>
+      <c r="Z40" s="11">
+        <v>281405</v>
       </c>
       <c r="AA40" s="11">
-        <v>308457</v>
+        <v>306000</v>
       </c>
       <c r="AB40" s="11">
-        <v>281405</v>
+        <v>315629</v>
       </c>
       <c r="AC40" s="11">
-        <v>306000</v>
+        <v>275082</v>
       </c>
       <c r="AD40" s="11">
-        <v>315629</v>
+        <v>346941</v>
       </c>
       <c r="AE40" s="11">
-        <v>275082</v>
+        <v>389823</v>
       </c>
       <c r="AF40" s="11">
-        <v>346941</v>
+        <v>357159</v>
       </c>
       <c r="AG40" s="11">
-        <v>389823</v>
+        <v>409967</v>
       </c>
       <c r="AH40" s="11">
-        <v>357159</v>
+        <v>280415</v>
       </c>
       <c r="AI40" s="11">
-        <v>409967</v>
+        <v>573470</v>
       </c>
       <c r="AJ40" s="11">
-        <v>280415</v>
+        <v>532136</v>
       </c>
       <c r="AK40" s="11">
-        <v>573470</v>
+        <v>491564</v>
       </c>
       <c r="AL40" s="11">
-        <v>532136</v>
+        <v>571218</v>
       </c>
       <c r="AM40" s="11">
-        <v>491564</v>
+        <v>640034</v>
       </c>
       <c r="AN40" s="11">
-        <v>571218</v>
+        <v>486019</v>
       </c>
       <c r="AO40" s="11">
-        <v>640034</v>
+        <v>629802</v>
       </c>
       <c r="AP40" s="11">
-        <v>486019</v>
+        <v>546523</v>
       </c>
       <c r="AQ40" s="11">
-        <v>629802</v>
+        <v>569373</v>
       </c>
       <c r="AR40" s="11">
-        <v>546523</v>
+        <v>516681</v>
       </c>
       <c r="AS40" s="11">
-        <v>569373</v>
+        <v>842826</v>
       </c>
       <c r="AT40" s="11">
-        <v>516681</v>
+        <v>554902</v>
       </c>
       <c r="AU40" s="11">
-        <v>842826</v>
+        <v>637538</v>
       </c>
       <c r="AV40" s="11">
-        <v>554902</v>
+        <v>711031</v>
       </c>
       <c r="AW40" s="11">
-        <v>637538</v>
+        <v>740990</v>
       </c>
       <c r="AX40" s="11">
-        <v>711031</v>
+        <v>801103</v>
       </c>
       <c r="AY40" s="11">
-        <v>740990</v>
+        <v>835011</v>
       </c>
       <c r="AZ40" s="11">
-        <v>801103</v>
+        <v>699937</v>
       </c>
       <c r="BA40" s="11">
-        <v>835011</v>
+        <v>750572</v>
       </c>
       <c r="BB40" s="11">
-        <v>699937</v>
+        <v>768984</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -4933,11 +4933,11 @@
       <c r="X42" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z42" s="17" t="s">
-        <v>57</v>
+      <c r="Y42" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="17">
+        <v>0</v>
       </c>
       <c r="AA42" s="17">
         <v>0</v>
@@ -5149,35 +5149,35 @@
       <c r="X44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z44" s="11" t="s">
-        <v>57</v>
+      <c r="Y44" s="11">
+        <v>-790</v>
+      </c>
+      <c r="Z44" s="11">
+        <v>0</v>
       </c>
       <c r="AA44" s="11">
-        <v>-790</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="11">
         <v>0</v>
       </c>
       <c r="AC44" s="11">
-        <v>0</v>
+        <v>-1552</v>
       </c>
       <c r="AD44" s="11">
         <v>0</v>
       </c>
       <c r="AE44" s="11">
-        <v>-1552</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="11">
-        <v>0</v>
+        <v>-977</v>
       </c>
       <c r="AG44" s="11">
         <v>0</v>
       </c>
       <c r="AH44" s="11">
-        <v>-977</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="11">
         <v>0</v>
@@ -5192,28 +5192,28 @@
         <v>0</v>
       </c>
       <c r="AM44" s="11">
-        <v>0</v>
+        <v>-1987</v>
       </c>
       <c r="AN44" s="11">
         <v>0</v>
       </c>
       <c r="AO44" s="11">
-        <v>-1987</v>
+        <v>-9754</v>
       </c>
       <c r="AP44" s="11">
-        <v>0</v>
+        <v>-14982</v>
       </c>
       <c r="AQ44" s="11">
-        <v>-9754</v>
+        <v>-3637</v>
       </c>
       <c r="AR44" s="11">
-        <v>-14982</v>
+        <v>-8660</v>
       </c>
       <c r="AS44" s="11">
-        <v>-3637</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="11">
-        <v>-8660</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="11">
         <v>0</v>
@@ -5222,22 +5222,22 @@
         <v>0</v>
       </c>
       <c r="AW44" s="11">
-        <v>0</v>
+        <v>-4459</v>
       </c>
       <c r="AX44" s="11">
         <v>0</v>
       </c>
       <c r="AY44" s="11">
-        <v>-4459</v>
+        <v>-20975</v>
       </c>
       <c r="AZ44" s="11">
-        <v>0</v>
+        <v>-4087</v>
       </c>
       <c r="BA44" s="11">
-        <v>-20975</v>
+        <v>-4838</v>
       </c>
       <c r="BB44" s="11">
-        <v>-4087</v>
+        <v>-46969</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5308,35 +5308,35 @@
       <c r="X45" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Y45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z45" s="19" t="s">
-        <v>57</v>
+      <c r="Y45" s="19">
+        <v>-790</v>
+      </c>
+      <c r="Z45" s="19">
+        <v>0</v>
       </c>
       <c r="AA45" s="19">
-        <v>-790</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="19">
         <v>0</v>
       </c>
       <c r="AC45" s="19">
-        <v>0</v>
+        <v>-1552</v>
       </c>
       <c r="AD45" s="19">
         <v>0</v>
       </c>
       <c r="AE45" s="19">
-        <v>-1552</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="19">
-        <v>0</v>
+        <v>-977</v>
       </c>
       <c r="AG45" s="19">
         <v>0</v>
       </c>
       <c r="AH45" s="19">
-        <v>-977</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="19">
         <v>0</v>
@@ -5351,28 +5351,28 @@
         <v>0</v>
       </c>
       <c r="AM45" s="19">
-        <v>0</v>
+        <v>-1987</v>
       </c>
       <c r="AN45" s="19">
         <v>0</v>
       </c>
       <c r="AO45" s="19">
-        <v>-1987</v>
+        <v>-9754</v>
       </c>
       <c r="AP45" s="19">
-        <v>0</v>
+        <v>-14982</v>
       </c>
       <c r="AQ45" s="19">
-        <v>-9754</v>
+        <v>-3637</v>
       </c>
       <c r="AR45" s="19">
-        <v>-14982</v>
+        <v>-8660</v>
       </c>
       <c r="AS45" s="19">
-        <v>-3637</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="19">
-        <v>-8660</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="19">
         <v>0</v>
@@ -5381,22 +5381,22 @@
         <v>0</v>
       </c>
       <c r="AW45" s="19">
-        <v>0</v>
+        <v>-4459</v>
       </c>
       <c r="AX45" s="19">
         <v>0</v>
       </c>
       <c r="AY45" s="19">
-        <v>-4459</v>
+        <v>-20975</v>
       </c>
       <c r="AZ45" s="19">
-        <v>0</v>
+        <v>-4087</v>
       </c>
       <c r="BA45" s="19">
-        <v>-20975</v>
+        <v>-4838</v>
       </c>
       <c r="BB45" s="19">
-        <v>-4087</v>
+        <v>-46969</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5524,95 +5524,95 @@
       <c r="X47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z47" s="11" t="s">
-        <v>57</v>
+      <c r="Y47" s="11">
+        <v>-191</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>-144</v>
       </c>
       <c r="AA47" s="11">
-        <v>-191</v>
+        <v>-151</v>
       </c>
       <c r="AB47" s="11">
+        <v>-97</v>
+      </c>
+      <c r="AC47" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AD47" s="11">
+        <v>-39</v>
+      </c>
+      <c r="AE47" s="11">
+        <v>-61</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>-8</v>
+      </c>
+      <c r="AG47" s="11">
+        <v>-74</v>
+      </c>
+      <c r="AH47" s="11">
+        <v>-39</v>
+      </c>
+      <c r="AI47" s="11">
+        <v>-54</v>
+      </c>
+      <c r="AJ47" s="11">
+        <v>-25</v>
+      </c>
+      <c r="AK47" s="11">
+        <v>-38</v>
+      </c>
+      <c r="AL47" s="11">
+        <v>-73</v>
+      </c>
+      <c r="AM47" s="11">
+        <v>-43</v>
+      </c>
+      <c r="AN47" s="11">
+        <v>-43</v>
+      </c>
+      <c r="AO47" s="11">
+        <v>-121</v>
+      </c>
+      <c r="AP47" s="11">
+        <v>-73</v>
+      </c>
+      <c r="AQ47" s="11">
+        <v>-163</v>
+      </c>
+      <c r="AR47" s="11">
+        <v>-99</v>
+      </c>
+      <c r="AS47" s="11">
         <v>-144</v>
       </c>
-      <c r="AC47" s="11">
-        <v>-151</v>
-      </c>
-      <c r="AD47" s="11">
-        <v>-97</v>
-      </c>
-      <c r="AE47" s="11">
+      <c r="AT47" s="11">
+        <v>-270</v>
+      </c>
+      <c r="AU47" s="11">
         <v>-19</v>
       </c>
-      <c r="AF47" s="11">
-        <v>-39</v>
-      </c>
-      <c r="AG47" s="11">
-        <v>-61</v>
-      </c>
-      <c r="AH47" s="11">
-        <v>-8</v>
-      </c>
-      <c r="AI47" s="11">
-        <v>-74</v>
-      </c>
-      <c r="AJ47" s="11">
-        <v>-39</v>
-      </c>
-      <c r="AK47" s="11">
-        <v>-54</v>
-      </c>
-      <c r="AL47" s="11">
-        <v>-25</v>
-      </c>
-      <c r="AM47" s="11">
-        <v>-38</v>
-      </c>
-      <c r="AN47" s="11">
-        <v>-73</v>
-      </c>
-      <c r="AO47" s="11">
-        <v>-43</v>
-      </c>
-      <c r="AP47" s="11">
-        <v>-43</v>
-      </c>
-      <c r="AQ47" s="11">
-        <v>-121</v>
-      </c>
-      <c r="AR47" s="11">
-        <v>-73</v>
-      </c>
-      <c r="AS47" s="11">
-        <v>-163</v>
-      </c>
-      <c r="AT47" s="11">
-        <v>-99</v>
-      </c>
-      <c r="AU47" s="11">
-        <v>-144</v>
-      </c>
       <c r="AV47" s="11">
-        <v>-270</v>
+        <v>-135</v>
       </c>
       <c r="AW47" s="11">
-        <v>-19</v>
+        <v>-37</v>
       </c>
       <c r="AX47" s="11">
-        <v>-135</v>
+        <v>-397</v>
       </c>
       <c r="AY47" s="11">
-        <v>-37</v>
+        <v>-8349</v>
       </c>
       <c r="AZ47" s="11">
-        <v>-397</v>
+        <v>-9695</v>
       </c>
       <c r="BA47" s="11">
-        <v>-8349</v>
+        <v>-16312</v>
       </c>
       <c r="BB47" s="11">
-        <v>-9695</v>
+        <v>-24729</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5622,154 +5622,154 @@
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
-        <v>123594</v>
+        <v>110227</v>
       </c>
       <c r="F48" s="19">
-        <v>124173</v>
+        <v>132457</v>
       </c>
       <c r="G48" s="19">
-        <v>110227</v>
+        <v>110411</v>
       </c>
       <c r="H48" s="19">
-        <v>132457</v>
+        <v>127681</v>
       </c>
       <c r="I48" s="19">
-        <v>110411</v>
+        <v>206007</v>
       </c>
       <c r="J48" s="19">
-        <v>127681</v>
+        <v>189017</v>
       </c>
       <c r="K48" s="19">
-        <v>206007</v>
+        <v>214536</v>
       </c>
       <c r="L48" s="19">
-        <v>189017</v>
+        <v>169432</v>
       </c>
       <c r="M48" s="19">
-        <v>214536</v>
+        <v>160981</v>
       </c>
       <c r="N48" s="19">
-        <v>169432</v>
+        <v>169111</v>
       </c>
       <c r="O48" s="19">
-        <v>160981</v>
+        <v>231161</v>
       </c>
       <c r="P48" s="19">
-        <v>169111</v>
+        <v>214358</v>
       </c>
       <c r="Q48" s="19">
-        <v>231161</v>
+        <v>153211</v>
       </c>
       <c r="R48" s="19">
-        <v>214358</v>
+        <v>214331</v>
       </c>
       <c r="S48" s="19">
-        <v>153211</v>
+        <v>206298</v>
       </c>
       <c r="T48" s="19">
-        <v>214331</v>
+        <v>237827</v>
       </c>
       <c r="U48" s="19">
-        <v>206298</v>
+        <v>304372</v>
       </c>
       <c r="V48" s="19">
-        <v>237827</v>
+        <v>247873</v>
       </c>
       <c r="W48" s="19">
-        <v>304372</v>
+        <v>273114</v>
       </c>
       <c r="X48" s="19">
-        <v>247873</v>
+        <v>231526</v>
       </c>
       <c r="Y48" s="19">
-        <v>273114</v>
+        <v>307476</v>
       </c>
       <c r="Z48" s="19">
-        <v>231526</v>
+        <v>281261</v>
       </c>
       <c r="AA48" s="19">
-        <v>307476</v>
+        <v>305849</v>
       </c>
       <c r="AB48" s="19">
-        <v>281261</v>
+        <v>315532</v>
       </c>
       <c r="AC48" s="19">
-        <v>305849</v>
+        <v>273511</v>
       </c>
       <c r="AD48" s="19">
-        <v>315532</v>
+        <v>346902</v>
       </c>
       <c r="AE48" s="19">
-        <v>273511</v>
+        <v>389762</v>
       </c>
       <c r="AF48" s="19">
-        <v>346902</v>
+        <v>356174</v>
       </c>
       <c r="AG48" s="19">
-        <v>389762</v>
+        <v>409893</v>
       </c>
       <c r="AH48" s="19">
-        <v>356174</v>
+        <v>280376</v>
       </c>
       <c r="AI48" s="19">
-        <v>409893</v>
+        <v>573416</v>
       </c>
       <c r="AJ48" s="19">
-        <v>280376</v>
+        <v>532111</v>
       </c>
       <c r="AK48" s="19">
-        <v>573416</v>
+        <v>491526</v>
       </c>
       <c r="AL48" s="19">
-        <v>532111</v>
+        <v>571145</v>
       </c>
       <c r="AM48" s="19">
-        <v>491526</v>
+        <v>638004</v>
       </c>
       <c r="AN48" s="19">
-        <v>571145</v>
+        <v>485976</v>
       </c>
       <c r="AO48" s="19">
-        <v>638004</v>
+        <v>619927</v>
       </c>
       <c r="AP48" s="19">
-        <v>485976</v>
+        <v>531468</v>
       </c>
       <c r="AQ48" s="19">
-        <v>619927</v>
+        <v>565573</v>
       </c>
       <c r="AR48" s="19">
-        <v>531468</v>
+        <v>507922</v>
       </c>
       <c r="AS48" s="19">
-        <v>565573</v>
+        <v>842682</v>
       </c>
       <c r="AT48" s="19">
-        <v>507922</v>
+        <v>554632</v>
       </c>
       <c r="AU48" s="19">
-        <v>842682</v>
+        <v>637519</v>
       </c>
       <c r="AV48" s="19">
-        <v>554632</v>
+        <v>710896</v>
       </c>
       <c r="AW48" s="19">
-        <v>637519</v>
+        <v>736494</v>
       </c>
       <c r="AX48" s="19">
-        <v>710896</v>
+        <v>800706</v>
       </c>
       <c r="AY48" s="19">
-        <v>736494</v>
+        <v>805687</v>
       </c>
       <c r="AZ48" s="19">
-        <v>800706</v>
+        <v>686155</v>
       </c>
       <c r="BA48" s="19">
-        <v>805687</v>
+        <v>729422</v>
       </c>
       <c r="BB48" s="19">
-        <v>686155</v>
+        <v>697286</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6238,47 +6238,47 @@
       <c r="L55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N55" s="11" t="s">
-        <v>57</v>
+      <c r="M55" s="11">
+        <v>33635813</v>
+      </c>
+      <c r="N55" s="11">
+        <v>34198382</v>
       </c>
       <c r="O55" s="11">
-        <v>33635813</v>
+        <v>33994265</v>
       </c>
       <c r="P55" s="11">
-        <v>34198382</v>
+        <v>34702606</v>
       </c>
       <c r="Q55" s="11">
-        <v>33994265</v>
+        <v>34244747</v>
       </c>
       <c r="R55" s="11">
-        <v>34702606</v>
+        <v>34276507</v>
       </c>
       <c r="S55" s="11">
-        <v>34244747</v>
+        <v>34829985</v>
       </c>
       <c r="T55" s="11">
-        <v>34276507</v>
+        <v>34918074</v>
       </c>
       <c r="U55" s="11">
-        <v>34829985</v>
+        <v>35586578</v>
       </c>
       <c r="V55" s="11">
-        <v>34918074</v>
+        <v>36033290</v>
       </c>
       <c r="W55" s="11">
-        <v>35586578</v>
+        <v>40557470</v>
       </c>
       <c r="X55" s="11">
-        <v>36033290</v>
-      </c>
-      <c r="Y55" s="11">
-        <v>40557470</v>
-      </c>
-      <c r="Z55" s="11">
         <v>42149281</v>
+      </c>
+      <c r="Y55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA55" s="11" t="s">
         <v>57</v>
@@ -6374,34 +6374,34 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>19787704</v>
+        <v>21027661</v>
       </c>
       <c r="F56" s="13">
-        <v>21572794</v>
+        <v>21101960</v>
       </c>
       <c r="G56" s="13">
-        <v>21027661</v>
+        <v>23137259</v>
       </c>
       <c r="H56" s="13">
-        <v>21101960</v>
+        <v>25318461</v>
       </c>
       <c r="I56" s="13">
-        <v>23137259</v>
+        <v>25046444</v>
       </c>
       <c r="J56" s="13">
-        <v>25318461</v>
+        <v>25480857</v>
       </c>
       <c r="K56" s="13">
-        <v>25046444</v>
+        <v>29738841</v>
       </c>
       <c r="L56" s="13">
-        <v>25480857</v>
-      </c>
-      <c r="M56" s="13">
-        <v>29738841</v>
-      </c>
-      <c r="N56" s="13">
         <v>32260472</v>
+      </c>
+      <c r="M56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="O56" s="13" t="s">
         <v>57</v>
@@ -6592,95 +6592,95 @@
       <c r="X57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z57" s="11" t="s">
-        <v>57</v>
+      <c r="Y57" s="11">
+        <v>42799639</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>45322113</v>
       </c>
       <c r="AA57" s="11">
-        <v>42799639</v>
+        <v>46300499</v>
       </c>
       <c r="AB57" s="11">
-        <v>45322113</v>
+        <v>48070210</v>
       </c>
       <c r="AC57" s="11">
-        <v>46300499</v>
+        <v>51912059</v>
       </c>
       <c r="AD57" s="11">
-        <v>48070210</v>
+        <v>56030523</v>
       </c>
       <c r="AE57" s="11">
-        <v>51912059</v>
+        <v>58095827</v>
       </c>
       <c r="AF57" s="11">
-        <v>56030523</v>
+        <v>61021527</v>
       </c>
       <c r="AG57" s="11">
-        <v>58095827</v>
+        <v>59840461</v>
       </c>
       <c r="AH57" s="11">
-        <v>61021527</v>
+        <v>63227734</v>
       </c>
       <c r="AI57" s="11">
-        <v>59840461</v>
+        <v>83292665</v>
       </c>
       <c r="AJ57" s="11">
-        <v>63227734</v>
+        <v>83016537</v>
       </c>
       <c r="AK57" s="11">
-        <v>83292665</v>
+        <v>82615798</v>
       </c>
       <c r="AL57" s="11">
-        <v>83016537</v>
+        <v>86351927</v>
       </c>
       <c r="AM57" s="11">
-        <v>82615798</v>
+        <v>86608119</v>
       </c>
       <c r="AN57" s="11">
-        <v>86351927</v>
+        <v>93753665</v>
       </c>
       <c r="AO57" s="11">
-        <v>86608119</v>
+        <v>98838983</v>
       </c>
       <c r="AP57" s="11">
-        <v>93753665</v>
+        <v>100463787</v>
       </c>
       <c r="AQ57" s="11">
-        <v>98838983</v>
+        <v>101456344</v>
       </c>
       <c r="AR57" s="11">
-        <v>100463787</v>
+        <v>98041935</v>
       </c>
       <c r="AS57" s="11">
-        <v>101456344</v>
+        <v>102608473</v>
       </c>
       <c r="AT57" s="11">
-        <v>98041935</v>
+        <v>100726448</v>
       </c>
       <c r="AU57" s="11">
-        <v>102608473</v>
+        <v>116679722</v>
       </c>
       <c r="AV57" s="11">
-        <v>100726448</v>
+        <v>123614569</v>
       </c>
       <c r="AW57" s="11">
-        <v>116679722</v>
+        <v>132414224</v>
       </c>
       <c r="AX57" s="11">
-        <v>123614569</v>
+        <v>126436711</v>
       </c>
       <c r="AY57" s="11">
-        <v>132414224</v>
+        <v>136106112</v>
       </c>
       <c r="AZ57" s="11">
-        <v>126436711</v>
+        <v>129762143</v>
       </c>
       <c r="BA57" s="11">
-        <v>136106112</v>
+        <v>117829199</v>
       </c>
       <c r="BB57" s="11">
-        <v>129762143</v>
+        <v>131225939</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shishe/kehamda/product/monthly.xlsx
+++ b/database/industries/shishe/kehamda/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866C5241-D2B6-4877-805B-D4A5F973B0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D00F5F6-3F9B-40FB-B4B5-80B3EB4E2E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کهمدا-شیشه‌ همدان‌</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 5 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 7 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 6 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 7 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/11</t>
   </si>
   <si>
     <t>انواع ظروف شیشه ای</t>
@@ -727,12 +727,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -787,7 +787,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -956,7 +956,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1125,7 +1125,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1337,7 +1337,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1420,48 +1420,48 @@
       <c r="J11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>57</v>
+      <c r="K11" s="11">
+        <v>5812</v>
+      </c>
+      <c r="L11" s="11">
+        <v>5753</v>
       </c>
       <c r="M11" s="11">
-        <v>5812</v>
+        <v>6036</v>
       </c>
       <c r="N11" s="11">
-        <v>5753</v>
+        <v>6011</v>
       </c>
       <c r="O11" s="11">
-        <v>6036</v>
+        <v>6226</v>
       </c>
       <c r="P11" s="11">
-        <v>6011</v>
+        <v>6080</v>
       </c>
       <c r="Q11" s="11">
-        <v>6226</v>
+        <v>5939</v>
       </c>
       <c r="R11" s="11">
-        <v>6080</v>
+        <v>6012</v>
       </c>
       <c r="S11" s="11">
-        <v>5939</v>
+        <v>5701</v>
       </c>
       <c r="T11" s="11">
-        <v>6012</v>
+        <v>6415</v>
       </c>
       <c r="U11" s="11">
-        <v>5701</v>
+        <v>5961</v>
       </c>
       <c r="V11" s="11">
-        <v>6415</v>
-      </c>
-      <c r="W11" s="11">
-        <v>5961</v>
-      </c>
-      <c r="X11" s="11">
         <v>6164</v>
       </c>
+      <c r="W11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1562,29 +1562,29 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>6209</v>
+        <v>5823</v>
       </c>
       <c r="F12" s="13">
-        <v>6527</v>
+        <v>6301</v>
       </c>
       <c r="G12" s="13">
-        <v>5823</v>
+        <v>5777</v>
       </c>
       <c r="H12" s="13">
-        <v>6301</v>
+        <v>6317</v>
       </c>
       <c r="I12" s="13">
-        <v>5777</v>
+        <v>6254</v>
       </c>
       <c r="J12" s="13">
-        <v>6317</v>
-      </c>
-      <c r="K12" s="13">
-        <v>6254</v>
-      </c>
-      <c r="L12" s="13">
         <v>6184</v>
       </c>
+      <c r="K12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="M12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1774,104 +1774,104 @@
       <c r="V13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>57</v>
+      <c r="W13" s="11">
+        <v>5802</v>
+      </c>
+      <c r="X13" s="11">
+        <v>5647</v>
       </c>
       <c r="Y13" s="11">
-        <v>5802</v>
+        <v>6003</v>
       </c>
       <c r="Z13" s="11">
-        <v>5647</v>
+        <v>5610</v>
       </c>
       <c r="AA13" s="11">
-        <v>6003</v>
+        <v>5307</v>
       </c>
       <c r="AB13" s="11">
-        <v>5610</v>
+        <v>5804</v>
       </c>
       <c r="AC13" s="11">
-        <v>5307</v>
+        <v>6180</v>
       </c>
       <c r="AD13" s="11">
-        <v>5804</v>
+        <v>6152</v>
       </c>
       <c r="AE13" s="11">
-        <v>6180</v>
+        <v>6455</v>
       </c>
       <c r="AF13" s="11">
-        <v>6152</v>
+        <v>6708</v>
       </c>
       <c r="AG13" s="11">
-        <v>6455</v>
+        <v>6433</v>
       </c>
       <c r="AH13" s="11">
-        <v>6708</v>
+        <v>6495</v>
       </c>
       <c r="AI13" s="11">
-        <v>6433</v>
+        <v>6340</v>
       </c>
       <c r="AJ13" s="11">
-        <v>6495</v>
+        <v>6507</v>
       </c>
       <c r="AK13" s="11">
-        <v>6340</v>
+        <v>6445</v>
       </c>
       <c r="AL13" s="11">
-        <v>6507</v>
+        <v>6225</v>
       </c>
       <c r="AM13" s="11">
-        <v>6445</v>
+        <v>6345</v>
       </c>
       <c r="AN13" s="11">
-        <v>6225</v>
+        <v>6033</v>
       </c>
       <c r="AO13" s="11">
-        <v>6345</v>
+        <v>5866</v>
       </c>
       <c r="AP13" s="11">
-        <v>6033</v>
+        <v>6466</v>
       </c>
       <c r="AQ13" s="11">
-        <v>5866</v>
+        <v>6368</v>
       </c>
       <c r="AR13" s="11">
-        <v>6466</v>
+        <v>9629</v>
       </c>
       <c r="AS13" s="11">
-        <v>6368</v>
+        <v>9438</v>
       </c>
       <c r="AT13" s="11">
-        <v>9629</v>
+        <v>7693</v>
       </c>
       <c r="AU13" s="11">
-        <v>9438</v>
+        <v>7215</v>
       </c>
       <c r="AV13" s="11">
-        <v>7693</v>
+        <v>6594</v>
       </c>
       <c r="AW13" s="11">
-        <v>7215</v>
+        <v>7795</v>
       </c>
       <c r="AX13" s="11">
-        <v>6594</v>
+        <v>8972</v>
       </c>
       <c r="AY13" s="11">
-        <v>7795</v>
+        <v>8924</v>
       </c>
       <c r="AZ13" s="11">
-        <v>8972</v>
+        <v>8906</v>
       </c>
       <c r="BA13" s="11">
-        <v>8924</v>
+        <v>9451</v>
       </c>
       <c r="BB13" s="11">
-        <v>8906</v>
+        <v>9866</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>60</v>
       </c>
@@ -1928,7 +1928,7 @@
       <c r="BA14" s="15"/>
       <c r="BB14" s="15"/>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>61</v>
       </c>
@@ -1988,11 +1988,11 @@
       <c r="V15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X15" s="17" t="s">
-        <v>57</v>
+      <c r="W15" s="17">
+        <v>0</v>
+      </c>
+      <c r="X15" s="17">
+        <v>0</v>
       </c>
       <c r="Y15" s="17">
         <v>0</v>
@@ -2085,164 +2085,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19">
-        <v>6209</v>
+        <v>5823</v>
       </c>
       <c r="F16" s="19">
-        <v>6527</v>
+        <v>6301</v>
       </c>
       <c r="G16" s="19">
-        <v>5823</v>
+        <v>5777</v>
       </c>
       <c r="H16" s="19">
-        <v>6301</v>
+        <v>6317</v>
       </c>
       <c r="I16" s="19">
-        <v>5777</v>
+        <v>6254</v>
       </c>
       <c r="J16" s="19">
-        <v>6317</v>
+        <v>6184</v>
       </c>
       <c r="K16" s="19">
-        <v>6254</v>
+        <v>5812</v>
       </c>
       <c r="L16" s="19">
-        <v>6184</v>
+        <v>5753</v>
       </c>
       <c r="M16" s="19">
-        <v>5812</v>
+        <v>6036</v>
       </c>
       <c r="N16" s="19">
-        <v>5753</v>
+        <v>6011</v>
       </c>
       <c r="O16" s="19">
-        <v>6036</v>
+        <v>6226</v>
       </c>
       <c r="P16" s="19">
-        <v>6011</v>
+        <v>6080</v>
       </c>
       <c r="Q16" s="19">
-        <v>6226</v>
+        <v>5939</v>
       </c>
       <c r="R16" s="19">
-        <v>6080</v>
+        <v>6012</v>
       </c>
       <c r="S16" s="19">
-        <v>5939</v>
+        <v>5701</v>
       </c>
       <c r="T16" s="19">
-        <v>6012</v>
+        <v>6415</v>
       </c>
       <c r="U16" s="19">
-        <v>5701</v>
+        <v>5961</v>
       </c>
       <c r="V16" s="19">
-        <v>6415</v>
+        <v>6164</v>
       </c>
       <c r="W16" s="19">
-        <v>5961</v>
+        <v>5802</v>
       </c>
       <c r="X16" s="19">
-        <v>6164</v>
+        <v>5647</v>
       </c>
       <c r="Y16" s="19">
-        <v>5802</v>
+        <v>6003</v>
       </c>
       <c r="Z16" s="19">
-        <v>5647</v>
+        <v>5610</v>
       </c>
       <c r="AA16" s="19">
-        <v>6003</v>
+        <v>5307</v>
       </c>
       <c r="AB16" s="19">
-        <v>5610</v>
+        <v>5804</v>
       </c>
       <c r="AC16" s="19">
-        <v>5307</v>
+        <v>6180</v>
       </c>
       <c r="AD16" s="19">
-        <v>5804</v>
+        <v>6152</v>
       </c>
       <c r="AE16" s="19">
-        <v>6180</v>
+        <v>6455</v>
       </c>
       <c r="AF16" s="19">
-        <v>6152</v>
+        <v>6708</v>
       </c>
       <c r="AG16" s="19">
-        <v>6455</v>
+        <v>6433</v>
       </c>
       <c r="AH16" s="19">
-        <v>6708</v>
+        <v>6495</v>
       </c>
       <c r="AI16" s="19">
-        <v>6433</v>
+        <v>6340</v>
       </c>
       <c r="AJ16" s="19">
-        <v>6495</v>
+        <v>6507</v>
       </c>
       <c r="AK16" s="19">
-        <v>6340</v>
+        <v>6445</v>
       </c>
       <c r="AL16" s="19">
-        <v>6507</v>
+        <v>6225</v>
       </c>
       <c r="AM16" s="19">
-        <v>6445</v>
+        <v>6345</v>
       </c>
       <c r="AN16" s="19">
-        <v>6225</v>
+        <v>6033</v>
       </c>
       <c r="AO16" s="19">
-        <v>6345</v>
+        <v>5866</v>
       </c>
       <c r="AP16" s="19">
-        <v>6033</v>
+        <v>6466</v>
       </c>
       <c r="AQ16" s="19">
-        <v>5866</v>
+        <v>6368</v>
       </c>
       <c r="AR16" s="19">
-        <v>6466</v>
+        <v>9629</v>
       </c>
       <c r="AS16" s="19">
-        <v>6368</v>
+        <v>9438</v>
       </c>
       <c r="AT16" s="19">
-        <v>9629</v>
+        <v>7693</v>
       </c>
       <c r="AU16" s="19">
-        <v>9438</v>
+        <v>7215</v>
       </c>
       <c r="AV16" s="19">
-        <v>7693</v>
+        <v>6594</v>
       </c>
       <c r="AW16" s="19">
-        <v>7215</v>
+        <v>7795</v>
       </c>
       <c r="AX16" s="19">
-        <v>6594</v>
+        <v>8972</v>
       </c>
       <c r="AY16" s="19">
-        <v>7795</v>
+        <v>8924</v>
       </c>
       <c r="AZ16" s="19">
-        <v>8972</v>
+        <v>8906</v>
       </c>
       <c r="BA16" s="19">
-        <v>8924</v>
+        <v>9451</v>
       </c>
       <c r="BB16" s="19">
-        <v>8906</v>
+        <v>9866</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2297,7 +2297,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2352,7 +2352,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2407,7 +2407,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>63</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2619,7 +2619,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>63</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>55</v>
       </c>
@@ -2702,48 +2702,48 @@
       <c r="J23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>57</v>
+      <c r="K23" s="11">
+        <v>4786</v>
+      </c>
+      <c r="L23" s="11">
+        <v>4945</v>
       </c>
       <c r="M23" s="11">
-        <v>4786</v>
+        <v>6800</v>
       </c>
       <c r="N23" s="11">
-        <v>4945</v>
+        <v>6177</v>
       </c>
       <c r="O23" s="11">
-        <v>6800</v>
+        <v>4474</v>
       </c>
       <c r="P23" s="11">
-        <v>6177</v>
+        <v>6253</v>
       </c>
       <c r="Q23" s="11">
-        <v>4474</v>
+        <v>5923</v>
       </c>
       <c r="R23" s="11">
-        <v>6253</v>
+        <v>6811</v>
       </c>
       <c r="S23" s="11">
-        <v>5923</v>
+        <v>8553</v>
       </c>
       <c r="T23" s="11">
-        <v>6811</v>
+        <v>6879</v>
       </c>
       <c r="U23" s="11">
-        <v>8553</v>
+        <v>6734</v>
       </c>
       <c r="V23" s="11">
-        <v>6879</v>
-      </c>
-      <c r="W23" s="11">
-        <v>6734</v>
-      </c>
-      <c r="X23" s="11">
         <v>5493</v>
       </c>
+      <c r="W23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y23" s="11" t="s">
         <v>57</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>58</v>
       </c>
@@ -2844,29 +2844,29 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>5242</v>
+        <v>4772</v>
       </c>
       <c r="F24" s="13">
-        <v>6277</v>
+        <v>5043</v>
       </c>
       <c r="G24" s="13">
-        <v>4772</v>
+        <v>8225</v>
       </c>
       <c r="H24" s="13">
-        <v>5043</v>
+        <v>7418</v>
       </c>
       <c r="I24" s="13">
-        <v>8225</v>
+        <v>7214</v>
       </c>
       <c r="J24" s="13">
-        <v>7418</v>
-      </c>
-      <c r="K24" s="13">
-        <v>7214</v>
-      </c>
-      <c r="L24" s="13">
         <v>5252</v>
       </c>
+      <c r="K24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="M24" s="13" t="s">
         <v>57</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>59</v>
       </c>
@@ -3056,104 +3056,104 @@
       <c r="V25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>57</v>
+      <c r="W25" s="11">
+        <v>7207</v>
+      </c>
+      <c r="X25" s="11">
+        <v>6209</v>
       </c>
       <c r="Y25" s="11">
-        <v>7207</v>
+        <v>6609</v>
       </c>
       <c r="Z25" s="11">
-        <v>6209</v>
+        <v>6566</v>
       </c>
       <c r="AA25" s="11">
-        <v>6609</v>
+        <v>5299</v>
       </c>
       <c r="AB25" s="11">
-        <v>6566</v>
+        <v>6192</v>
       </c>
       <c r="AC25" s="11">
-        <v>5299</v>
+        <v>6710</v>
       </c>
       <c r="AD25" s="11">
-        <v>6192</v>
+        <v>5853</v>
       </c>
       <c r="AE25" s="11">
-        <v>6710</v>
+        <v>6851</v>
       </c>
       <c r="AF25" s="11">
-        <v>5853</v>
+        <v>4435</v>
       </c>
       <c r="AG25" s="11">
-        <v>6851</v>
+        <v>6885</v>
       </c>
       <c r="AH25" s="11">
-        <v>4435</v>
+        <v>6410</v>
       </c>
       <c r="AI25" s="11">
-        <v>6885</v>
+        <v>5950</v>
       </c>
       <c r="AJ25" s="11">
-        <v>6410</v>
+        <v>6615</v>
       </c>
       <c r="AK25" s="11">
-        <v>5950</v>
+        <v>7390</v>
       </c>
       <c r="AL25" s="11">
-        <v>6615</v>
+        <v>5184</v>
       </c>
       <c r="AM25" s="11">
-        <v>7390</v>
+        <v>6372</v>
       </c>
       <c r="AN25" s="11">
-        <v>5184</v>
+        <v>5440</v>
       </c>
       <c r="AO25" s="11">
-        <v>6372</v>
+        <v>5612</v>
       </c>
       <c r="AP25" s="11">
-        <v>5440</v>
+        <v>5270</v>
       </c>
       <c r="AQ25" s="11">
-        <v>5612</v>
+        <v>8214</v>
       </c>
       <c r="AR25" s="11">
-        <v>5270</v>
+        <v>5509</v>
       </c>
       <c r="AS25" s="11">
-        <v>8214</v>
+        <v>5464</v>
       </c>
       <c r="AT25" s="11">
-        <v>5509</v>
+        <v>5752</v>
       </c>
       <c r="AU25" s="11">
-        <v>5464</v>
+        <v>5596</v>
       </c>
       <c r="AV25" s="11">
-        <v>5752</v>
+        <v>6336</v>
       </c>
       <c r="AW25" s="11">
-        <v>5596</v>
+        <v>6135</v>
       </c>
       <c r="AX25" s="11">
-        <v>6336</v>
+        <v>5394</v>
       </c>
       <c r="AY25" s="11">
-        <v>6135</v>
+        <v>6370</v>
       </c>
       <c r="AZ25" s="11">
-        <v>5394</v>
+        <v>5860</v>
       </c>
       <c r="BA25" s="11">
-        <v>6370</v>
+        <v>5302</v>
       </c>
       <c r="BB25" s="11">
-        <v>5860</v>
+        <v>11577</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>61</v>
       </c>
@@ -3270,11 +3270,11 @@
       <c r="V27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X27" s="17" t="s">
-        <v>57</v>
+      <c r="W27" s="17">
+        <v>0</v>
+      </c>
+      <c r="X27" s="17">
+        <v>0</v>
       </c>
       <c r="Y27" s="17">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>64</v>
       </c>
@@ -3424,7 +3424,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>59</v>
       </c>
@@ -3486,41 +3486,41 @@
       <c r="V29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>57</v>
+      <c r="W29" s="11">
+        <v>-20</v>
+      </c>
+      <c r="X29" s="11">
+        <v>0</v>
       </c>
       <c r="Y29" s="11">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="11">
         <v>0</v>
       </c>
       <c r="AA29" s="11">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AB29" s="11">
         <v>0</v>
       </c>
       <c r="AC29" s="11">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="11">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AE29" s="11">
         <v>0</v>
       </c>
       <c r="AF29" s="11">
-        <v>-14</v>
-      </c>
-      <c r="AG29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH29" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI29" s="11" t="s">
         <v>57</v>
@@ -3528,62 +3528,62 @@
       <c r="AJ29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK29" s="11" t="s">
-        <v>57</v>
+      <c r="AK29" s="11">
+        <v>-22</v>
       </c>
       <c r="AL29" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AM29" s="11">
+        <v>-115</v>
+      </c>
+      <c r="AN29" s="11">
+        <v>-178</v>
+      </c>
+      <c r="AO29" s="11">
+        <v>-46</v>
+      </c>
+      <c r="AP29" s="11">
+        <v>-98</v>
+      </c>
+      <c r="AQ29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU29" s="11">
+        <v>-36</v>
+      </c>
+      <c r="AV29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW29" s="11">
+        <v>-152</v>
+      </c>
+      <c r="AX29" s="11">
+        <v>-29</v>
+      </c>
+      <c r="AY29" s="11">
+        <v>-31</v>
+      </c>
+      <c r="AZ29" s="11">
+        <v>-314</v>
+      </c>
+      <c r="BA29" s="11">
+        <v>-53</v>
+      </c>
+      <c r="BB29" s="11">
         <v>-22</v>
       </c>
-      <c r="AN29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO29" s="11">
-        <v>-115</v>
-      </c>
-      <c r="AP29" s="11">
-        <v>-178</v>
-      </c>
-      <c r="AQ29" s="11">
-        <v>-46</v>
-      </c>
-      <c r="AR29" s="11">
-        <v>-98</v>
-      </c>
-      <c r="AS29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW29" s="11">
-        <v>-36</v>
-      </c>
-      <c r="AX29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY29" s="11">
-        <v>-152</v>
-      </c>
-      <c r="AZ29" s="11">
-        <v>-29</v>
-      </c>
-      <c r="BA29" s="11">
-        <v>-31</v>
-      </c>
-      <c r="BB29" s="11">
-        <v>-314</v>
-      </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>65</v>
       </c>
@@ -3643,35 +3643,35 @@
       <c r="V30" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="W30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="X30" s="19" t="s">
-        <v>57</v>
+      <c r="W30" s="19">
+        <v>-20</v>
+      </c>
+      <c r="X30" s="19">
+        <v>0</v>
       </c>
       <c r="Y30" s="19">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="19">
         <v>0</v>
       </c>
       <c r="AA30" s="19">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AB30" s="19">
         <v>0</v>
       </c>
       <c r="AC30" s="19">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="19">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AE30" s="19">
         <v>0</v>
       </c>
       <c r="AF30" s="19">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="19">
         <v>0</v>
@@ -3686,218 +3686,218 @@
         <v>0</v>
       </c>
       <c r="AK30" s="19">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="AL30" s="19">
         <v>0</v>
       </c>
       <c r="AM30" s="19">
+        <v>-115</v>
+      </c>
+      <c r="AN30" s="19">
+        <v>-178</v>
+      </c>
+      <c r="AO30" s="19">
+        <v>-46</v>
+      </c>
+      <c r="AP30" s="19">
+        <v>-98</v>
+      </c>
+      <c r="AQ30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="19">
+        <v>-36</v>
+      </c>
+      <c r="AV30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="19">
+        <v>-152</v>
+      </c>
+      <c r="AX30" s="19">
+        <v>-29</v>
+      </c>
+      <c r="AY30" s="19">
+        <v>-31</v>
+      </c>
+      <c r="AZ30" s="19">
+        <v>-314</v>
+      </c>
+      <c r="BA30" s="19">
+        <v>-53</v>
+      </c>
+      <c r="BB30" s="19">
         <v>-22</v>
       </c>
-      <c r="AN30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="19">
-        <v>-115</v>
-      </c>
-      <c r="AP30" s="19">
-        <v>-178</v>
-      </c>
-      <c r="AQ30" s="19">
-        <v>-46</v>
-      </c>
-      <c r="AR30" s="19">
-        <v>-98</v>
-      </c>
-      <c r="AS30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AU30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AV30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AW30" s="19">
-        <v>-36</v>
-      </c>
-      <c r="AX30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY30" s="19">
-        <v>-152</v>
-      </c>
-      <c r="AZ30" s="19">
-        <v>-29</v>
-      </c>
-      <c r="BA30" s="19">
-        <v>-31</v>
-      </c>
-      <c r="BB30" s="19">
-        <v>-314</v>
-      </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17">
-        <v>5242</v>
+        <v>4772</v>
       </c>
       <c r="F31" s="17">
-        <v>6277</v>
+        <v>5043</v>
       </c>
       <c r="G31" s="17">
-        <v>4772</v>
+        <v>8225</v>
       </c>
       <c r="H31" s="17">
-        <v>5043</v>
+        <v>7418</v>
       </c>
       <c r="I31" s="17">
-        <v>8225</v>
+        <v>7214</v>
       </c>
       <c r="J31" s="17">
-        <v>7418</v>
+        <v>5252</v>
       </c>
       <c r="K31" s="17">
-        <v>7214</v>
+        <v>4786</v>
       </c>
       <c r="L31" s="17">
-        <v>5252</v>
+        <v>4945</v>
       </c>
       <c r="M31" s="17">
-        <v>4786</v>
+        <v>6800</v>
       </c>
       <c r="N31" s="17">
-        <v>4945</v>
+        <v>6177</v>
       </c>
       <c r="O31" s="17">
-        <v>6800</v>
+        <v>4474</v>
       </c>
       <c r="P31" s="17">
-        <v>6177</v>
+        <v>6253</v>
       </c>
       <c r="Q31" s="17">
-        <v>4474</v>
+        <v>5923</v>
       </c>
       <c r="R31" s="17">
-        <v>6253</v>
+        <v>6811</v>
       </c>
       <c r="S31" s="17">
-        <v>5923</v>
+        <v>8553</v>
       </c>
       <c r="T31" s="17">
-        <v>6811</v>
+        <v>6879</v>
       </c>
       <c r="U31" s="17">
-        <v>8553</v>
+        <v>6734</v>
       </c>
       <c r="V31" s="17">
-        <v>6879</v>
+        <v>5493</v>
       </c>
       <c r="W31" s="17">
-        <v>6734</v>
+        <v>7187</v>
       </c>
       <c r="X31" s="17">
-        <v>5493</v>
+        <v>6209</v>
       </c>
       <c r="Y31" s="17">
-        <v>7187</v>
+        <v>6609</v>
       </c>
       <c r="Z31" s="17">
-        <v>6209</v>
+        <v>6566</v>
       </c>
       <c r="AA31" s="17">
-        <v>6609</v>
+        <v>5267</v>
       </c>
       <c r="AB31" s="17">
-        <v>6566</v>
+        <v>6192</v>
       </c>
       <c r="AC31" s="17">
-        <v>5267</v>
+        <v>6710</v>
       </c>
       <c r="AD31" s="17">
-        <v>6192</v>
+        <v>5839</v>
       </c>
       <c r="AE31" s="17">
-        <v>6710</v>
+        <v>6851</v>
       </c>
       <c r="AF31" s="17">
-        <v>5839</v>
+        <v>4435</v>
       </c>
       <c r="AG31" s="17">
-        <v>6851</v>
+        <v>6885</v>
       </c>
       <c r="AH31" s="17">
-        <v>4435</v>
+        <v>6410</v>
       </c>
       <c r="AI31" s="17">
-        <v>6885</v>
+        <v>5950</v>
       </c>
       <c r="AJ31" s="17">
-        <v>6410</v>
+        <v>6615</v>
       </c>
       <c r="AK31" s="17">
-        <v>5950</v>
+        <v>7368</v>
       </c>
       <c r="AL31" s="17">
-        <v>6615</v>
+        <v>5184</v>
       </c>
       <c r="AM31" s="17">
-        <v>7368</v>
+        <v>6257</v>
       </c>
       <c r="AN31" s="17">
-        <v>5184</v>
+        <v>5262</v>
       </c>
       <c r="AO31" s="17">
-        <v>6257</v>
+        <v>5566</v>
       </c>
       <c r="AP31" s="17">
-        <v>5262</v>
+        <v>5172</v>
       </c>
       <c r="AQ31" s="17">
-        <v>5566</v>
+        <v>8214</v>
       </c>
       <c r="AR31" s="17">
-        <v>5172</v>
+        <v>5509</v>
       </c>
       <c r="AS31" s="17">
-        <v>8214</v>
+        <v>5464</v>
       </c>
       <c r="AT31" s="17">
-        <v>5509</v>
+        <v>5752</v>
       </c>
       <c r="AU31" s="17">
-        <v>5464</v>
+        <v>5560</v>
       </c>
       <c r="AV31" s="17">
-        <v>5752</v>
+        <v>6336</v>
       </c>
       <c r="AW31" s="17">
-        <v>5560</v>
+        <v>5983</v>
       </c>
       <c r="AX31" s="17">
-        <v>6336</v>
+        <v>5365</v>
       </c>
       <c r="AY31" s="17">
-        <v>5983</v>
+        <v>6339</v>
       </c>
       <c r="AZ31" s="17">
-        <v>5365</v>
+        <v>5546</v>
       </c>
       <c r="BA31" s="17">
-        <v>6339</v>
+        <v>5249</v>
       </c>
       <c r="BB31" s="17">
-        <v>5546</v>
+        <v>11555</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3952,7 +3952,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4007,7 +4007,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4062,7 +4062,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>66</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4274,7 +4274,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>66</v>
       </c>
@@ -4331,7 +4331,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>55</v>
       </c>
@@ -4357,48 +4357,48 @@
       <c r="J38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>57</v>
+      <c r="K38" s="11">
+        <v>160981</v>
+      </c>
+      <c r="L38" s="11">
+        <v>169111</v>
       </c>
       <c r="M38" s="11">
-        <v>160981</v>
+        <v>231161</v>
       </c>
       <c r="N38" s="11">
-        <v>169111</v>
+        <v>214358</v>
       </c>
       <c r="O38" s="11">
-        <v>231161</v>
+        <v>153211</v>
       </c>
       <c r="P38" s="11">
-        <v>214358</v>
+        <v>214331</v>
       </c>
       <c r="Q38" s="11">
-        <v>153211</v>
+        <v>206298</v>
       </c>
       <c r="R38" s="11">
-        <v>214331</v>
+        <v>237827</v>
       </c>
       <c r="S38" s="11">
-        <v>206298</v>
+        <v>304372</v>
       </c>
       <c r="T38" s="11">
-        <v>237827</v>
+        <v>247873</v>
       </c>
       <c r="U38" s="11">
-        <v>304372</v>
+        <v>273114</v>
       </c>
       <c r="V38" s="11">
-        <v>247873</v>
-      </c>
-      <c r="W38" s="11">
-        <v>273114</v>
-      </c>
-      <c r="X38" s="11">
         <v>231526</v>
       </c>
+      <c r="W38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X38" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y38" s="11" t="s">
         <v>57</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>58</v>
       </c>
@@ -4499,29 +4499,29 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>110227</v>
+        <v>110411</v>
       </c>
       <c r="F39" s="13">
-        <v>132457</v>
+        <v>127681</v>
       </c>
       <c r="G39" s="13">
-        <v>110411</v>
+        <v>206007</v>
       </c>
       <c r="H39" s="13">
-        <v>127681</v>
+        <v>189017</v>
       </c>
       <c r="I39" s="13">
-        <v>206007</v>
+        <v>214536</v>
       </c>
       <c r="J39" s="13">
-        <v>189017</v>
-      </c>
-      <c r="K39" s="13">
-        <v>214536</v>
-      </c>
-      <c r="L39" s="13">
         <v>169432</v>
       </c>
+      <c r="K39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="M39" s="13" t="s">
         <v>57</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>59</v>
       </c>
@@ -4711,104 +4711,104 @@
       <c r="V40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X40" s="11" t="s">
-        <v>57</v>
+      <c r="W40" s="11">
+        <v>308457</v>
+      </c>
+      <c r="X40" s="11">
+        <v>281405</v>
       </c>
       <c r="Y40" s="11">
-        <v>308457</v>
+        <v>306000</v>
       </c>
       <c r="Z40" s="11">
-        <v>281405</v>
+        <v>315629</v>
       </c>
       <c r="AA40" s="11">
-        <v>306000</v>
+        <v>275082</v>
       </c>
       <c r="AB40" s="11">
-        <v>315629</v>
+        <v>346941</v>
       </c>
       <c r="AC40" s="11">
-        <v>275082</v>
+        <v>389823</v>
       </c>
       <c r="AD40" s="11">
-        <v>346941</v>
+        <v>357159</v>
       </c>
       <c r="AE40" s="11">
-        <v>389823</v>
+        <v>409967</v>
       </c>
       <c r="AF40" s="11">
-        <v>357159</v>
+        <v>280415</v>
       </c>
       <c r="AG40" s="11">
-        <v>409967</v>
+        <v>573470</v>
       </c>
       <c r="AH40" s="11">
-        <v>280415</v>
+        <v>532136</v>
       </c>
       <c r="AI40" s="11">
-        <v>573470</v>
+        <v>491564</v>
       </c>
       <c r="AJ40" s="11">
-        <v>532136</v>
+        <v>571218</v>
       </c>
       <c r="AK40" s="11">
-        <v>491564</v>
+        <v>640034</v>
       </c>
       <c r="AL40" s="11">
-        <v>571218</v>
+        <v>486019</v>
       </c>
       <c r="AM40" s="11">
-        <v>640034</v>
+        <v>629802</v>
       </c>
       <c r="AN40" s="11">
-        <v>486019</v>
+        <v>546523</v>
       </c>
       <c r="AO40" s="11">
-        <v>629802</v>
+        <v>569373</v>
       </c>
       <c r="AP40" s="11">
-        <v>546523</v>
+        <v>516681</v>
       </c>
       <c r="AQ40" s="11">
-        <v>569373</v>
+        <v>842826</v>
       </c>
       <c r="AR40" s="11">
-        <v>516681</v>
+        <v>554902</v>
       </c>
       <c r="AS40" s="11">
-        <v>842826</v>
+        <v>637538</v>
       </c>
       <c r="AT40" s="11">
-        <v>554902</v>
+        <v>711031</v>
       </c>
       <c r="AU40" s="11">
-        <v>637538</v>
+        <v>740990</v>
       </c>
       <c r="AV40" s="11">
-        <v>711031</v>
+        <v>801103</v>
       </c>
       <c r="AW40" s="11">
-        <v>740990</v>
+        <v>835011</v>
       </c>
       <c r="AX40" s="11">
-        <v>801103</v>
+        <v>699937</v>
       </c>
       <c r="AY40" s="11">
-        <v>835011</v>
+        <v>750572</v>
       </c>
       <c r="AZ40" s="11">
-        <v>699937</v>
+        <v>768984</v>
       </c>
       <c r="BA40" s="11">
-        <v>750572</v>
+        <v>744352</v>
       </c>
       <c r="BB40" s="11">
-        <v>768984</v>
+        <v>1602612</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>68</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="BA41" s="15"/>
       <c r="BB41" s="15"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>61</v>
       </c>
@@ -4927,11 +4927,11 @@
       <c r="V42" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X42" s="17" t="s">
-        <v>57</v>
+      <c r="W42" s="17">
+        <v>0</v>
+      </c>
+      <c r="X42" s="17">
+        <v>0</v>
       </c>
       <c r="Y42" s="17">
         <v>0</v>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>69</v>
       </c>
@@ -5081,7 +5081,7 @@
       <c r="BA43" s="9"/>
       <c r="BB43" s="9"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>59</v>
       </c>
@@ -5143,35 +5143,35 @@
       <c r="V44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X44" s="11" t="s">
-        <v>57</v>
+      <c r="W44" s="11">
+        <v>-790</v>
+      </c>
+      <c r="X44" s="11">
+        <v>0</v>
       </c>
       <c r="Y44" s="11">
-        <v>-790</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="11">
         <v>0</v>
       </c>
       <c r="AA44" s="11">
-        <v>0</v>
+        <v>-1552</v>
       </c>
       <c r="AB44" s="11">
         <v>0</v>
       </c>
       <c r="AC44" s="11">
-        <v>-1552</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="11">
-        <v>0</v>
+        <v>-977</v>
       </c>
       <c r="AE44" s="11">
         <v>0</v>
       </c>
       <c r="AF44" s="11">
-        <v>-977</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="11">
         <v>0</v>
@@ -5186,28 +5186,28 @@
         <v>0</v>
       </c>
       <c r="AK44" s="11">
-        <v>0</v>
+        <v>-1987</v>
       </c>
       <c r="AL44" s="11">
         <v>0</v>
       </c>
       <c r="AM44" s="11">
-        <v>-1987</v>
+        <v>-9754</v>
       </c>
       <c r="AN44" s="11">
-        <v>0</v>
+        <v>-14982</v>
       </c>
       <c r="AO44" s="11">
-        <v>-9754</v>
+        <v>-3637</v>
       </c>
       <c r="AP44" s="11">
-        <v>-14982</v>
+        <v>-8660</v>
       </c>
       <c r="AQ44" s="11">
-        <v>-3637</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="11">
-        <v>-8660</v>
+        <v>0</v>
       </c>
       <c r="AS44" s="11">
         <v>0</v>
@@ -5216,31 +5216,31 @@
         <v>0</v>
       </c>
       <c r="AU44" s="11">
-        <v>0</v>
+        <v>-4459</v>
       </c>
       <c r="AV44" s="11">
         <v>0</v>
       </c>
       <c r="AW44" s="11">
-        <v>-4459</v>
+        <v>-20975</v>
       </c>
       <c r="AX44" s="11">
-        <v>0</v>
+        <v>-4087</v>
       </c>
       <c r="AY44" s="11">
-        <v>-20975</v>
+        <v>-4838</v>
       </c>
       <c r="AZ44" s="11">
-        <v>-4087</v>
+        <v>-46969</v>
       </c>
       <c r="BA44" s="11">
-        <v>-4838</v>
+        <v>-7542</v>
       </c>
       <c r="BB44" s="11">
-        <v>-46969</v>
+        <v>-2958</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>65</v>
       </c>
@@ -5302,35 +5302,35 @@
       <c r="V45" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="W45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="X45" s="19" t="s">
-        <v>57</v>
+      <c r="W45" s="19">
+        <v>-790</v>
+      </c>
+      <c r="X45" s="19">
+        <v>0</v>
       </c>
       <c r="Y45" s="19">
-        <v>-790</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="19">
         <v>0</v>
       </c>
       <c r="AA45" s="19">
-        <v>0</v>
+        <v>-1552</v>
       </c>
       <c r="AB45" s="19">
         <v>0</v>
       </c>
       <c r="AC45" s="19">
-        <v>-1552</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="19">
-        <v>0</v>
+        <v>-977</v>
       </c>
       <c r="AE45" s="19">
         <v>0</v>
       </c>
       <c r="AF45" s="19">
-        <v>-977</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="19">
         <v>0</v>
@@ -5345,28 +5345,28 @@
         <v>0</v>
       </c>
       <c r="AK45" s="19">
-        <v>0</v>
+        <v>-1987</v>
       </c>
       <c r="AL45" s="19">
         <v>0</v>
       </c>
       <c r="AM45" s="19">
-        <v>-1987</v>
+        <v>-9754</v>
       </c>
       <c r="AN45" s="19">
-        <v>0</v>
+        <v>-14982</v>
       </c>
       <c r="AO45" s="19">
-        <v>-9754</v>
+        <v>-3637</v>
       </c>
       <c r="AP45" s="19">
-        <v>-14982</v>
+        <v>-8660</v>
       </c>
       <c r="AQ45" s="19">
-        <v>-3637</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="19">
-        <v>-8660</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="19">
         <v>0</v>
@@ -5375,31 +5375,31 @@
         <v>0</v>
       </c>
       <c r="AU45" s="19">
-        <v>0</v>
+        <v>-4459</v>
       </c>
       <c r="AV45" s="19">
         <v>0</v>
       </c>
       <c r="AW45" s="19">
-        <v>-4459</v>
+        <v>-20975</v>
       </c>
       <c r="AX45" s="19">
-        <v>0</v>
+        <v>-4087</v>
       </c>
       <c r="AY45" s="19">
-        <v>-20975</v>
+        <v>-4838</v>
       </c>
       <c r="AZ45" s="19">
-        <v>-4087</v>
+        <v>-46969</v>
       </c>
       <c r="BA45" s="19">
-        <v>-4838</v>
+        <v>-7542</v>
       </c>
       <c r="BB45" s="19">
-        <v>-46969</v>
+        <v>-2958</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>70</v>
       </c>
@@ -5456,7 +5456,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>71</v>
       </c>
@@ -5518,261 +5518,261 @@
       <c r="V47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>57</v>
+      <c r="W47" s="11">
+        <v>-191</v>
+      </c>
+      <c r="X47" s="11">
+        <v>-144</v>
       </c>
       <c r="Y47" s="11">
-        <v>-191</v>
+        <v>-151</v>
       </c>
       <c r="Z47" s="11">
+        <v>-97</v>
+      </c>
+      <c r="AA47" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AB47" s="11">
+        <v>-39</v>
+      </c>
+      <c r="AC47" s="11">
+        <v>-61</v>
+      </c>
+      <c r="AD47" s="11">
+        <v>-8</v>
+      </c>
+      <c r="AE47" s="11">
+        <v>-74</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>-39</v>
+      </c>
+      <c r="AG47" s="11">
+        <v>-54</v>
+      </c>
+      <c r="AH47" s="11">
+        <v>-25</v>
+      </c>
+      <c r="AI47" s="11">
+        <v>-38</v>
+      </c>
+      <c r="AJ47" s="11">
+        <v>-73</v>
+      </c>
+      <c r="AK47" s="11">
+        <v>-43</v>
+      </c>
+      <c r="AL47" s="11">
+        <v>-43</v>
+      </c>
+      <c r="AM47" s="11">
+        <v>-121</v>
+      </c>
+      <c r="AN47" s="11">
+        <v>-73</v>
+      </c>
+      <c r="AO47" s="11">
+        <v>-163</v>
+      </c>
+      <c r="AP47" s="11">
+        <v>-99</v>
+      </c>
+      <c r="AQ47" s="11">
         <v>-144</v>
       </c>
-      <c r="AA47" s="11">
-        <v>-151</v>
-      </c>
-      <c r="AB47" s="11">
-        <v>-97</v>
-      </c>
-      <c r="AC47" s="11">
+      <c r="AR47" s="11">
+        <v>-270</v>
+      </c>
+      <c r="AS47" s="11">
         <v>-19</v>
       </c>
-      <c r="AD47" s="11">
-        <v>-39</v>
-      </c>
-      <c r="AE47" s="11">
-        <v>-61</v>
-      </c>
-      <c r="AF47" s="11">
-        <v>-8</v>
-      </c>
-      <c r="AG47" s="11">
-        <v>-74</v>
-      </c>
-      <c r="AH47" s="11">
-        <v>-39</v>
-      </c>
-      <c r="AI47" s="11">
-        <v>-54</v>
-      </c>
-      <c r="AJ47" s="11">
-        <v>-25</v>
-      </c>
-      <c r="AK47" s="11">
-        <v>-38</v>
-      </c>
-      <c r="AL47" s="11">
-        <v>-73</v>
-      </c>
-      <c r="AM47" s="11">
-        <v>-43</v>
-      </c>
-      <c r="AN47" s="11">
-        <v>-43</v>
-      </c>
-      <c r="AO47" s="11">
-        <v>-121</v>
-      </c>
-      <c r="AP47" s="11">
-        <v>-73</v>
-      </c>
-      <c r="AQ47" s="11">
-        <v>-163</v>
-      </c>
-      <c r="AR47" s="11">
-        <v>-99</v>
-      </c>
-      <c r="AS47" s="11">
-        <v>-144</v>
-      </c>
       <c r="AT47" s="11">
-        <v>-270</v>
+        <v>-135</v>
       </c>
       <c r="AU47" s="11">
-        <v>-19</v>
+        <v>-37</v>
       </c>
       <c r="AV47" s="11">
-        <v>-135</v>
+        <v>-397</v>
       </c>
       <c r="AW47" s="11">
-        <v>-37</v>
+        <v>-8349</v>
       </c>
       <c r="AX47" s="11">
-        <v>-397</v>
+        <v>-9695</v>
       </c>
       <c r="AY47" s="11">
-        <v>-8349</v>
+        <v>-16312</v>
       </c>
       <c r="AZ47" s="11">
-        <v>-9695</v>
+        <v>-24729</v>
       </c>
       <c r="BA47" s="11">
-        <v>-16312</v>
+        <v>-69610</v>
       </c>
       <c r="BB47" s="11">
-        <v>-24729</v>
+        <v>-251732</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
-        <v>110227</v>
+        <v>110411</v>
       </c>
       <c r="F48" s="19">
-        <v>132457</v>
+        <v>127681</v>
       </c>
       <c r="G48" s="19">
-        <v>110411</v>
+        <v>206007</v>
       </c>
       <c r="H48" s="19">
-        <v>127681</v>
+        <v>189017</v>
       </c>
       <c r="I48" s="19">
-        <v>206007</v>
+        <v>214536</v>
       </c>
       <c r="J48" s="19">
-        <v>189017</v>
+        <v>169432</v>
       </c>
       <c r="K48" s="19">
-        <v>214536</v>
+        <v>160981</v>
       </c>
       <c r="L48" s="19">
-        <v>169432</v>
+        <v>169111</v>
       </c>
       <c r="M48" s="19">
-        <v>160981</v>
+        <v>231161</v>
       </c>
       <c r="N48" s="19">
-        <v>169111</v>
+        <v>214358</v>
       </c>
       <c r="O48" s="19">
-        <v>231161</v>
+        <v>153211</v>
       </c>
       <c r="P48" s="19">
-        <v>214358</v>
+        <v>214331</v>
       </c>
       <c r="Q48" s="19">
-        <v>153211</v>
+        <v>206298</v>
       </c>
       <c r="R48" s="19">
-        <v>214331</v>
+        <v>237827</v>
       </c>
       <c r="S48" s="19">
-        <v>206298</v>
+        <v>304372</v>
       </c>
       <c r="T48" s="19">
-        <v>237827</v>
+        <v>247873</v>
       </c>
       <c r="U48" s="19">
-        <v>304372</v>
+        <v>273114</v>
       </c>
       <c r="V48" s="19">
-        <v>247873</v>
+        <v>231526</v>
       </c>
       <c r="W48" s="19">
-        <v>273114</v>
+        <v>307476</v>
       </c>
       <c r="X48" s="19">
-        <v>231526</v>
+        <v>281261</v>
       </c>
       <c r="Y48" s="19">
-        <v>307476</v>
+        <v>305849</v>
       </c>
       <c r="Z48" s="19">
-        <v>281261</v>
+        <v>315532</v>
       </c>
       <c r="AA48" s="19">
-        <v>305849</v>
+        <v>273511</v>
       </c>
       <c r="AB48" s="19">
-        <v>315532</v>
+        <v>346902</v>
       </c>
       <c r="AC48" s="19">
-        <v>273511</v>
+        <v>389762</v>
       </c>
       <c r="AD48" s="19">
-        <v>346902</v>
+        <v>356174</v>
       </c>
       <c r="AE48" s="19">
-        <v>389762</v>
+        <v>409893</v>
       </c>
       <c r="AF48" s="19">
-        <v>356174</v>
+        <v>280376</v>
       </c>
       <c r="AG48" s="19">
-        <v>409893</v>
+        <v>573416</v>
       </c>
       <c r="AH48" s="19">
-        <v>280376</v>
+        <v>532111</v>
       </c>
       <c r="AI48" s="19">
-        <v>573416</v>
+        <v>491526</v>
       </c>
       <c r="AJ48" s="19">
-        <v>532111</v>
+        <v>571145</v>
       </c>
       <c r="AK48" s="19">
-        <v>491526</v>
+        <v>638004</v>
       </c>
       <c r="AL48" s="19">
-        <v>571145</v>
+        <v>485976</v>
       </c>
       <c r="AM48" s="19">
-        <v>638004</v>
+        <v>619927</v>
       </c>
       <c r="AN48" s="19">
-        <v>485976</v>
+        <v>531468</v>
       </c>
       <c r="AO48" s="19">
-        <v>619927</v>
+        <v>565573</v>
       </c>
       <c r="AP48" s="19">
-        <v>531468</v>
+        <v>507922</v>
       </c>
       <c r="AQ48" s="19">
-        <v>565573</v>
+        <v>842682</v>
       </c>
       <c r="AR48" s="19">
-        <v>507922</v>
+        <v>554632</v>
       </c>
       <c r="AS48" s="19">
-        <v>842682</v>
+        <v>637519</v>
       </c>
       <c r="AT48" s="19">
-        <v>554632</v>
+        <v>710896</v>
       </c>
       <c r="AU48" s="19">
-        <v>637519</v>
+        <v>736494</v>
       </c>
       <c r="AV48" s="19">
-        <v>710896</v>
+        <v>800706</v>
       </c>
       <c r="AW48" s="19">
-        <v>736494</v>
+        <v>805687</v>
       </c>
       <c r="AX48" s="19">
-        <v>800706</v>
+        <v>686155</v>
       </c>
       <c r="AY48" s="19">
-        <v>805687</v>
+        <v>729422</v>
       </c>
       <c r="AZ48" s="19">
-        <v>686155</v>
+        <v>697286</v>
       </c>
       <c r="BA48" s="19">
-        <v>729422</v>
+        <v>667200</v>
       </c>
       <c r="BB48" s="19">
-        <v>697286</v>
+        <v>1347922</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5827,7 +5827,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5882,7 +5882,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5937,7 +5937,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>72</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6149,7 +6149,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>73</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>55</v>
       </c>
@@ -6232,48 +6232,48 @@
       <c r="J55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>57</v>
+      <c r="K55" s="11">
+        <v>33635813</v>
+      </c>
+      <c r="L55" s="11">
+        <v>34198382</v>
       </c>
       <c r="M55" s="11">
-        <v>33635813</v>
+        <v>33994265</v>
       </c>
       <c r="N55" s="11">
-        <v>34198382</v>
+        <v>34702606</v>
       </c>
       <c r="O55" s="11">
-        <v>33994265</v>
+        <v>34244747</v>
       </c>
       <c r="P55" s="11">
-        <v>34702606</v>
+        <v>34276507</v>
       </c>
       <c r="Q55" s="11">
-        <v>34244747</v>
+        <v>34829985</v>
       </c>
       <c r="R55" s="11">
-        <v>34276507</v>
+        <v>34918074</v>
       </c>
       <c r="S55" s="11">
-        <v>34829985</v>
+        <v>35586578</v>
       </c>
       <c r="T55" s="11">
-        <v>34918074</v>
+        <v>36033290</v>
       </c>
       <c r="U55" s="11">
-        <v>35586578</v>
+        <v>40557470</v>
       </c>
       <c r="V55" s="11">
-        <v>36033290</v>
-      </c>
-      <c r="W55" s="11">
-        <v>40557470</v>
-      </c>
-      <c r="X55" s="11">
         <v>42149281</v>
       </c>
+      <c r="W55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X55" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y55" s="11" t="s">
         <v>57</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>58</v>
       </c>
@@ -6374,29 +6374,29 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>21027661</v>
+        <v>23137259</v>
       </c>
       <c r="F56" s="13">
-        <v>21101960</v>
+        <v>25318461</v>
       </c>
       <c r="G56" s="13">
-        <v>23137259</v>
+        <v>25046444</v>
       </c>
       <c r="H56" s="13">
-        <v>25318461</v>
+        <v>25480857</v>
       </c>
       <c r="I56" s="13">
-        <v>25046444</v>
+        <v>29738841</v>
       </c>
       <c r="J56" s="13">
-        <v>25480857</v>
-      </c>
-      <c r="K56" s="13">
-        <v>29738841</v>
-      </c>
-      <c r="L56" s="13">
         <v>32260472</v>
       </c>
+      <c r="K56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="M56" s="13" t="s">
         <v>57</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>59</v>
       </c>
@@ -6586,101 +6586,101 @@
       <c r="V57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X57" s="11" t="s">
-        <v>57</v>
+      <c r="W57" s="11">
+        <v>42799639</v>
+      </c>
+      <c r="X57" s="11">
+        <v>45322113</v>
       </c>
       <c r="Y57" s="11">
-        <v>42799639</v>
+        <v>46300499</v>
       </c>
       <c r="Z57" s="11">
-        <v>45322113</v>
+        <v>48070210</v>
       </c>
       <c r="AA57" s="11">
-        <v>46300499</v>
+        <v>51912059</v>
       </c>
       <c r="AB57" s="11">
-        <v>48070210</v>
+        <v>56030523</v>
       </c>
       <c r="AC57" s="11">
-        <v>51912059</v>
+        <v>58095827</v>
       </c>
       <c r="AD57" s="11">
-        <v>56030523</v>
+        <v>61021527</v>
       </c>
       <c r="AE57" s="11">
-        <v>58095827</v>
+        <v>59840461</v>
       </c>
       <c r="AF57" s="11">
-        <v>61021527</v>
+        <v>63227734</v>
       </c>
       <c r="AG57" s="11">
-        <v>59840461</v>
+        <v>83292665</v>
       </c>
       <c r="AH57" s="11">
-        <v>63227734</v>
+        <v>83016537</v>
       </c>
       <c r="AI57" s="11">
-        <v>83292665</v>
+        <v>82615798</v>
       </c>
       <c r="AJ57" s="11">
-        <v>83016537</v>
+        <v>86351927</v>
       </c>
       <c r="AK57" s="11">
-        <v>82615798</v>
+        <v>86608119</v>
       </c>
       <c r="AL57" s="11">
-        <v>86351927</v>
+        <v>93753665</v>
       </c>
       <c r="AM57" s="11">
-        <v>86608119</v>
+        <v>98838983</v>
       </c>
       <c r="AN57" s="11">
-        <v>93753665</v>
+        <v>100463787</v>
       </c>
       <c r="AO57" s="11">
-        <v>98838983</v>
+        <v>101456344</v>
       </c>
       <c r="AP57" s="11">
-        <v>100463787</v>
+        <v>98041935</v>
       </c>
       <c r="AQ57" s="11">
-        <v>101456344</v>
+        <v>102608473</v>
       </c>
       <c r="AR57" s="11">
-        <v>98041935</v>
+        <v>100726448</v>
       </c>
       <c r="AS57" s="11">
-        <v>102608473</v>
+        <v>116679722</v>
       </c>
       <c r="AT57" s="11">
-        <v>100726448</v>
+        <v>123614569</v>
       </c>
       <c r="AU57" s="11">
-        <v>116679722</v>
+        <v>132414224</v>
       </c>
       <c r="AV57" s="11">
-        <v>123614569</v>
+        <v>126436711</v>
       </c>
       <c r="AW57" s="11">
-        <v>132414224</v>
+        <v>136106112</v>
       </c>
       <c r="AX57" s="11">
-        <v>126436711</v>
+        <v>129762143</v>
       </c>
       <c r="AY57" s="11">
-        <v>136106112</v>
+        <v>117829199</v>
       </c>
       <c r="AZ57" s="11">
-        <v>129762143</v>
+        <v>131225939</v>
       </c>
       <c r="BA57" s="11">
-        <v>117829199</v>
+        <v>140390796</v>
       </c>
       <c r="BB57" s="11">
-        <v>131225939</v>
+        <v>138430682</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shishe/kehamda/product/monthly.xlsx
+++ b/database/industries/shishe/kehamda/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="75">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3252,44 +3252,44 @@
       <c r="H11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>57</v>
+      <c r="I11" s="13" t="n">
+        <v>5812</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>5812</v>
+        <v>5753</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>5753</v>
+        <v>6036</v>
       </c>
       <c r="L11" s="13" t="n">
-        <v>6036</v>
+        <v>6011</v>
       </c>
       <c r="M11" s="13" t="n">
-        <v>6011</v>
+        <v>6226</v>
       </c>
       <c r="N11" s="13" t="n">
-        <v>6226</v>
+        <v>6080</v>
       </c>
       <c r="O11" s="13" t="n">
-        <v>6080</v>
+        <v>5939</v>
       </c>
       <c r="P11" s="13" t="n">
-        <v>5939</v>
+        <v>6012</v>
       </c>
       <c r="Q11" s="13" t="n">
-        <v>6012</v>
+        <v>5701</v>
       </c>
       <c r="R11" s="13" t="n">
-        <v>5701</v>
+        <v>6415</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>6415</v>
+        <v>5961</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>5961</v>
-      </c>
-      <c r="U11" s="13" t="n">
         <v>6164</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V11" s="13" t="s">
         <v>57</v>
@@ -3400,19 +3400,19 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
-        <v>6301</v>
+        <v>5777</v>
       </c>
       <c r="F12" s="15" t="n">
-        <v>5777</v>
+        <v>6317</v>
       </c>
       <c r="G12" s="15" t="n">
-        <v>6317</v>
+        <v>6254</v>
       </c>
       <c r="H12" s="15" t="n">
-        <v>6254</v>
-      </c>
-      <c r="I12" s="15" t="n">
         <v>6184</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>57</v>
@@ -3606,107 +3606,107 @@
       <c r="T13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>57</v>
+      <c r="U13" s="13" t="n">
+        <v>5802</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>5802</v>
+        <v>5647</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>5647</v>
+        <v>6003</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>6003</v>
+        <v>5610</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>5610</v>
+        <v>5307</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>5307</v>
+        <v>5804</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>5804</v>
+        <v>6180</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>6180</v>
+        <v>6152</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>6152</v>
+        <v>6455</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>6455</v>
+        <v>6708</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>6708</v>
+        <v>6433</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>6433</v>
+        <v>6495</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>6495</v>
+        <v>6340</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>6340</v>
+        <v>6507</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>6507</v>
+        <v>6445</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>6445</v>
+        <v>6225</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>6225</v>
+        <v>6345</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>6345</v>
+        <v>6033</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>6033</v>
+        <v>5866</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>5866</v>
+        <v>6466</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>6466</v>
+        <v>6368</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>6368</v>
+        <v>9629</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>9629</v>
+        <v>9438</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>9438</v>
+        <v>7693</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>7693</v>
+        <v>7215</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>7215</v>
+        <v>6594</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>6594</v>
+        <v>7795</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>7795</v>
+        <v>8972</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>8972</v>
+        <v>8924</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>8924</v>
+        <v>8906</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>8906</v>
+        <v>9451</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>9451</v>
+        <v>9866</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>9866</v>
+        <v>10968</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>10968</v>
+        <v>12576</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,8 +3820,8 @@
       <c r="T15" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U15" s="20" t="s">
-        <v>57</v>
+      <c r="U15" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V15" s="20" t="n">
         <v>0</v>
@@ -3930,154 +3930,154 @@
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22" t="n">
-        <v>6301</v>
+        <v>5777</v>
       </c>
       <c r="F16" s="22" t="n">
-        <v>5777</v>
+        <v>6317</v>
       </c>
       <c r="G16" s="22" t="n">
-        <v>6317</v>
+        <v>6254</v>
       </c>
       <c r="H16" s="22" t="n">
-        <v>6254</v>
+        <v>6184</v>
       </c>
       <c r="I16" s="22" t="n">
-        <v>6184</v>
+        <v>5812</v>
       </c>
       <c r="J16" s="22" t="n">
-        <v>5812</v>
+        <v>5753</v>
       </c>
       <c r="K16" s="22" t="n">
-        <v>5753</v>
+        <v>6036</v>
       </c>
       <c r="L16" s="22" t="n">
-        <v>6036</v>
+        <v>6011</v>
       </c>
       <c r="M16" s="22" t="n">
-        <v>6011</v>
+        <v>6226</v>
       </c>
       <c r="N16" s="22" t="n">
-        <v>6226</v>
+        <v>6080</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>6080</v>
+        <v>5939</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>5939</v>
+        <v>6012</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>6012</v>
+        <v>5701</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>5701</v>
+        <v>6415</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>6415</v>
+        <v>5961</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>5961</v>
+        <v>6164</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>6164</v>
+        <v>5802</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>5802</v>
+        <v>5647</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>5647</v>
+        <v>6003</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>6003</v>
+        <v>5610</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>5610</v>
+        <v>5307</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>5307</v>
+        <v>5804</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>5804</v>
+        <v>6180</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>6180</v>
+        <v>6152</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>6152</v>
+        <v>6455</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>6455</v>
+        <v>6708</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>6708</v>
+        <v>6433</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>6433</v>
+        <v>6495</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>6495</v>
+        <v>6340</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>6340</v>
+        <v>6507</v>
       </c>
       <c r="AI16" s="22" t="n">
-        <v>6507</v>
+        <v>6445</v>
       </c>
       <c r="AJ16" s="22" t="n">
-        <v>6445</v>
+        <v>6225</v>
       </c>
       <c r="AK16" s="22" t="n">
-        <v>6225</v>
+        <v>6345</v>
       </c>
       <c r="AL16" s="22" t="n">
-        <v>6345</v>
+        <v>6033</v>
       </c>
       <c r="AM16" s="22" t="n">
-        <v>6033</v>
+        <v>5866</v>
       </c>
       <c r="AN16" s="22" t="n">
-        <v>5866</v>
+        <v>6466</v>
       </c>
       <c r="AO16" s="22" t="n">
-        <v>6466</v>
+        <v>6368</v>
       </c>
       <c r="AP16" s="22" t="n">
-        <v>6368</v>
+        <v>9629</v>
       </c>
       <c r="AQ16" s="22" t="n">
-        <v>9629</v>
+        <v>9438</v>
       </c>
       <c r="AR16" s="22" t="n">
-        <v>9438</v>
+        <v>7693</v>
       </c>
       <c r="AS16" s="22" t="n">
-        <v>7693</v>
+        <v>7215</v>
       </c>
       <c r="AT16" s="22" t="n">
-        <v>7215</v>
+        <v>6594</v>
       </c>
       <c r="AU16" s="22" t="n">
-        <v>6594</v>
+        <v>7795</v>
       </c>
       <c r="AV16" s="22" t="n">
-        <v>7795</v>
+        <v>8972</v>
       </c>
       <c r="AW16" s="22" t="n">
-        <v>8972</v>
+        <v>8924</v>
       </c>
       <c r="AX16" s="22" t="n">
-        <v>8924</v>
+        <v>8906</v>
       </c>
       <c r="AY16" s="22" t="n">
-        <v>8906</v>
+        <v>9451</v>
       </c>
       <c r="AZ16" s="22" t="n">
-        <v>9451</v>
+        <v>9866</v>
       </c>
       <c r="BA16" s="22" t="n">
-        <v>9866</v>
+        <v>10968</v>
       </c>
       <c r="BB16" s="22" t="n">
-        <v>10968</v>
+        <v>12576</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,44 +4534,44 @@
       <c r="H23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>57</v>
+      <c r="I23" s="13" t="n">
+        <v>4786</v>
       </c>
       <c r="J23" s="13" t="n">
-        <v>4786</v>
+        <v>4945</v>
       </c>
       <c r="K23" s="13" t="n">
-        <v>4945</v>
+        <v>6800</v>
       </c>
       <c r="L23" s="13" t="n">
-        <v>6800</v>
+        <v>6177</v>
       </c>
       <c r="M23" s="13" t="n">
-        <v>6177</v>
+        <v>4474</v>
       </c>
       <c r="N23" s="13" t="n">
-        <v>4474</v>
+        <v>6253</v>
       </c>
       <c r="O23" s="13" t="n">
-        <v>6253</v>
+        <v>5923</v>
       </c>
       <c r="P23" s="13" t="n">
-        <v>5923</v>
+        <v>6811</v>
       </c>
       <c r="Q23" s="13" t="n">
-        <v>6811</v>
+        <v>8553</v>
       </c>
       <c r="R23" s="13" t="n">
-        <v>8553</v>
+        <v>6879</v>
       </c>
       <c r="S23" s="13" t="n">
-        <v>6879</v>
+        <v>6734</v>
       </c>
       <c r="T23" s="13" t="n">
-        <v>6734</v>
-      </c>
-      <c r="U23" s="13" t="n">
         <v>5493</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V23" s="13" t="s">
         <v>57</v>
@@ -4682,19 +4682,19 @@
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16" t="n">
-        <v>5043</v>
+        <v>8225</v>
       </c>
       <c r="F24" s="16" t="n">
-        <v>8225</v>
+        <v>7418</v>
       </c>
       <c r="G24" s="16" t="n">
-        <v>7418</v>
+        <v>7214</v>
       </c>
       <c r="H24" s="16" t="n">
-        <v>7214</v>
-      </c>
-      <c r="I24" s="16" t="n">
         <v>5252</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>57</v>
@@ -4888,107 +4888,107 @@
       <c r="T25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U25" s="13" t="s">
-        <v>57</v>
+      <c r="U25" s="13" t="n">
+        <v>7207</v>
       </c>
       <c r="V25" s="13" t="n">
-        <v>7207</v>
+        <v>6209</v>
       </c>
       <c r="W25" s="13" t="n">
-        <v>6209</v>
+        <v>6609</v>
       </c>
       <c r="X25" s="13" t="n">
-        <v>6609</v>
+        <v>6566</v>
       </c>
       <c r="Y25" s="13" t="n">
-        <v>6566</v>
+        <v>5299</v>
       </c>
       <c r="Z25" s="13" t="n">
-        <v>5299</v>
+        <v>6192</v>
       </c>
       <c r="AA25" s="13" t="n">
-        <v>6192</v>
+        <v>6710</v>
       </c>
       <c r="AB25" s="13" t="n">
-        <v>6710</v>
+        <v>5853</v>
       </c>
       <c r="AC25" s="13" t="n">
-        <v>5853</v>
+        <v>6851</v>
       </c>
       <c r="AD25" s="13" t="n">
-        <v>6851</v>
+        <v>4435</v>
       </c>
       <c r="AE25" s="13" t="n">
-        <v>4435</v>
+        <v>6885</v>
       </c>
       <c r="AF25" s="13" t="n">
-        <v>6885</v>
+        <v>6410</v>
       </c>
       <c r="AG25" s="13" t="n">
-        <v>6410</v>
+        <v>5950</v>
       </c>
       <c r="AH25" s="13" t="n">
-        <v>5950</v>
+        <v>6615</v>
       </c>
       <c r="AI25" s="13" t="n">
-        <v>6615</v>
+        <v>7390</v>
       </c>
       <c r="AJ25" s="13" t="n">
-        <v>7390</v>
+        <v>5184</v>
       </c>
       <c r="AK25" s="13" t="n">
-        <v>5184</v>
+        <v>6372</v>
       </c>
       <c r="AL25" s="13" t="n">
-        <v>6372</v>
+        <v>5440</v>
       </c>
       <c r="AM25" s="13" t="n">
-        <v>5440</v>
+        <v>5612</v>
       </c>
       <c r="AN25" s="13" t="n">
-        <v>5612</v>
+        <v>5270</v>
       </c>
       <c r="AO25" s="13" t="n">
-        <v>5270</v>
+        <v>8214</v>
       </c>
       <c r="AP25" s="13" t="n">
-        <v>8214</v>
+        <v>5509</v>
       </c>
       <c r="AQ25" s="13" t="n">
-        <v>5509</v>
+        <v>5464</v>
       </c>
       <c r="AR25" s="13" t="n">
-        <v>5464</v>
+        <v>5752</v>
       </c>
       <c r="AS25" s="13" t="n">
-        <v>5752</v>
+        <v>5596</v>
       </c>
       <c r="AT25" s="13" t="n">
-        <v>5596</v>
+        <v>6336</v>
       </c>
       <c r="AU25" s="13" t="n">
-        <v>6336</v>
+        <v>6135</v>
       </c>
       <c r="AV25" s="13" t="n">
-        <v>6135</v>
+        <v>5394</v>
       </c>
       <c r="AW25" s="13" t="n">
-        <v>5394</v>
+        <v>6370</v>
       </c>
       <c r="AX25" s="13" t="n">
-        <v>6370</v>
+        <v>5860</v>
       </c>
       <c r="AY25" s="13" t="n">
-        <v>5860</v>
+        <v>5302</v>
       </c>
       <c r="AZ25" s="13" t="n">
-        <v>5302</v>
+        <v>11577</v>
       </c>
       <c r="BA25" s="13" t="n">
-        <v>11577</v>
+        <v>14105</v>
       </c>
       <c r="BB25" s="13" t="n">
-        <v>14105</v>
+        <v>12599</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5102,8 +5102,8 @@
       <c r="T27" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U27" s="20" t="s">
-        <v>57</v>
+      <c r="U27" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V27" s="20" t="n">
         <v>0</v>
@@ -5318,11 +5318,11 @@
       <c r="T29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U29" s="13" t="s">
-        <v>57</v>
+      <c r="U29" s="13" t="n">
+        <v>-20</v>
       </c>
       <c r="V29" s="13" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="W29" s="13" t="n">
         <v>0</v>
@@ -5331,25 +5331,25 @@
         <v>0</v>
       </c>
       <c r="Y29" s="13" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="Z29" s="13" t="n">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AB29" s="13" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AC29" s="13" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE29" s="13" t="n">
-        <v>0</v>
+      <c r="AE29" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF29" s="13" t="s">
         <v>57</v>
@@ -5360,27 +5360,27 @@
       <c r="AH29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ29" s="13" t="n">
+      <c r="AI29" s="13" t="n">
         <v>-22</v>
       </c>
-      <c r="AK29" s="13" t="s">
-        <v>57</v>
+      <c r="AJ29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK29" s="13" t="n">
+        <v>-115</v>
       </c>
       <c r="AL29" s="13" t="n">
-        <v>-115</v>
+        <v>-178</v>
       </c>
       <c r="AM29" s="13" t="n">
-        <v>-178</v>
+        <v>-46</v>
       </c>
       <c r="AN29" s="13" t="n">
-        <v>-46</v>
-      </c>
-      <c r="AO29" s="13" t="n">
         <v>-98</v>
       </c>
+      <c r="AO29" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AP29" s="13" t="s">
         <v>57</v>
       </c>
@@ -5390,32 +5390,32 @@
       <c r="AR29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT29" s="13" t="n">
+      <c r="AS29" s="13" t="n">
         <v>-36</v>
       </c>
-      <c r="AU29" s="13" t="s">
-        <v>57</v>
+      <c r="AT29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU29" s="13" t="n">
+        <v>-152</v>
       </c>
       <c r="AV29" s="13" t="n">
-        <v>-152</v>
+        <v>-29</v>
       </c>
       <c r="AW29" s="13" t="n">
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="AX29" s="13" t="n">
-        <v>-31</v>
+        <v>-314</v>
       </c>
       <c r="AY29" s="13" t="n">
-        <v>-314</v>
+        <v>-53</v>
       </c>
       <c r="AZ29" s="13" t="n">
-        <v>-53</v>
-      </c>
-      <c r="BA29" s="13" t="n">
         <v>-22</v>
+      </c>
+      <c r="BA29" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB29" s="13" t="s">
         <v>57</v>
@@ -5475,11 +5475,11 @@
       <c r="T30" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="U30" s="22" t="s">
-        <v>57</v>
+      <c r="U30" s="22" t="n">
+        <v>-20</v>
       </c>
       <c r="V30" s="22" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="W30" s="22" t="n">
         <v>0</v>
@@ -5488,19 +5488,19 @@
         <v>0</v>
       </c>
       <c r="Y30" s="22" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="Z30" s="22" t="n">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AB30" s="22" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AC30" s="22" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="22" t="n">
         <v>0</v>
@@ -5518,61 +5518,61 @@
         <v>0</v>
       </c>
       <c r="AI30" s="22" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="AJ30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="22" t="n">
+        <v>-115</v>
+      </c>
+      <c r="AL30" s="22" t="n">
+        <v>-178</v>
+      </c>
+      <c r="AM30" s="22" t="n">
+        <v>-46</v>
+      </c>
+      <c r="AN30" s="22" t="n">
+        <v>-98</v>
+      </c>
+      <c r="AO30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="22" t="n">
+        <v>-36</v>
+      </c>
+      <c r="AT30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="22" t="n">
+        <v>-152</v>
+      </c>
+      <c r="AV30" s="22" t="n">
+        <v>-29</v>
+      </c>
+      <c r="AW30" s="22" t="n">
+        <v>-31</v>
+      </c>
+      <c r="AX30" s="22" t="n">
+        <v>-314</v>
+      </c>
+      <c r="AY30" s="22" t="n">
+        <v>-53</v>
+      </c>
+      <c r="AZ30" s="22" t="n">
         <v>-22</v>
       </c>
-      <c r="AK30" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="22" t="n">
-        <v>-115</v>
-      </c>
-      <c r="AM30" s="22" t="n">
-        <v>-178</v>
-      </c>
-      <c r="AN30" s="22" t="n">
-        <v>-46</v>
-      </c>
-      <c r="AO30" s="22" t="n">
-        <v>-98</v>
-      </c>
-      <c r="AP30" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="22" t="n">
-        <v>-36</v>
-      </c>
-      <c r="AU30" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV30" s="22" t="n">
-        <v>-152</v>
-      </c>
-      <c r="AW30" s="22" t="n">
-        <v>-29</v>
-      </c>
-      <c r="AX30" s="22" t="n">
-        <v>-31</v>
-      </c>
-      <c r="AY30" s="22" t="n">
-        <v>-314</v>
-      </c>
-      <c r="AZ30" s="22" t="n">
-        <v>-53</v>
-      </c>
       <c r="BA30" s="22" t="n">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="22" t="n">
         <v>0</v>
@@ -5585,154 +5585,154 @@
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20" t="n">
-        <v>5043</v>
+        <v>8225</v>
       </c>
       <c r="F31" s="20" t="n">
-        <v>8225</v>
+        <v>7418</v>
       </c>
       <c r="G31" s="20" t="n">
-        <v>7418</v>
+        <v>7214</v>
       </c>
       <c r="H31" s="20" t="n">
-        <v>7214</v>
+        <v>5252</v>
       </c>
       <c r="I31" s="20" t="n">
-        <v>5252</v>
+        <v>4786</v>
       </c>
       <c r="J31" s="20" t="n">
-        <v>4786</v>
+        <v>4945</v>
       </c>
       <c r="K31" s="20" t="n">
-        <v>4945</v>
+        <v>6800</v>
       </c>
       <c r="L31" s="20" t="n">
-        <v>6800</v>
+        <v>6177</v>
       </c>
       <c r="M31" s="20" t="n">
-        <v>6177</v>
+        <v>4474</v>
       </c>
       <c r="N31" s="20" t="n">
-        <v>4474</v>
+        <v>6253</v>
       </c>
       <c r="O31" s="20" t="n">
-        <v>6253</v>
+        <v>5923</v>
       </c>
       <c r="P31" s="20" t="n">
-        <v>5923</v>
+        <v>6811</v>
       </c>
       <c r="Q31" s="20" t="n">
-        <v>6811</v>
+        <v>8553</v>
       </c>
       <c r="R31" s="20" t="n">
-        <v>8553</v>
+        <v>6879</v>
       </c>
       <c r="S31" s="20" t="n">
-        <v>6879</v>
+        <v>6734</v>
       </c>
       <c r="T31" s="20" t="n">
-        <v>6734</v>
+        <v>5493</v>
       </c>
       <c r="U31" s="20" t="n">
-        <v>5493</v>
+        <v>7187</v>
       </c>
       <c r="V31" s="20" t="n">
-        <v>7187</v>
+        <v>6209</v>
       </c>
       <c r="W31" s="20" t="n">
-        <v>6209</v>
+        <v>6609</v>
       </c>
       <c r="X31" s="20" t="n">
-        <v>6609</v>
+        <v>6566</v>
       </c>
       <c r="Y31" s="20" t="n">
-        <v>6566</v>
+        <v>5267</v>
       </c>
       <c r="Z31" s="20" t="n">
-        <v>5267</v>
+        <v>6192</v>
       </c>
       <c r="AA31" s="20" t="n">
-        <v>6192</v>
+        <v>6710</v>
       </c>
       <c r="AB31" s="20" t="n">
-        <v>6710</v>
+        <v>5839</v>
       </c>
       <c r="AC31" s="20" t="n">
-        <v>5839</v>
+        <v>6851</v>
       </c>
       <c r="AD31" s="20" t="n">
-        <v>6851</v>
+        <v>4435</v>
       </c>
       <c r="AE31" s="20" t="n">
-        <v>4435</v>
+        <v>6885</v>
       </c>
       <c r="AF31" s="20" t="n">
-        <v>6885</v>
+        <v>6410</v>
       </c>
       <c r="AG31" s="20" t="n">
-        <v>6410</v>
+        <v>5950</v>
       </c>
       <c r="AH31" s="20" t="n">
-        <v>5950</v>
+        <v>6615</v>
       </c>
       <c r="AI31" s="20" t="n">
-        <v>6615</v>
+        <v>7368</v>
       </c>
       <c r="AJ31" s="20" t="n">
-        <v>7368</v>
+        <v>5184</v>
       </c>
       <c r="AK31" s="20" t="n">
-        <v>5184</v>
+        <v>6257</v>
       </c>
       <c r="AL31" s="20" t="n">
-        <v>6257</v>
+        <v>5262</v>
       </c>
       <c r="AM31" s="20" t="n">
-        <v>5262</v>
+        <v>5566</v>
       </c>
       <c r="AN31" s="20" t="n">
-        <v>5566</v>
+        <v>5172</v>
       </c>
       <c r="AO31" s="20" t="n">
-        <v>5172</v>
+        <v>8214</v>
       </c>
       <c r="AP31" s="20" t="n">
-        <v>8214</v>
+        <v>5509</v>
       </c>
       <c r="AQ31" s="20" t="n">
-        <v>5509</v>
+        <v>5464</v>
       </c>
       <c r="AR31" s="20" t="n">
-        <v>5464</v>
+        <v>5752</v>
       </c>
       <c r="AS31" s="20" t="n">
-        <v>5752</v>
+        <v>5560</v>
       </c>
       <c r="AT31" s="20" t="n">
-        <v>5560</v>
+        <v>6336</v>
       </c>
       <c r="AU31" s="20" t="n">
-        <v>6336</v>
+        <v>5983</v>
       </c>
       <c r="AV31" s="20" t="n">
-        <v>5983</v>
+        <v>5365</v>
       </c>
       <c r="AW31" s="20" t="n">
-        <v>5365</v>
+        <v>6339</v>
       </c>
       <c r="AX31" s="20" t="n">
-        <v>6339</v>
+        <v>5546</v>
       </c>
       <c r="AY31" s="20" t="n">
-        <v>5546</v>
+        <v>5249</v>
       </c>
       <c r="AZ31" s="20" t="n">
-        <v>5249</v>
+        <v>11555</v>
       </c>
       <c r="BA31" s="20" t="n">
-        <v>11555</v>
+        <v>14105</v>
       </c>
       <c r="BB31" s="20" t="n">
-        <v>14105</v>
+        <v>12599</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6189,44 +6189,44 @@
       <c r="H38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>57</v>
+      <c r="I38" s="13" t="n">
+        <v>160981</v>
       </c>
       <c r="J38" s="13" t="n">
-        <v>160981</v>
+        <v>169111</v>
       </c>
       <c r="K38" s="13" t="n">
-        <v>169111</v>
+        <v>231161</v>
       </c>
       <c r="L38" s="13" t="n">
-        <v>231161</v>
+        <v>214358</v>
       </c>
       <c r="M38" s="13" t="n">
-        <v>214358</v>
+        <v>153211</v>
       </c>
       <c r="N38" s="13" t="n">
-        <v>153211</v>
+        <v>214331</v>
       </c>
       <c r="O38" s="13" t="n">
-        <v>214331</v>
+        <v>206298</v>
       </c>
       <c r="P38" s="13" t="n">
-        <v>206298</v>
+        <v>237827</v>
       </c>
       <c r="Q38" s="13" t="n">
-        <v>237827</v>
+        <v>304372</v>
       </c>
       <c r="R38" s="13" t="n">
-        <v>304372</v>
+        <v>247873</v>
       </c>
       <c r="S38" s="13" t="n">
-        <v>247873</v>
+        <v>273114</v>
       </c>
       <c r="T38" s="13" t="n">
-        <v>273114</v>
-      </c>
-      <c r="U38" s="13" t="n">
         <v>231526</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V38" s="13" t="s">
         <v>57</v>
@@ -6337,19 +6337,19 @@
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16" t="n">
-        <v>127681</v>
+        <v>206007</v>
       </c>
       <c r="F39" s="16" t="n">
-        <v>206007</v>
+        <v>189017</v>
       </c>
       <c r="G39" s="16" t="n">
-        <v>189017</v>
+        <v>214536</v>
       </c>
       <c r="H39" s="16" t="n">
-        <v>214536</v>
-      </c>
-      <c r="I39" s="16" t="n">
         <v>169432</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>57</v>
@@ -6543,107 +6543,107 @@
       <c r="T40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="13" t="s">
-        <v>57</v>
+      <c r="U40" s="13" t="n">
+        <v>308457</v>
       </c>
       <c r="V40" s="13" t="n">
-        <v>308457</v>
+        <v>281405</v>
       </c>
       <c r="W40" s="13" t="n">
-        <v>281405</v>
+        <v>306000</v>
       </c>
       <c r="X40" s="13" t="n">
-        <v>306000</v>
+        <v>315629</v>
       </c>
       <c r="Y40" s="13" t="n">
-        <v>315629</v>
+        <v>275082</v>
       </c>
       <c r="Z40" s="13" t="n">
-        <v>275082</v>
+        <v>346941</v>
       </c>
       <c r="AA40" s="13" t="n">
-        <v>346941</v>
+        <v>389823</v>
       </c>
       <c r="AB40" s="13" t="n">
-        <v>389823</v>
+        <v>357159</v>
       </c>
       <c r="AC40" s="13" t="n">
-        <v>357159</v>
+        <v>409967</v>
       </c>
       <c r="AD40" s="13" t="n">
-        <v>409967</v>
+        <v>280415</v>
       </c>
       <c r="AE40" s="13" t="n">
-        <v>280415</v>
+        <v>573470</v>
       </c>
       <c r="AF40" s="13" t="n">
-        <v>573470</v>
+        <v>532136</v>
       </c>
       <c r="AG40" s="13" t="n">
-        <v>532136</v>
+        <v>491564</v>
       </c>
       <c r="AH40" s="13" t="n">
-        <v>491564</v>
+        <v>571218</v>
       </c>
       <c r="AI40" s="13" t="n">
-        <v>571218</v>
+        <v>640034</v>
       </c>
       <c r="AJ40" s="13" t="n">
-        <v>640034</v>
+        <v>486019</v>
       </c>
       <c r="AK40" s="13" t="n">
-        <v>486019</v>
+        <v>629802</v>
       </c>
       <c r="AL40" s="13" t="n">
-        <v>629802</v>
+        <v>546523</v>
       </c>
       <c r="AM40" s="13" t="n">
-        <v>546523</v>
+        <v>569373</v>
       </c>
       <c r="AN40" s="13" t="n">
-        <v>569373</v>
+        <v>516681</v>
       </c>
       <c r="AO40" s="13" t="n">
-        <v>516681</v>
+        <v>842826</v>
       </c>
       <c r="AP40" s="13" t="n">
-        <v>842826</v>
+        <v>554902</v>
       </c>
       <c r="AQ40" s="13" t="n">
-        <v>554902</v>
+        <v>637538</v>
       </c>
       <c r="AR40" s="13" t="n">
-        <v>637538</v>
+        <v>711031</v>
       </c>
       <c r="AS40" s="13" t="n">
-        <v>711031</v>
+        <v>740990</v>
       </c>
       <c r="AT40" s="13" t="n">
-        <v>740990</v>
+        <v>801103</v>
       </c>
       <c r="AU40" s="13" t="n">
-        <v>801103</v>
+        <v>835011</v>
       </c>
       <c r="AV40" s="13" t="n">
-        <v>835011</v>
+        <v>699937</v>
       </c>
       <c r="AW40" s="13" t="n">
-        <v>699937</v>
+        <v>750572</v>
       </c>
       <c r="AX40" s="13" t="n">
-        <v>750572</v>
+        <v>768984</v>
       </c>
       <c r="AY40" s="13" t="n">
-        <v>768984</v>
+        <v>744352</v>
       </c>
       <c r="AZ40" s="13" t="n">
-        <v>744352</v>
+        <v>1602612</v>
       </c>
       <c r="BA40" s="13" t="n">
-        <v>1602612</v>
+        <v>1889214</v>
       </c>
       <c r="BB40" s="13" t="n">
-        <v>1889214</v>
+        <v>1655008</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6759,8 +6759,8 @@
       <c r="T42" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U42" s="20" t="s">
-        <v>57</v>
+      <c r="U42" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V42" s="23" t="n">
         <v>0</v>
@@ -6975,11 +6975,11 @@
       <c r="T44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U44" s="13" t="s">
-        <v>57</v>
+      <c r="U44" s="13" t="n">
+        <v>-790</v>
       </c>
       <c r="V44" s="13" t="n">
-        <v>-790</v>
+        <v>0</v>
       </c>
       <c r="W44" s="13" t="n">
         <v>0</v>
@@ -6988,19 +6988,19 @@
         <v>0</v>
       </c>
       <c r="Y44" s="13" t="n">
-        <v>0</v>
+        <v>-1552</v>
       </c>
       <c r="Z44" s="13" t="n">
-        <v>-1552</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AB44" s="13" t="n">
-        <v>0</v>
+        <v>-977</v>
       </c>
       <c r="AC44" s="13" t="n">
-        <v>-977</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="13" t="n">
         <v>0</v>
@@ -7018,25 +7018,25 @@
         <v>0</v>
       </c>
       <c r="AI44" s="13" t="n">
-        <v>0</v>
+        <v>-1987</v>
       </c>
       <c r="AJ44" s="13" t="n">
-        <v>-1987</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="13" t="n">
-        <v>0</v>
+        <v>-9754</v>
       </c>
       <c r="AL44" s="13" t="n">
-        <v>-9754</v>
+        <v>-14982</v>
       </c>
       <c r="AM44" s="13" t="n">
-        <v>-14982</v>
+        <v>-3637</v>
       </c>
       <c r="AN44" s="13" t="n">
-        <v>-3637</v>
+        <v>-8660</v>
       </c>
       <c r="AO44" s="13" t="n">
-        <v>-8660</v>
+        <v>0</v>
       </c>
       <c r="AP44" s="13" t="n">
         <v>0</v>
@@ -7048,31 +7048,31 @@
         <v>0</v>
       </c>
       <c r="AS44" s="13" t="n">
-        <v>0</v>
+        <v>-4459</v>
       </c>
       <c r="AT44" s="13" t="n">
-        <v>-4459</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="13" t="n">
-        <v>0</v>
+        <v>-20975</v>
       </c>
       <c r="AV44" s="13" t="n">
-        <v>-20975</v>
+        <v>-4087</v>
       </c>
       <c r="AW44" s="13" t="n">
-        <v>-4087</v>
+        <v>-4838</v>
       </c>
       <c r="AX44" s="13" t="n">
-        <v>-4838</v>
+        <v>-46969</v>
       </c>
       <c r="AY44" s="13" t="n">
-        <v>-46969</v>
+        <v>-7542</v>
       </c>
       <c r="AZ44" s="13" t="n">
-        <v>-7542</v>
+        <v>-2958</v>
       </c>
       <c r="BA44" s="13" t="n">
-        <v>-2958</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="13" t="n">
         <v>0</v>
@@ -7134,11 +7134,11 @@
       <c r="T45" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="U45" s="22" t="s">
-        <v>57</v>
+      <c r="U45" s="24" t="n">
+        <v>-790</v>
       </c>
       <c r="V45" s="24" t="n">
-        <v>-790</v>
+        <v>0</v>
       </c>
       <c r="W45" s="24" t="n">
         <v>0</v>
@@ -7147,19 +7147,19 @@
         <v>0</v>
       </c>
       <c r="Y45" s="24" t="n">
-        <v>0</v>
+        <v>-1552</v>
       </c>
       <c r="Z45" s="24" t="n">
-        <v>-1552</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="24" t="n">
         <v>0</v>
       </c>
       <c r="AB45" s="24" t="n">
-        <v>0</v>
+        <v>-977</v>
       </c>
       <c r="AC45" s="24" t="n">
-        <v>-977</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="24" t="n">
         <v>0</v>
@@ -7177,25 +7177,25 @@
         <v>0</v>
       </c>
       <c r="AI45" s="24" t="n">
-        <v>0</v>
+        <v>-1987</v>
       </c>
       <c r="AJ45" s="24" t="n">
-        <v>-1987</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="24" t="n">
-        <v>0</v>
+        <v>-9754</v>
       </c>
       <c r="AL45" s="24" t="n">
-        <v>-9754</v>
+        <v>-14982</v>
       </c>
       <c r="AM45" s="24" t="n">
-        <v>-14982</v>
+        <v>-3637</v>
       </c>
       <c r="AN45" s="24" t="n">
-        <v>-3637</v>
+        <v>-8660</v>
       </c>
       <c r="AO45" s="24" t="n">
-        <v>-8660</v>
+        <v>0</v>
       </c>
       <c r="AP45" s="24" t="n">
         <v>0</v>
@@ -7207,31 +7207,31 @@
         <v>0</v>
       </c>
       <c r="AS45" s="24" t="n">
-        <v>0</v>
+        <v>-4459</v>
       </c>
       <c r="AT45" s="24" t="n">
-        <v>-4459</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="24" t="n">
-        <v>0</v>
+        <v>-20975</v>
       </c>
       <c r="AV45" s="24" t="n">
-        <v>-20975</v>
+        <v>-4087</v>
       </c>
       <c r="AW45" s="24" t="n">
-        <v>-4087</v>
+        <v>-4838</v>
       </c>
       <c r="AX45" s="24" t="n">
-        <v>-4838</v>
+        <v>-46969</v>
       </c>
       <c r="AY45" s="24" t="n">
-        <v>-46969</v>
+        <v>-7542</v>
       </c>
       <c r="AZ45" s="24" t="n">
-        <v>-7542</v>
+        <v>-2958</v>
       </c>
       <c r="BA45" s="24" t="n">
-        <v>-2958</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="24" t="n">
         <v>0</v>
@@ -7350,107 +7350,107 @@
       <c r="T47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U47" s="13" t="s">
-        <v>57</v>
+      <c r="U47" s="13" t="n">
+        <v>-191</v>
       </c>
       <c r="V47" s="13" t="n">
-        <v>-191</v>
+        <v>-144</v>
       </c>
       <c r="W47" s="13" t="n">
-        <v>-144</v>
+        <v>-151</v>
       </c>
       <c r="X47" s="13" t="n">
-        <v>-151</v>
+        <v>-97</v>
       </c>
       <c r="Y47" s="13" t="n">
-        <v>-97</v>
+        <v>-19</v>
       </c>
       <c r="Z47" s="13" t="n">
-        <v>-19</v>
+        <v>-39</v>
       </c>
       <c r="AA47" s="13" t="n">
+        <v>-61</v>
+      </c>
+      <c r="AB47" s="13" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AC47" s="13" t="n">
+        <v>-74</v>
+      </c>
+      <c r="AD47" s="13" t="n">
         <v>-39</v>
       </c>
-      <c r="AB47" s="13" t="n">
-        <v>-61</v>
-      </c>
-      <c r="AC47" s="13" t="n">
-        <v>-8</v>
-      </c>
-      <c r="AD47" s="13" t="n">
-        <v>-74</v>
-      </c>
       <c r="AE47" s="13" t="n">
-        <v>-39</v>
+        <v>-54</v>
       </c>
       <c r="AF47" s="13" t="n">
-        <v>-54</v>
+        <v>-25</v>
       </c>
       <c r="AG47" s="13" t="n">
-        <v>-25</v>
+        <v>-38</v>
       </c>
       <c r="AH47" s="13" t="n">
-        <v>-38</v>
+        <v>-73</v>
       </c>
       <c r="AI47" s="13" t="n">
-        <v>-73</v>
+        <v>-43</v>
       </c>
       <c r="AJ47" s="13" t="n">
         <v>-43</v>
       </c>
       <c r="AK47" s="13" t="n">
-        <v>-43</v>
+        <v>-121</v>
       </c>
       <c r="AL47" s="13" t="n">
-        <v>-121</v>
+        <v>-73</v>
       </c>
       <c r="AM47" s="13" t="n">
-        <v>-73</v>
+        <v>-163</v>
       </c>
       <c r="AN47" s="13" t="n">
-        <v>-163</v>
+        <v>-99</v>
       </c>
       <c r="AO47" s="13" t="n">
-        <v>-99</v>
+        <v>-144</v>
       </c>
       <c r="AP47" s="13" t="n">
-        <v>-144</v>
+        <v>-270</v>
       </c>
       <c r="AQ47" s="13" t="n">
-        <v>-270</v>
+        <v>-19</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>-19</v>
+        <v>-135</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>-135</v>
+        <v>-37</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>-37</v>
+        <v>-397</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>-397</v>
+        <v>-8349</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>-8349</v>
+        <v>-9695</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>-9695</v>
+        <v>-16312</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>-16312</v>
+        <v>-24729</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>-24729</v>
+        <v>-69610</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>-69610</v>
+        <v>-251732</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>-251732</v>
+        <v>-148404</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>-148404</v>
+        <v>-140245</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7460,154 +7460,154 @@
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24" t="n">
-        <v>127681</v>
+        <v>206007</v>
       </c>
       <c r="F48" s="24" t="n">
-        <v>206007</v>
+        <v>189017</v>
       </c>
       <c r="G48" s="24" t="n">
-        <v>189017</v>
+        <v>214536</v>
       </c>
       <c r="H48" s="24" t="n">
-        <v>214536</v>
+        <v>169432</v>
       </c>
       <c r="I48" s="24" t="n">
-        <v>169432</v>
+        <v>160981</v>
       </c>
       <c r="J48" s="24" t="n">
-        <v>160981</v>
+        <v>169111</v>
       </c>
       <c r="K48" s="24" t="n">
-        <v>169111</v>
+        <v>231161</v>
       </c>
       <c r="L48" s="24" t="n">
-        <v>231161</v>
+        <v>214358</v>
       </c>
       <c r="M48" s="24" t="n">
-        <v>214358</v>
+        <v>153211</v>
       </c>
       <c r="N48" s="24" t="n">
-        <v>153211</v>
+        <v>214331</v>
       </c>
       <c r="O48" s="24" t="n">
-        <v>214331</v>
+        <v>206298</v>
       </c>
       <c r="P48" s="24" t="n">
-        <v>206298</v>
+        <v>237827</v>
       </c>
       <c r="Q48" s="24" t="n">
-        <v>237827</v>
+        <v>304372</v>
       </c>
       <c r="R48" s="24" t="n">
-        <v>304372</v>
+        <v>247873</v>
       </c>
       <c r="S48" s="24" t="n">
-        <v>247873</v>
+        <v>273114</v>
       </c>
       <c r="T48" s="24" t="n">
-        <v>273114</v>
+        <v>231526</v>
       </c>
       <c r="U48" s="24" t="n">
-        <v>231526</v>
+        <v>307476</v>
       </c>
       <c r="V48" s="24" t="n">
-        <v>307476</v>
+        <v>281261</v>
       </c>
       <c r="W48" s="24" t="n">
-        <v>281261</v>
+        <v>305849</v>
       </c>
       <c r="X48" s="24" t="n">
-        <v>305849</v>
+        <v>315532</v>
       </c>
       <c r="Y48" s="24" t="n">
-        <v>315532</v>
+        <v>273511</v>
       </c>
       <c r="Z48" s="24" t="n">
-        <v>273511</v>
+        <v>346902</v>
       </c>
       <c r="AA48" s="24" t="n">
-        <v>346902</v>
+        <v>389762</v>
       </c>
       <c r="AB48" s="24" t="n">
-        <v>389762</v>
+        <v>356174</v>
       </c>
       <c r="AC48" s="24" t="n">
-        <v>356174</v>
+        <v>409893</v>
       </c>
       <c r="AD48" s="24" t="n">
-        <v>409893</v>
+        <v>280376</v>
       </c>
       <c r="AE48" s="24" t="n">
-        <v>280376</v>
+        <v>573416</v>
       </c>
       <c r="AF48" s="24" t="n">
-        <v>573416</v>
+        <v>532111</v>
       </c>
       <c r="AG48" s="24" t="n">
-        <v>532111</v>
+        <v>491526</v>
       </c>
       <c r="AH48" s="24" t="n">
-        <v>491526</v>
+        <v>571145</v>
       </c>
       <c r="AI48" s="24" t="n">
-        <v>571145</v>
+        <v>638004</v>
       </c>
       <c r="AJ48" s="24" t="n">
-        <v>638004</v>
+        <v>485976</v>
       </c>
       <c r="AK48" s="24" t="n">
-        <v>485976</v>
+        <v>619927</v>
       </c>
       <c r="AL48" s="24" t="n">
-        <v>619927</v>
+        <v>531468</v>
       </c>
       <c r="AM48" s="24" t="n">
-        <v>531468</v>
+        <v>565573</v>
       </c>
       <c r="AN48" s="24" t="n">
-        <v>565573</v>
+        <v>507922</v>
       </c>
       <c r="AO48" s="24" t="n">
-        <v>507922</v>
+        <v>842682</v>
       </c>
       <c r="AP48" s="24" t="n">
-        <v>842682</v>
+        <v>554632</v>
       </c>
       <c r="AQ48" s="24" t="n">
-        <v>554632</v>
+        <v>637519</v>
       </c>
       <c r="AR48" s="24" t="n">
-        <v>637519</v>
+        <v>710896</v>
       </c>
       <c r="AS48" s="24" t="n">
-        <v>710896</v>
+        <v>736494</v>
       </c>
       <c r="AT48" s="24" t="n">
-        <v>736494</v>
+        <v>800706</v>
       </c>
       <c r="AU48" s="24" t="n">
-        <v>800706</v>
+        <v>805687</v>
       </c>
       <c r="AV48" s="24" t="n">
-        <v>805687</v>
+        <v>686155</v>
       </c>
       <c r="AW48" s="24" t="n">
-        <v>686155</v>
+        <v>729422</v>
       </c>
       <c r="AX48" s="24" t="n">
-        <v>729422</v>
+        <v>697286</v>
       </c>
       <c r="AY48" s="24" t="n">
-        <v>697286</v>
+        <v>667200</v>
       </c>
       <c r="AZ48" s="24" t="n">
-        <v>667200</v>
+        <v>1347922</v>
       </c>
       <c r="BA48" s="24" t="n">
-        <v>1347922</v>
+        <v>1740810</v>
       </c>
       <c r="BB48" s="24" t="n">
-        <v>1740810</v>
+        <v>1514763</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8064,44 +8064,44 @@
       <c r="H55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I55" s="13" t="s">
-        <v>57</v>
+      <c r="I55" s="13" t="n">
+        <v>33635813</v>
       </c>
       <c r="J55" s="13" t="n">
-        <v>33635813</v>
+        <v>34198382</v>
       </c>
       <c r="K55" s="13" t="n">
-        <v>34198382</v>
+        <v>33994265</v>
       </c>
       <c r="L55" s="13" t="n">
-        <v>33994265</v>
+        <v>34702606</v>
       </c>
       <c r="M55" s="13" t="n">
-        <v>34702606</v>
+        <v>34244747</v>
       </c>
       <c r="N55" s="13" t="n">
-        <v>34244747</v>
+        <v>34276507</v>
       </c>
       <c r="O55" s="13" t="n">
-        <v>34276507</v>
+        <v>34829985</v>
       </c>
       <c r="P55" s="13" t="n">
-        <v>34829985</v>
+        <v>34918074</v>
       </c>
       <c r="Q55" s="13" t="n">
-        <v>34918074</v>
+        <v>35586578</v>
       </c>
       <c r="R55" s="13" t="n">
-        <v>35586578</v>
+        <v>36033290</v>
       </c>
       <c r="S55" s="13" t="n">
-        <v>36033290</v>
+        <v>40557470</v>
       </c>
       <c r="T55" s="13" t="n">
-        <v>40557470</v>
-      </c>
-      <c r="U55" s="13" t="n">
         <v>42149281</v>
+      </c>
+      <c r="U55" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V55" s="13" t="s">
         <v>57</v>
@@ -8212,19 +8212,19 @@
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16" t="n">
-        <v>25318461</v>
+        <v>25046444</v>
       </c>
       <c r="F56" s="16" t="n">
-        <v>25046444</v>
+        <v>25480857</v>
       </c>
       <c r="G56" s="16" t="n">
-        <v>25480857</v>
+        <v>29738841</v>
       </c>
       <c r="H56" s="16" t="n">
-        <v>29738841</v>
-      </c>
-      <c r="I56" s="16" t="n">
         <v>32260472</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="J56" s="16" t="s">
         <v>57</v>
@@ -8418,107 +8418,107 @@
       <c r="T57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U57" s="13" t="s">
-        <v>57</v>
+      <c r="U57" s="13" t="n">
+        <v>42799639</v>
       </c>
       <c r="V57" s="13" t="n">
-        <v>42799639</v>
+        <v>45322113</v>
       </c>
       <c r="W57" s="13" t="n">
-        <v>45322113</v>
+        <v>46300499</v>
       </c>
       <c r="X57" s="13" t="n">
-        <v>46300499</v>
+        <v>48070210</v>
       </c>
       <c r="Y57" s="13" t="n">
-        <v>48070210</v>
+        <v>51912059</v>
       </c>
       <c r="Z57" s="13" t="n">
-        <v>51912059</v>
+        <v>56030523</v>
       </c>
       <c r="AA57" s="13" t="n">
-        <v>56030523</v>
+        <v>58095827</v>
       </c>
       <c r="AB57" s="13" t="n">
-        <v>58095827</v>
+        <v>61021527</v>
       </c>
       <c r="AC57" s="13" t="n">
-        <v>61021527</v>
+        <v>59840461</v>
       </c>
       <c r="AD57" s="13" t="n">
-        <v>59840461</v>
+        <v>63227734</v>
       </c>
       <c r="AE57" s="13" t="n">
-        <v>63227734</v>
+        <v>83292665</v>
       </c>
       <c r="AF57" s="13" t="n">
-        <v>83292665</v>
+        <v>83016537</v>
       </c>
       <c r="AG57" s="13" t="n">
-        <v>83016537</v>
+        <v>82615798</v>
       </c>
       <c r="AH57" s="13" t="n">
-        <v>82615798</v>
+        <v>86351927</v>
       </c>
       <c r="AI57" s="13" t="n">
-        <v>86351927</v>
+        <v>86608119</v>
       </c>
       <c r="AJ57" s="13" t="n">
-        <v>86608119</v>
+        <v>93753665</v>
       </c>
       <c r="AK57" s="13" t="n">
-        <v>93753665</v>
+        <v>98838983</v>
       </c>
       <c r="AL57" s="13" t="n">
-        <v>98838983</v>
+        <v>100463787</v>
       </c>
       <c r="AM57" s="13" t="n">
-        <v>100463787</v>
+        <v>101456344</v>
       </c>
       <c r="AN57" s="13" t="n">
-        <v>101456344</v>
+        <v>98041935</v>
       </c>
       <c r="AO57" s="13" t="n">
-        <v>98041935</v>
+        <v>102608473</v>
       </c>
       <c r="AP57" s="13" t="n">
-        <v>102608473</v>
+        <v>100726448</v>
       </c>
       <c r="AQ57" s="13" t="n">
-        <v>100726448</v>
+        <v>116679722</v>
       </c>
       <c r="AR57" s="13" t="n">
-        <v>116679722</v>
+        <v>123614569</v>
       </c>
       <c r="AS57" s="13" t="n">
-        <v>123614569</v>
+        <v>132414224</v>
       </c>
       <c r="AT57" s="13" t="n">
-        <v>132414224</v>
+        <v>126436711</v>
       </c>
       <c r="AU57" s="13" t="n">
-        <v>126436711</v>
+        <v>136106112</v>
       </c>
       <c r="AV57" s="13" t="n">
-        <v>136106112</v>
+        <v>129762143</v>
       </c>
       <c r="AW57" s="13" t="n">
-        <v>129762143</v>
+        <v>117829199</v>
       </c>
       <c r="AX57" s="13" t="n">
-        <v>117829199</v>
+        <v>131225939</v>
       </c>
       <c r="AY57" s="13" t="n">
-        <v>131225939</v>
+        <v>140390796</v>
       </c>
       <c r="AZ57" s="13" t="n">
-        <v>140390796</v>
+        <v>138430682</v>
       </c>
       <c r="BA57" s="13" t="n">
-        <v>138430682</v>
+        <v>133939312</v>
       </c>
       <c r="BB57" s="13" t="n">
-        <v>133939312</v>
+        <v>131360267</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shishe/kehamda/product/monthly.xlsx
+++ b/database/industries/shishe/kehamda/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\shishe\kehamda\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F25B78-EE10-4190-9793-C93C18BFFF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BA44C5-7DD5-4F04-95C8-793185D15B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1464" windowWidth="20460" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>کهمدا-شیشه‌ همدان‌</t>
@@ -35,27 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1398/01</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1398/02</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1398/03</t>
-  </si>
-  <si>
-    <t>ماه 1 منتهی به 1398/04</t>
-  </si>
-  <si>
-    <t>ماه 2 منتهی به 1398/05</t>
-  </si>
-  <si>
-    <t>ماه 3 منتهی به 1398/06</t>
-  </si>
-  <si>
-    <t>ماه 4 منتهی به 1398/07</t>
   </si>
   <si>
     <t>ماه 5 منتهی به 1398/08</t>
@@ -187,7 +166,28 @@
     <t>ماه 11 منتهی به 1402/02</t>
   </si>
   <si>
-    <t>انواع ظروف شیشه ای</t>
+    <t>ماه 12 منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1402/04</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1402/05</t>
+  </si>
+  <si>
+    <t>ماه 3 منتهی به 1402/06</t>
+  </si>
+  <si>
+    <t>ماه 4 منتهی به 1402/07</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1402/08</t>
+  </si>
+  <si>
+    <t>ماه 6 منتهی به 1402/09</t>
+  </si>
+  <si>
+    <t>انواع ظروف شیشه ای بطر و جار</t>
   </si>
   <si>
     <t>تن</t>
@@ -196,16 +196,13 @@
     <t>-</t>
   </si>
   <si>
-    <t>انواع ظروف شیشه ای بسته بندی مواد غذایی - بطری وجار</t>
-  </si>
-  <si>
-    <t>انواع ظروف شیشه ای بطر و جار</t>
+    <t>انواع ظروف شیشه ای</t>
   </si>
   <si>
     <t>درآمد ارایه خدمات</t>
   </si>
   <si>
-    <t>جمع درآمد ارائه خدمات</t>
+    <t>جمع درآمد ارایه خدمات</t>
   </si>
   <si>
     <t>جمع</t>
@@ -245,6 +242,33 @@
   </si>
   <si>
     <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف انرژی</t>
+  </si>
+  <si>
+    <t>برق</t>
+  </si>
+  <si>
+    <t>گاز سوخت</t>
+  </si>
+  <si>
+    <t>مقدار مصرف انرژی</t>
+  </si>
+  <si>
+    <t>مگاوات ساعت</t>
+  </si>
+  <si>
+    <t>متر مکعب</t>
+  </si>
+  <si>
+    <t>نرخ مصرف انرژی</t>
+  </si>
+  <si>
+    <t>مگاوات ساعت / ریال</t>
+  </si>
+  <si>
+    <t>متر مکعب / ریال</t>
   </si>
 </sst>
 </file>
@@ -308,13 +332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EFFB"/>
+        <fgColor rgb="FFF5F5F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
+        <fgColor rgb="FFD9EFFB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,16 +397,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,16 +415,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BB57"/>
+  <dimension ref="B1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1338,9 +1362,7 @@
       <c r="BB9" s="1"/>
     </row>
     <row r="10" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1396,484 +1418,382 @@
     </row>
     <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>56</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="11">
-        <v>5812</v>
-      </c>
-      <c r="I11" s="11">
-        <v>5753</v>
-      </c>
-      <c r="J11" s="11">
-        <v>6036</v>
-      </c>
-      <c r="K11" s="11">
-        <v>6011</v>
-      </c>
-      <c r="L11" s="11">
-        <v>6226</v>
-      </c>
-      <c r="M11" s="11">
-        <v>6080</v>
-      </c>
-      <c r="N11" s="11">
-        <v>5939</v>
-      </c>
-      <c r="O11" s="11">
-        <v>6012</v>
-      </c>
-      <c r="P11" s="11">
-        <v>5701</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>6415</v>
-      </c>
-      <c r="R11" s="11">
-        <v>5961</v>
-      </c>
-      <c r="S11" s="11">
-        <v>6164</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB11" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13">
-        <v>6317</v>
-      </c>
-      <c r="F12" s="13">
-        <v>6254</v>
-      </c>
-      <c r="G12" s="13">
-        <v>6184</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB12" s="13" t="s">
-        <v>57</v>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="9">
+        <v>5802</v>
+      </c>
+      <c r="N12" s="9">
+        <v>5647</v>
+      </c>
+      <c r="O12" s="9">
+        <v>6003</v>
+      </c>
+      <c r="P12" s="9">
+        <v>5610</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>5307</v>
+      </c>
+      <c r="R12" s="9">
+        <v>5804</v>
+      </c>
+      <c r="S12" s="9">
+        <v>6180</v>
+      </c>
+      <c r="T12" s="9">
+        <v>6152</v>
+      </c>
+      <c r="U12" s="9">
+        <v>6455</v>
+      </c>
+      <c r="V12" s="9">
+        <v>6708</v>
+      </c>
+      <c r="W12" s="9">
+        <v>6433</v>
+      </c>
+      <c r="X12" s="9">
+        <v>6495</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>6340</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>6507</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>6445</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>6225</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>6345</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>6033</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>5866</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>6466</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>6368</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>9629</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>9438</v>
+      </c>
+      <c r="AJ12" s="9">
+        <v>7693</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>7215</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>6594</v>
+      </c>
+      <c r="AM12" s="9">
+        <v>7795</v>
+      </c>
+      <c r="AN12" s="9">
+        <v>8972</v>
+      </c>
+      <c r="AO12" s="9">
+        <v>8924</v>
+      </c>
+      <c r="AP12" s="9">
+        <v>8906</v>
+      </c>
+      <c r="AQ12" s="9">
+        <v>9451</v>
+      </c>
+      <c r="AR12" s="9">
+        <v>9866</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>10968</v>
+      </c>
+      <c r="AT12" s="9">
+        <v>12576</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>12281</v>
+      </c>
+      <c r="AV12" s="9">
+        <v>11922</v>
+      </c>
+      <c r="AW12" s="9">
+        <v>11164</v>
+      </c>
+      <c r="AX12" s="9">
+        <v>10649</v>
+      </c>
+      <c r="AY12" s="9">
+        <v>10788</v>
+      </c>
+      <c r="AZ12" s="9">
+        <v>10548</v>
+      </c>
+      <c r="BA12" s="9">
+        <v>11861</v>
+      </c>
+      <c r="BB12" s="9">
+        <v>11671</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T13" s="11">
-        <v>5802</v>
-      </c>
-      <c r="U13" s="11">
-        <v>5647</v>
-      </c>
-      <c r="V13" s="11">
-        <v>6003</v>
-      </c>
-      <c r="W13" s="11">
-        <v>5610</v>
-      </c>
-      <c r="X13" s="11">
-        <v>5307</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>5804</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>6180</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>6152</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>6455</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>6708</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>6433</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>6495</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>6340</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>6507</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>6445</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>6225</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>6345</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>6033</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>5866</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>6466</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>6368</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>9629</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>9438</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>7693</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>7215</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>6594</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>7795</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>8972</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>8924</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>8906</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>9451</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>9866</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>10968</v>
-      </c>
-      <c r="BA13" s="11">
-        <v>12576</v>
-      </c>
-      <c r="BB13" s="11">
-        <v>12281</v>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13">
+        <v>6226</v>
+      </c>
+      <c r="F13" s="13">
+        <v>6080</v>
+      </c>
+      <c r="G13" s="13">
+        <v>5939</v>
+      </c>
+      <c r="H13" s="13">
+        <v>6012</v>
+      </c>
+      <c r="I13" s="13">
+        <v>5701</v>
+      </c>
+      <c r="J13" s="13">
+        <v>6415</v>
+      </c>
+      <c r="K13" s="13">
+        <v>5961</v>
+      </c>
+      <c r="L13" s="13">
+        <v>6164</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB13" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1930,54 +1850,54 @@
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>57</v>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
+        <v>0</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0</v>
+      </c>
+      <c r="N15" s="17">
+        <v>0</v>
+      </c>
+      <c r="O15" s="17">
+        <v>0</v>
+      </c>
+      <c r="P15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>0</v>
+      </c>
+      <c r="R15" s="17">
+        <v>0</v>
+      </c>
+      <c r="S15" s="17">
+        <v>0</v>
       </c>
       <c r="T15" s="17">
         <v>0</v>
@@ -2087,159 +2007,159 @@
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19">
-        <v>6317</v>
+        <v>6226</v>
       </c>
       <c r="F16" s="19">
-        <v>6254</v>
+        <v>6080</v>
       </c>
       <c r="G16" s="19">
-        <v>6184</v>
+        <v>5939</v>
       </c>
       <c r="H16" s="19">
-        <v>5812</v>
+        <v>6012</v>
       </c>
       <c r="I16" s="19">
-        <v>5753</v>
+        <v>5701</v>
       </c>
       <c r="J16" s="19">
-        <v>6036</v>
+        <v>6415</v>
       </c>
       <c r="K16" s="19">
-        <v>6011</v>
+        <v>5961</v>
       </c>
       <c r="L16" s="19">
-        <v>6226</v>
+        <v>6164</v>
       </c>
       <c r="M16" s="19">
-        <v>6080</v>
+        <v>5802</v>
       </c>
       <c r="N16" s="19">
-        <v>5939</v>
+        <v>5647</v>
       </c>
       <c r="O16" s="19">
-        <v>6012</v>
+        <v>6003</v>
       </c>
       <c r="P16" s="19">
-        <v>5701</v>
+        <v>5610</v>
       </c>
       <c r="Q16" s="19">
-        <v>6415</v>
+        <v>5307</v>
       </c>
       <c r="R16" s="19">
-        <v>5961</v>
+        <v>5804</v>
       </c>
       <c r="S16" s="19">
-        <v>6164</v>
+        <v>6180</v>
       </c>
       <c r="T16" s="19">
-        <v>5802</v>
+        <v>6152</v>
       </c>
       <c r="U16" s="19">
-        <v>5647</v>
+        <v>6455</v>
       </c>
       <c r="V16" s="19">
-        <v>6003</v>
+        <v>6708</v>
       </c>
       <c r="W16" s="19">
-        <v>5610</v>
+        <v>6433</v>
       </c>
       <c r="X16" s="19">
-        <v>5307</v>
+        <v>6495</v>
       </c>
       <c r="Y16" s="19">
-        <v>5804</v>
+        <v>6340</v>
       </c>
       <c r="Z16" s="19">
-        <v>6180</v>
+        <v>6507</v>
       </c>
       <c r="AA16" s="19">
-        <v>6152</v>
+        <v>6445</v>
       </c>
       <c r="AB16" s="19">
-        <v>6455</v>
+        <v>6225</v>
       </c>
       <c r="AC16" s="19">
-        <v>6708</v>
+        <v>6345</v>
       </c>
       <c r="AD16" s="19">
-        <v>6433</v>
+        <v>6033</v>
       </c>
       <c r="AE16" s="19">
-        <v>6495</v>
+        <v>5866</v>
       </c>
       <c r="AF16" s="19">
-        <v>6340</v>
+        <v>6466</v>
       </c>
       <c r="AG16" s="19">
-        <v>6507</v>
+        <v>6368</v>
       </c>
       <c r="AH16" s="19">
-        <v>6445</v>
+        <v>9629</v>
       </c>
       <c r="AI16" s="19">
-        <v>6225</v>
+        <v>9438</v>
       </c>
       <c r="AJ16" s="19">
-        <v>6345</v>
+        <v>7693</v>
       </c>
       <c r="AK16" s="19">
-        <v>6033</v>
+        <v>7215</v>
       </c>
       <c r="AL16" s="19">
-        <v>5866</v>
+        <v>6594</v>
       </c>
       <c r="AM16" s="19">
-        <v>6466</v>
+        <v>7795</v>
       </c>
       <c r="AN16" s="19">
-        <v>6368</v>
+        <v>8972</v>
       </c>
       <c r="AO16" s="19">
-        <v>9629</v>
+        <v>8924</v>
       </c>
       <c r="AP16" s="19">
-        <v>9438</v>
+        <v>8906</v>
       </c>
       <c r="AQ16" s="19">
-        <v>7693</v>
+        <v>9451</v>
       </c>
       <c r="AR16" s="19">
-        <v>7215</v>
+        <v>9866</v>
       </c>
       <c r="AS16" s="19">
-        <v>6594</v>
+        <v>10968</v>
       </c>
       <c r="AT16" s="19">
-        <v>7795</v>
+        <v>12576</v>
       </c>
       <c r="AU16" s="19">
-        <v>8972</v>
+        <v>12281</v>
       </c>
       <c r="AV16" s="19">
-        <v>8924</v>
+        <v>11922</v>
       </c>
       <c r="AW16" s="19">
-        <v>8906</v>
+        <v>11164</v>
       </c>
       <c r="AX16" s="19">
-        <v>9451</v>
+        <v>10649</v>
       </c>
       <c r="AY16" s="19">
-        <v>9866</v>
+        <v>10788</v>
       </c>
       <c r="AZ16" s="19">
-        <v>10968</v>
+        <v>10548</v>
       </c>
       <c r="BA16" s="19">
-        <v>12576</v>
+        <v>11861</v>
       </c>
       <c r="BB16" s="19">
-        <v>12281</v>
+        <v>11671</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2409,7 +2329,7 @@
     </row>
     <row r="20" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2620,9 +2540,7 @@
       <c r="BB21" s="1"/>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -2678,484 +2596,382 @@
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>56</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="11">
-        <v>4786</v>
-      </c>
-      <c r="I23" s="11">
-        <v>4945</v>
-      </c>
-      <c r="J23" s="11">
-        <v>6800</v>
-      </c>
-      <c r="K23" s="11">
-        <v>6177</v>
-      </c>
-      <c r="L23" s="11">
-        <v>4474</v>
-      </c>
-      <c r="M23" s="11">
-        <v>6253</v>
-      </c>
-      <c r="N23" s="11">
-        <v>5923</v>
-      </c>
-      <c r="O23" s="11">
-        <v>6811</v>
-      </c>
-      <c r="P23" s="11">
-        <v>8553</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>6879</v>
-      </c>
-      <c r="R23" s="11">
-        <v>6734</v>
-      </c>
-      <c r="S23" s="11">
-        <v>5493</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB23" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="11"/>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="11"/>
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="11"/>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="11"/>
+      <c r="BB23" s="11"/>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13">
-        <v>7418</v>
-      </c>
-      <c r="F24" s="13">
-        <v>7214</v>
-      </c>
-      <c r="G24" s="13">
-        <v>5252</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB24" s="13" t="s">
-        <v>57</v>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="9">
+        <v>7207</v>
+      </c>
+      <c r="N24" s="9">
+        <v>6209</v>
+      </c>
+      <c r="O24" s="9">
+        <v>6609</v>
+      </c>
+      <c r="P24" s="9">
+        <v>6566</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>5299</v>
+      </c>
+      <c r="R24" s="9">
+        <v>6192</v>
+      </c>
+      <c r="S24" s="9">
+        <v>6710</v>
+      </c>
+      <c r="T24" s="9">
+        <v>5853</v>
+      </c>
+      <c r="U24" s="9">
+        <v>6851</v>
+      </c>
+      <c r="V24" s="9">
+        <v>4435</v>
+      </c>
+      <c r="W24" s="9">
+        <v>6885</v>
+      </c>
+      <c r="X24" s="9">
+        <v>6410</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>5950</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>6615</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>7390</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>5184</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>6372</v>
+      </c>
+      <c r="AD24" s="9">
+        <v>5440</v>
+      </c>
+      <c r="AE24" s="9">
+        <v>5612</v>
+      </c>
+      <c r="AF24" s="9">
+        <v>5270</v>
+      </c>
+      <c r="AG24" s="9">
+        <v>8214</v>
+      </c>
+      <c r="AH24" s="9">
+        <v>5509</v>
+      </c>
+      <c r="AI24" s="9">
+        <v>5464</v>
+      </c>
+      <c r="AJ24" s="9">
+        <v>5752</v>
+      </c>
+      <c r="AK24" s="9">
+        <v>5596</v>
+      </c>
+      <c r="AL24" s="9">
+        <v>6336</v>
+      </c>
+      <c r="AM24" s="9">
+        <v>6135</v>
+      </c>
+      <c r="AN24" s="9">
+        <v>5394</v>
+      </c>
+      <c r="AO24" s="9">
+        <v>6370</v>
+      </c>
+      <c r="AP24" s="9">
+        <v>5860</v>
+      </c>
+      <c r="AQ24" s="9">
+        <v>5302</v>
+      </c>
+      <c r="AR24" s="9">
+        <v>11577</v>
+      </c>
+      <c r="AS24" s="9">
+        <v>14105</v>
+      </c>
+      <c r="AT24" s="9">
+        <v>12599</v>
+      </c>
+      <c r="AU24" s="9">
+        <v>12638</v>
+      </c>
+      <c r="AV24" s="9">
+        <v>11541</v>
+      </c>
+      <c r="AW24" s="9">
+        <v>11348</v>
+      </c>
+      <c r="AX24" s="9">
+        <v>11751</v>
+      </c>
+      <c r="AY24" s="9">
+        <v>8822</v>
+      </c>
+      <c r="AZ24" s="9">
+        <v>9118</v>
+      </c>
+      <c r="BA24" s="9">
+        <v>8710</v>
+      </c>
+      <c r="BB24" s="9">
+        <v>10479</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T25" s="11">
-        <v>7207</v>
-      </c>
-      <c r="U25" s="11">
-        <v>6209</v>
-      </c>
-      <c r="V25" s="11">
-        <v>6609</v>
-      </c>
-      <c r="W25" s="11">
-        <v>6566</v>
-      </c>
-      <c r="X25" s="11">
-        <v>5299</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>6192</v>
-      </c>
-      <c r="Z25" s="11">
-        <v>6710</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>5853</v>
-      </c>
-      <c r="AB25" s="11">
-        <v>6851</v>
-      </c>
-      <c r="AC25" s="11">
-        <v>4435</v>
-      </c>
-      <c r="AD25" s="11">
-        <v>6885</v>
-      </c>
-      <c r="AE25" s="11">
-        <v>6410</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>5950</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>6615</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>7390</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>5184</v>
-      </c>
-      <c r="AJ25" s="11">
-        <v>6372</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>5440</v>
-      </c>
-      <c r="AL25" s="11">
-        <v>5612</v>
-      </c>
-      <c r="AM25" s="11">
-        <v>5270</v>
-      </c>
-      <c r="AN25" s="11">
-        <v>8214</v>
-      </c>
-      <c r="AO25" s="11">
-        <v>5509</v>
-      </c>
-      <c r="AP25" s="11">
-        <v>5464</v>
-      </c>
-      <c r="AQ25" s="11">
-        <v>5752</v>
-      </c>
-      <c r="AR25" s="11">
-        <v>5596</v>
-      </c>
-      <c r="AS25" s="11">
-        <v>6336</v>
-      </c>
-      <c r="AT25" s="11">
-        <v>6135</v>
-      </c>
-      <c r="AU25" s="11">
-        <v>5394</v>
-      </c>
-      <c r="AV25" s="11">
-        <v>6370</v>
-      </c>
-      <c r="AW25" s="11">
-        <v>5860</v>
-      </c>
-      <c r="AX25" s="11">
-        <v>5302</v>
-      </c>
-      <c r="AY25" s="11">
-        <v>11577</v>
-      </c>
-      <c r="AZ25" s="11">
-        <v>14105</v>
-      </c>
-      <c r="BA25" s="11">
-        <v>12599</v>
-      </c>
-      <c r="BB25" s="11">
-        <v>12638</v>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13">
+        <v>4474</v>
+      </c>
+      <c r="F25" s="13">
+        <v>6253</v>
+      </c>
+      <c r="G25" s="13">
+        <v>5923</v>
+      </c>
+      <c r="H25" s="13">
+        <v>6811</v>
+      </c>
+      <c r="I25" s="13">
+        <v>8553</v>
+      </c>
+      <c r="J25" s="13">
+        <v>6879</v>
+      </c>
+      <c r="K25" s="13">
+        <v>6734</v>
+      </c>
+      <c r="L25" s="13">
+        <v>5493</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB25" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -3212,54 +3028,54 @@
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="S27" s="17" t="s">
-        <v>57</v>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <v>0</v>
+      </c>
+      <c r="K27" s="17">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>0</v>
+      </c>
+      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+      <c r="O27" s="17">
+        <v>0</v>
+      </c>
+      <c r="P27" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>0</v>
+      </c>
+      <c r="R27" s="17">
+        <v>0</v>
+      </c>
+      <c r="S27" s="17">
+        <v>0</v>
       </c>
       <c r="T27" s="17">
         <v>0</v>
@@ -3368,274 +3184,274 @@
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="9"/>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="9"/>
-      <c r="AN28" s="9"/>
-      <c r="AO28" s="9"/>
-      <c r="AP28" s="9"/>
-      <c r="AQ28" s="9"/>
-      <c r="AR28" s="9"/>
-      <c r="AS28" s="9"/>
-      <c r="AT28" s="9"/>
-      <c r="AU28" s="9"/>
-      <c r="AV28" s="9"/>
-      <c r="AW28" s="9"/>
-      <c r="AX28" s="9"/>
-      <c r="AY28" s="9"/>
-      <c r="AZ28" s="9"/>
-      <c r="BA28" s="9"/>
-      <c r="BB28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="11"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="11"/>
+      <c r="AZ28" s="11"/>
+      <c r="BA28" s="11"/>
+      <c r="BB28" s="11"/>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T29" s="11">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="9">
         <v>-20</v>
       </c>
-      <c r="U29" s="11">
-        <v>0</v>
-      </c>
-      <c r="V29" s="11">
-        <v>0</v>
-      </c>
-      <c r="W29" s="11">
-        <v>0</v>
-      </c>
-      <c r="X29" s="11">
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
         <v>-32</v>
       </c>
-      <c r="Y29" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="11">
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
         <v>-14</v>
       </c>
-      <c r="AB29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH29" s="11">
+      <c r="U29" s="9">
+        <v>0</v>
+      </c>
+      <c r="V29" s="9">
+        <v>0</v>
+      </c>
+      <c r="W29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA29" s="9">
         <v>-22</v>
       </c>
-      <c r="AI29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ29" s="11">
+      <c r="AB29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC29" s="9">
         <v>-115</v>
       </c>
-      <c r="AK29" s="11">
+      <c r="AD29" s="9">
         <v>-178</v>
       </c>
-      <c r="AL29" s="11">
+      <c r="AE29" s="9">
         <v>-46</v>
       </c>
-      <c r="AM29" s="11">
+      <c r="AF29" s="9">
         <v>-98</v>
       </c>
-      <c r="AN29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR29" s="11">
+      <c r="AG29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK29" s="9">
         <v>-36</v>
       </c>
-      <c r="AS29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT29" s="11">
+      <c r="AL29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM29" s="9">
         <v>-152</v>
       </c>
-      <c r="AU29" s="11">
+      <c r="AN29" s="9">
         <v>-29</v>
       </c>
-      <c r="AV29" s="11">
+      <c r="AO29" s="9">
         <v>-31</v>
       </c>
-      <c r="AW29" s="11">
+      <c r="AP29" s="9">
         <v>-314</v>
       </c>
-      <c r="AX29" s="11">
+      <c r="AQ29" s="9">
         <v>-53</v>
       </c>
-      <c r="AY29" s="11">
+      <c r="AR29" s="9">
         <v>-22</v>
       </c>
-      <c r="AZ29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB29" s="11" t="s">
-        <v>57</v>
+      <c r="AS29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV29" s="9">
+        <v>-47</v>
+      </c>
+      <c r="AW29" s="9">
+        <v>-41</v>
+      </c>
+      <c r="AX29" s="9">
+        <v>-76</v>
+      </c>
+      <c r="AY29" s="9">
+        <v>-80</v>
+      </c>
+      <c r="AZ29" s="9">
+        <v>-73</v>
+      </c>
+      <c r="BA29" s="9">
+        <v>-159</v>
+      </c>
+      <c r="BB29" s="9">
+        <v>-125</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="N30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="P30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="R30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="S30" s="19" t="s">
-        <v>57</v>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="19">
+        <v>0</v>
+      </c>
+      <c r="K30" s="19">
+        <v>0</v>
+      </c>
+      <c r="L30" s="19">
+        <v>0</v>
+      </c>
+      <c r="M30" s="19">
+        <v>-20</v>
+      </c>
+      <c r="N30" s="19">
+        <v>0</v>
+      </c>
+      <c r="O30" s="19">
+        <v>0</v>
+      </c>
+      <c r="P30" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>-32</v>
+      </c>
+      <c r="R30" s="19">
+        <v>0</v>
+      </c>
+      <c r="S30" s="19">
+        <v>0</v>
       </c>
       <c r="T30" s="19">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="U30" s="19">
         <v>0</v>
@@ -3647,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="19">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="19">
         <v>0</v>
@@ -3656,245 +3472,245 @@
         <v>0</v>
       </c>
       <c r="AA30" s="19">
-        <v>-14</v>
+        <v>-22</v>
       </c>
       <c r="AB30" s="19">
         <v>0</v>
       </c>
       <c r="AC30" s="19">
-        <v>0</v>
+        <v>-115</v>
       </c>
       <c r="AD30" s="19">
-        <v>0</v>
+        <v>-178</v>
       </c>
       <c r="AE30" s="19">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="AF30" s="19">
-        <v>0</v>
+        <v>-98</v>
       </c>
       <c r="AG30" s="19">
         <v>0</v>
       </c>
       <c r="AH30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="19">
+        <v>-36</v>
+      </c>
+      <c r="AL30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="19">
+        <v>-152</v>
+      </c>
+      <c r="AN30" s="19">
+        <v>-29</v>
+      </c>
+      <c r="AO30" s="19">
+        <v>-31</v>
+      </c>
+      <c r="AP30" s="19">
+        <v>-314</v>
+      </c>
+      <c r="AQ30" s="19">
+        <v>-53</v>
+      </c>
+      <c r="AR30" s="19">
         <v>-22</v>
       </c>
-      <c r="AI30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="19">
-        <v>-115</v>
-      </c>
-      <c r="AK30" s="19">
-        <v>-178</v>
-      </c>
-      <c r="AL30" s="19">
-        <v>-46</v>
-      </c>
-      <c r="AM30" s="19">
-        <v>-98</v>
-      </c>
-      <c r="AN30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="19">
-        <v>-36</v>
-      </c>
       <c r="AS30" s="19">
         <v>0</v>
       </c>
       <c r="AT30" s="19">
-        <v>-152</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="19">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="AV30" s="19">
-        <v>-31</v>
+        <v>-47</v>
       </c>
       <c r="AW30" s="19">
-        <v>-314</v>
+        <v>-41</v>
       </c>
       <c r="AX30" s="19">
-        <v>-53</v>
+        <v>-76</v>
       </c>
       <c r="AY30" s="19">
-        <v>-22</v>
+        <v>-80</v>
       </c>
       <c r="AZ30" s="19">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="BA30" s="19">
-        <v>0</v>
+        <v>-159</v>
       </c>
       <c r="BB30" s="19">
-        <v>0</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17">
-        <v>7418</v>
+        <v>4474</v>
       </c>
       <c r="F31" s="17">
-        <v>7214</v>
+        <v>6253</v>
       </c>
       <c r="G31" s="17">
-        <v>5252</v>
+        <v>5923</v>
       </c>
       <c r="H31" s="17">
-        <v>4786</v>
+        <v>6811</v>
       </c>
       <c r="I31" s="17">
-        <v>4945</v>
+        <v>8553</v>
       </c>
       <c r="J31" s="17">
-        <v>6800</v>
+        <v>6879</v>
       </c>
       <c r="K31" s="17">
-        <v>6177</v>
+        <v>6734</v>
       </c>
       <c r="L31" s="17">
-        <v>4474</v>
+        <v>5493</v>
       </c>
       <c r="M31" s="17">
-        <v>6253</v>
+        <v>7187</v>
       </c>
       <c r="N31" s="17">
-        <v>5923</v>
+        <v>6209</v>
       </c>
       <c r="O31" s="17">
-        <v>6811</v>
+        <v>6609</v>
       </c>
       <c r="P31" s="17">
-        <v>8553</v>
+        <v>6566</v>
       </c>
       <c r="Q31" s="17">
-        <v>6879</v>
+        <v>5267</v>
       </c>
       <c r="R31" s="17">
-        <v>6734</v>
+        <v>6192</v>
       </c>
       <c r="S31" s="17">
-        <v>5493</v>
+        <v>6710</v>
       </c>
       <c r="T31" s="17">
-        <v>7187</v>
+        <v>5839</v>
       </c>
       <c r="U31" s="17">
-        <v>6209</v>
+        <v>6851</v>
       </c>
       <c r="V31" s="17">
-        <v>6609</v>
+        <v>4435</v>
       </c>
       <c r="W31" s="17">
-        <v>6566</v>
+        <v>6885</v>
       </c>
       <c r="X31" s="17">
-        <v>5267</v>
+        <v>6410</v>
       </c>
       <c r="Y31" s="17">
-        <v>6192</v>
+        <v>5950</v>
       </c>
       <c r="Z31" s="17">
-        <v>6710</v>
+        <v>6615</v>
       </c>
       <c r="AA31" s="17">
-        <v>5839</v>
+        <v>7368</v>
       </c>
       <c r="AB31" s="17">
-        <v>6851</v>
+        <v>5184</v>
       </c>
       <c r="AC31" s="17">
-        <v>4435</v>
+        <v>6257</v>
       </c>
       <c r="AD31" s="17">
-        <v>6885</v>
+        <v>5262</v>
       </c>
       <c r="AE31" s="17">
-        <v>6410</v>
+        <v>5566</v>
       </c>
       <c r="AF31" s="17">
-        <v>5950</v>
+        <v>5172</v>
       </c>
       <c r="AG31" s="17">
-        <v>6615</v>
+        <v>8214</v>
       </c>
       <c r="AH31" s="17">
-        <v>7368</v>
+        <v>5509</v>
       </c>
       <c r="AI31" s="17">
-        <v>5184</v>
+        <v>5464</v>
       </c>
       <c r="AJ31" s="17">
-        <v>6257</v>
+        <v>5752</v>
       </c>
       <c r="AK31" s="17">
-        <v>5262</v>
+        <v>5560</v>
       </c>
       <c r="AL31" s="17">
-        <v>5566</v>
+        <v>6336</v>
       </c>
       <c r="AM31" s="17">
-        <v>5172</v>
+        <v>5983</v>
       </c>
       <c r="AN31" s="17">
-        <v>8214</v>
+        <v>5365</v>
       </c>
       <c r="AO31" s="17">
-        <v>5509</v>
+        <v>6339</v>
       </c>
       <c r="AP31" s="17">
-        <v>5464</v>
+        <v>5546</v>
       </c>
       <c r="AQ31" s="17">
-        <v>5752</v>
+        <v>5249</v>
       </c>
       <c r="AR31" s="17">
-        <v>5560</v>
+        <v>11555</v>
       </c>
       <c r="AS31" s="17">
-        <v>6336</v>
+        <v>14105</v>
       </c>
       <c r="AT31" s="17">
-        <v>5983</v>
+        <v>12599</v>
       </c>
       <c r="AU31" s="17">
-        <v>5365</v>
+        <v>12638</v>
       </c>
       <c r="AV31" s="17">
-        <v>6339</v>
+        <v>11494</v>
       </c>
       <c r="AW31" s="17">
-        <v>5546</v>
+        <v>11307</v>
       </c>
       <c r="AX31" s="17">
-        <v>5249</v>
+        <v>11675</v>
       </c>
       <c r="AY31" s="17">
-        <v>11555</v>
+        <v>8742</v>
       </c>
       <c r="AZ31" s="17">
-        <v>14105</v>
+        <v>9045</v>
       </c>
       <c r="BA31" s="17">
-        <v>12599</v>
+        <v>8551</v>
       </c>
       <c r="BB31" s="17">
-        <v>12638</v>
+        <v>10354</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4064,7 +3880,7 @@
     </row>
     <row r="35" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -4275,9 +4091,7 @@
       <c r="BB36" s="1"/>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -4333,484 +4147,382 @@
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>67</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="11">
-        <v>160981</v>
-      </c>
-      <c r="I38" s="11">
-        <v>169111</v>
-      </c>
-      <c r="J38" s="11">
-        <v>231161</v>
-      </c>
-      <c r="K38" s="11">
-        <v>214358</v>
-      </c>
-      <c r="L38" s="11">
-        <v>153211</v>
-      </c>
-      <c r="M38" s="11">
-        <v>214331</v>
-      </c>
-      <c r="N38" s="11">
-        <v>206298</v>
-      </c>
-      <c r="O38" s="11">
-        <v>237827</v>
-      </c>
-      <c r="P38" s="11">
-        <v>304372</v>
-      </c>
-      <c r="Q38" s="11">
-        <v>247873</v>
-      </c>
-      <c r="R38" s="11">
-        <v>273114</v>
-      </c>
-      <c r="S38" s="11">
-        <v>231526</v>
-      </c>
-      <c r="T38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB38" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="11"/>
+      <c r="AU38" s="11"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="11"/>
+      <c r="AX38" s="11"/>
+      <c r="AY38" s="11"/>
+      <c r="AZ38" s="11"/>
+      <c r="BA38" s="11"/>
+      <c r="BB38" s="11"/>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B39" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13">
-        <v>189017</v>
-      </c>
-      <c r="F39" s="13">
-        <v>214536</v>
-      </c>
-      <c r="G39" s="13">
-        <v>169432</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB39" s="13" t="s">
-        <v>57</v>
+      <c r="B39" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" s="9">
+        <v>308457</v>
+      </c>
+      <c r="N39" s="9">
+        <v>281405</v>
+      </c>
+      <c r="O39" s="9">
+        <v>306000</v>
+      </c>
+      <c r="P39" s="9">
+        <v>315629</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>275082</v>
+      </c>
+      <c r="R39" s="9">
+        <v>346941</v>
+      </c>
+      <c r="S39" s="9">
+        <v>389823</v>
+      </c>
+      <c r="T39" s="9">
+        <v>357159</v>
+      </c>
+      <c r="U39" s="9">
+        <v>409967</v>
+      </c>
+      <c r="V39" s="9">
+        <v>280415</v>
+      </c>
+      <c r="W39" s="9">
+        <v>573470</v>
+      </c>
+      <c r="X39" s="9">
+        <v>532136</v>
+      </c>
+      <c r="Y39" s="9">
+        <v>491564</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>571218</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>640034</v>
+      </c>
+      <c r="AB39" s="9">
+        <v>486019</v>
+      </c>
+      <c r="AC39" s="9">
+        <v>629802</v>
+      </c>
+      <c r="AD39" s="9">
+        <v>546523</v>
+      </c>
+      <c r="AE39" s="9">
+        <v>569373</v>
+      </c>
+      <c r="AF39" s="9">
+        <v>516681</v>
+      </c>
+      <c r="AG39" s="9">
+        <v>842826</v>
+      </c>
+      <c r="AH39" s="9">
+        <v>554902</v>
+      </c>
+      <c r="AI39" s="9">
+        <v>637538</v>
+      </c>
+      <c r="AJ39" s="9">
+        <v>711031</v>
+      </c>
+      <c r="AK39" s="9">
+        <v>740990</v>
+      </c>
+      <c r="AL39" s="9">
+        <v>801103</v>
+      </c>
+      <c r="AM39" s="9">
+        <v>835011</v>
+      </c>
+      <c r="AN39" s="9">
+        <v>699937</v>
+      </c>
+      <c r="AO39" s="9">
+        <v>750572</v>
+      </c>
+      <c r="AP39" s="9">
+        <v>768984</v>
+      </c>
+      <c r="AQ39" s="9">
+        <v>744352</v>
+      </c>
+      <c r="AR39" s="9">
+        <v>1602612</v>
+      </c>
+      <c r="AS39" s="9">
+        <v>1889214</v>
+      </c>
+      <c r="AT39" s="9">
+        <v>1655008</v>
+      </c>
+      <c r="AU39" s="9">
+        <v>1663231</v>
+      </c>
+      <c r="AV39" s="9">
+        <v>1562646</v>
+      </c>
+      <c r="AW39" s="9">
+        <v>1542155</v>
+      </c>
+      <c r="AX39" s="9">
+        <v>1521482</v>
+      </c>
+      <c r="AY39" s="9">
+        <v>1151205</v>
+      </c>
+      <c r="AZ39" s="9">
+        <v>1257857</v>
+      </c>
+      <c r="BA39" s="9">
+        <v>1201579</v>
+      </c>
+      <c r="BB39" s="9">
+        <v>1466533</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B40" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T40" s="11">
-        <v>308457</v>
-      </c>
-      <c r="U40" s="11">
-        <v>281405</v>
-      </c>
-      <c r="V40" s="11">
-        <v>306000</v>
-      </c>
-      <c r="W40" s="11">
-        <v>315629</v>
-      </c>
-      <c r="X40" s="11">
-        <v>275082</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>346941</v>
-      </c>
-      <c r="Z40" s="11">
-        <v>389823</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>357159</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>409967</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>280415</v>
-      </c>
-      <c r="AD40" s="11">
-        <v>573470</v>
-      </c>
-      <c r="AE40" s="11">
-        <v>532136</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>491564</v>
-      </c>
-      <c r="AG40" s="11">
-        <v>571218</v>
-      </c>
-      <c r="AH40" s="11">
-        <v>640034</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>486019</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>629802</v>
-      </c>
-      <c r="AK40" s="11">
-        <v>546523</v>
-      </c>
-      <c r="AL40" s="11">
-        <v>569373</v>
-      </c>
-      <c r="AM40" s="11">
-        <v>516681</v>
-      </c>
-      <c r="AN40" s="11">
-        <v>842826</v>
-      </c>
-      <c r="AO40" s="11">
-        <v>554902</v>
-      </c>
-      <c r="AP40" s="11">
-        <v>637538</v>
-      </c>
-      <c r="AQ40" s="11">
-        <v>711031</v>
-      </c>
-      <c r="AR40" s="11">
-        <v>740990</v>
-      </c>
-      <c r="AS40" s="11">
-        <v>801103</v>
-      </c>
-      <c r="AT40" s="11">
-        <v>835011</v>
-      </c>
-      <c r="AU40" s="11">
-        <v>699937</v>
-      </c>
-      <c r="AV40" s="11">
-        <v>750572</v>
-      </c>
-      <c r="AW40" s="11">
-        <v>768984</v>
-      </c>
-      <c r="AX40" s="11">
-        <v>744352</v>
-      </c>
-      <c r="AY40" s="11">
-        <v>1602612</v>
-      </c>
-      <c r="AZ40" s="11">
-        <v>1889214</v>
-      </c>
-      <c r="BA40" s="11">
-        <v>1655008</v>
-      </c>
-      <c r="BB40" s="11">
-        <v>1663231</v>
+      <c r="B40" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13">
+        <v>153211</v>
+      </c>
+      <c r="F40" s="13">
+        <v>214331</v>
+      </c>
+      <c r="G40" s="13">
+        <v>206298</v>
+      </c>
+      <c r="H40" s="13">
+        <v>237827</v>
+      </c>
+      <c r="I40" s="13">
+        <v>304372</v>
+      </c>
+      <c r="J40" s="13">
+        <v>247873</v>
+      </c>
+      <c r="K40" s="13">
+        <v>273114</v>
+      </c>
+      <c r="L40" s="13">
+        <v>231526</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB40" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -4867,56 +4579,54 @@
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="M42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="N42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="O42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="P42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="R42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="S42" s="17" t="s">
-        <v>57</v>
+      <c r="E42" s="17">
+        <v>0</v>
+      </c>
+      <c r="F42" s="17">
+        <v>0</v>
+      </c>
+      <c r="G42" s="17">
+        <v>0</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0</v>
+      </c>
+      <c r="I42" s="17">
+        <v>0</v>
+      </c>
+      <c r="J42" s="17">
+        <v>0</v>
+      </c>
+      <c r="K42" s="17">
+        <v>0</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" s="17">
+        <v>0</v>
+      </c>
+      <c r="N42" s="17">
+        <v>0</v>
+      </c>
+      <c r="O42" s="17">
+        <v>0</v>
+      </c>
+      <c r="P42" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="17">
+        <v>0</v>
+      </c>
+      <c r="R42" s="17">
+        <v>0</v>
+      </c>
+      <c r="S42" s="17">
+        <v>0</v>
       </c>
       <c r="T42" s="17">
         <v>0</v>
@@ -5025,276 +4735,274 @@
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B43" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
-      <c r="AI43" s="9"/>
-      <c r="AJ43" s="9"/>
-      <c r="AK43" s="9"/>
-      <c r="AL43" s="9"/>
-      <c r="AM43" s="9"/>
-      <c r="AN43" s="9"/>
-      <c r="AO43" s="9"/>
-      <c r="AP43" s="9"/>
-      <c r="AQ43" s="9"/>
-      <c r="AR43" s="9"/>
-      <c r="AS43" s="9"/>
-      <c r="AT43" s="9"/>
-      <c r="AU43" s="9"/>
-      <c r="AV43" s="9"/>
-      <c r="AW43" s="9"/>
-      <c r="AX43" s="9"/>
-      <c r="AY43" s="9"/>
-      <c r="AZ43" s="9"/>
-      <c r="BA43" s="9"/>
-      <c r="BB43" s="9"/>
+      <c r="B43" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="11"/>
+      <c r="AT43" s="11"/>
+      <c r="AU43" s="11"/>
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="11"/>
+      <c r="AX43" s="11"/>
+      <c r="AY43" s="11"/>
+      <c r="AZ43" s="11"/>
+      <c r="BA43" s="11"/>
+      <c r="BB43" s="11"/>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T44" s="11">
+      <c r="B44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M44" s="9">
         <v>-790</v>
       </c>
-      <c r="U44" s="11">
-        <v>0</v>
-      </c>
-      <c r="V44" s="11">
-        <v>0</v>
-      </c>
-      <c r="W44" s="11">
-        <v>0</v>
-      </c>
-      <c r="X44" s="11">
+      <c r="N44" s="9">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
+        <v>0</v>
+      </c>
+      <c r="P44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9">
         <v>-1552</v>
       </c>
-      <c r="Y44" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="11">
+      <c r="R44" s="9">
+        <v>0</v>
+      </c>
+      <c r="S44" s="9">
+        <v>0</v>
+      </c>
+      <c r="T44" s="9">
         <v>-977</v>
       </c>
-      <c r="AB44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="11">
+      <c r="U44" s="9">
+        <v>0</v>
+      </c>
+      <c r="V44" s="9">
+        <v>0</v>
+      </c>
+      <c r="W44" s="9">
+        <v>0</v>
+      </c>
+      <c r="X44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="9">
         <v>-1987</v>
       </c>
-      <c r="AI44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="11">
+      <c r="AB44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="9">
         <v>-9754</v>
       </c>
-      <c r="AK44" s="11">
+      <c r="AD44" s="9">
         <v>-14982</v>
       </c>
-      <c r="AL44" s="11">
+      <c r="AE44" s="9">
         <v>-3637</v>
       </c>
-      <c r="AM44" s="11">
+      <c r="AF44" s="9">
         <v>-8660</v>
       </c>
-      <c r="AN44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="11">
+      <c r="AG44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="9">
         <v>-4459</v>
       </c>
-      <c r="AS44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT44" s="11">
+      <c r="AL44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="9">
         <v>-20975</v>
       </c>
-      <c r="AU44" s="11">
+      <c r="AN44" s="9">
         <v>-4087</v>
       </c>
-      <c r="AV44" s="11">
+      <c r="AO44" s="9">
         <v>-4838</v>
       </c>
-      <c r="AW44" s="11">
+      <c r="AP44" s="9">
         <v>-46969</v>
       </c>
-      <c r="AX44" s="11">
+      <c r="AQ44" s="9">
         <v>-7542</v>
       </c>
-      <c r="AY44" s="11">
+      <c r="AR44" s="9">
         <v>-2958</v>
       </c>
-      <c r="AZ44" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA44" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB44" s="11">
-        <v>0</v>
+      <c r="AS44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="9">
+        <v>-5773</v>
+      </c>
+      <c r="AW44" s="9">
+        <v>-6225</v>
+      </c>
+      <c r="AX44" s="9">
+        <v>-10457</v>
+      </c>
+      <c r="AY44" s="9">
+        <v>-13240</v>
+      </c>
+      <c r="AZ44" s="9">
+        <v>-14024</v>
+      </c>
+      <c r="BA44" s="9">
+        <v>-21400</v>
+      </c>
+      <c r="BB44" s="9">
+        <v>-24649</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>67</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C45" s="19"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="M45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="N45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="P45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="R45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="S45" s="19" t="s">
-        <v>57</v>
+      <c r="E45" s="19">
+        <v>0</v>
+      </c>
+      <c r="F45" s="19">
+        <v>0</v>
+      </c>
+      <c r="G45" s="19">
+        <v>0</v>
+      </c>
+      <c r="H45" s="19">
+        <v>0</v>
+      </c>
+      <c r="I45" s="19">
+        <v>0</v>
+      </c>
+      <c r="J45" s="19">
+        <v>0</v>
+      </c>
+      <c r="K45" s="19">
+        <v>0</v>
+      </c>
+      <c r="L45" s="19">
+        <v>0</v>
+      </c>
+      <c r="M45" s="19">
+        <v>-790</v>
+      </c>
+      <c r="N45" s="19">
+        <v>0</v>
+      </c>
+      <c r="O45" s="19">
+        <v>0</v>
+      </c>
+      <c r="P45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>-1552</v>
+      </c>
+      <c r="R45" s="19">
+        <v>0</v>
+      </c>
+      <c r="S45" s="19">
+        <v>0</v>
       </c>
       <c r="T45" s="19">
-        <v>-790</v>
+        <v>-977</v>
       </c>
       <c r="U45" s="19">
         <v>0</v>
@@ -5306,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="19">
-        <v>-1552</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="19">
         <v>0</v>
@@ -5315,517 +5023,619 @@
         <v>0</v>
       </c>
       <c r="AA45" s="19">
-        <v>-977</v>
+        <v>-1987</v>
       </c>
       <c r="AB45" s="19">
         <v>0</v>
       </c>
       <c r="AC45" s="19">
-        <v>0</v>
+        <v>-9754</v>
       </c>
       <c r="AD45" s="19">
-        <v>0</v>
+        <v>-14982</v>
       </c>
       <c r="AE45" s="19">
-        <v>0</v>
+        <v>-3637</v>
       </c>
       <c r="AF45" s="19">
-        <v>0</v>
+        <v>-8660</v>
       </c>
       <c r="AG45" s="19">
         <v>0</v>
       </c>
       <c r="AH45" s="19">
-        <v>-1987</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="19">
         <v>0</v>
       </c>
       <c r="AJ45" s="19">
-        <v>-9754</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="19">
-        <v>-14982</v>
+        <v>-4459</v>
       </c>
       <c r="AL45" s="19">
-        <v>-3637</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="19">
-        <v>-8660</v>
+        <v>-20975</v>
       </c>
       <c r="AN45" s="19">
-        <v>0</v>
+        <v>-4087</v>
       </c>
       <c r="AO45" s="19">
-        <v>0</v>
+        <v>-4838</v>
       </c>
       <c r="AP45" s="19">
-        <v>0</v>
+        <v>-46969</v>
       </c>
       <c r="AQ45" s="19">
-        <v>0</v>
+        <v>-7542</v>
       </c>
       <c r="AR45" s="19">
-        <v>-4459</v>
+        <v>-2958</v>
       </c>
       <c r="AS45" s="19">
         <v>0</v>
       </c>
       <c r="AT45" s="19">
-        <v>-20975</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="19">
-        <v>-4087</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="19">
-        <v>-4838</v>
+        <v>-5773</v>
       </c>
       <c r="AW45" s="19">
-        <v>-46969</v>
+        <v>-6225</v>
       </c>
       <c r="AX45" s="19">
-        <v>-7542</v>
+        <v>-10457</v>
       </c>
       <c r="AY45" s="19">
-        <v>-2958</v>
+        <v>-13240</v>
       </c>
       <c r="AZ45" s="19">
-        <v>0</v>
+        <v>-14024</v>
       </c>
       <c r="BA45" s="19">
-        <v>0</v>
+        <v>-21400</v>
       </c>
       <c r="BB45" s="19">
-        <v>0</v>
+        <v>-24649</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B46" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="9"/>
-      <c r="AJ46" s="9"/>
-      <c r="AK46" s="9"/>
-      <c r="AL46" s="9"/>
-      <c r="AM46" s="9"/>
-      <c r="AN46" s="9"/>
-      <c r="AO46" s="9"/>
-      <c r="AP46" s="9"/>
-      <c r="AQ46" s="9"/>
-      <c r="AR46" s="9"/>
-      <c r="AS46" s="9"/>
-      <c r="AT46" s="9"/>
-      <c r="AU46" s="9"/>
-      <c r="AV46" s="9"/>
-      <c r="AW46" s="9"/>
-      <c r="AX46" s="9"/>
-      <c r="AY46" s="9"/>
-      <c r="AZ46" s="9"/>
-      <c r="BA46" s="9"/>
-      <c r="BB46" s="9"/>
+      <c r="B46" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="11"/>
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="11"/>
+      <c r="AN46" s="11"/>
+      <c r="AO46" s="11"/>
+      <c r="AP46" s="11"/>
+      <c r="AQ46" s="11"/>
+      <c r="AR46" s="11"/>
+      <c r="AS46" s="11"/>
+      <c r="AT46" s="11"/>
+      <c r="AU46" s="11"/>
+      <c r="AV46" s="11"/>
+      <c r="AW46" s="11"/>
+      <c r="AX46" s="11"/>
+      <c r="AY46" s="11"/>
+      <c r="AZ46" s="11"/>
+      <c r="BA46" s="11"/>
+      <c r="BB46" s="11"/>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B47" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T47" s="11">
+      <c r="B47" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M47" s="9">
         <v>-191</v>
       </c>
-      <c r="U47" s="11">
+      <c r="N47" s="9">
         <v>-144</v>
       </c>
-      <c r="V47" s="11">
+      <c r="O47" s="9">
         <v>-151</v>
       </c>
-      <c r="W47" s="11">
+      <c r="P47" s="9">
         <v>-97</v>
       </c>
-      <c r="X47" s="11">
+      <c r="Q47" s="9">
         <v>-19</v>
       </c>
-      <c r="Y47" s="11">
+      <c r="R47" s="9">
         <v>-39</v>
       </c>
-      <c r="Z47" s="11">
+      <c r="S47" s="9">
         <v>-61</v>
       </c>
-      <c r="AA47" s="11">
+      <c r="T47" s="9">
         <v>-8</v>
       </c>
-      <c r="AB47" s="11">
+      <c r="U47" s="9">
         <v>-74</v>
       </c>
-      <c r="AC47" s="11">
+      <c r="V47" s="9">
         <v>-39</v>
       </c>
-      <c r="AD47" s="11">
+      <c r="W47" s="9">
         <v>-54</v>
       </c>
-      <c r="AE47" s="11">
+      <c r="X47" s="9">
         <v>-25</v>
       </c>
-      <c r="AF47" s="11">
+      <c r="Y47" s="9">
         <v>-38</v>
       </c>
-      <c r="AG47" s="11">
+      <c r="Z47" s="9">
         <v>-73</v>
       </c>
-      <c r="AH47" s="11">
+      <c r="AA47" s="9">
         <v>-43</v>
       </c>
-      <c r="AI47" s="11">
+      <c r="AB47" s="9">
         <v>-43</v>
       </c>
-      <c r="AJ47" s="11">
+      <c r="AC47" s="9">
         <v>-121</v>
       </c>
-      <c r="AK47" s="11">
+      <c r="AD47" s="9">
         <v>-73</v>
       </c>
-      <c r="AL47" s="11">
+      <c r="AE47" s="9">
         <v>-163</v>
       </c>
-      <c r="AM47" s="11">
+      <c r="AF47" s="9">
         <v>-99</v>
       </c>
-      <c r="AN47" s="11">
+      <c r="AG47" s="9">
         <v>-144</v>
       </c>
-      <c r="AO47" s="11">
+      <c r="AH47" s="9">
         <v>-270</v>
       </c>
-      <c r="AP47" s="11">
+      <c r="AI47" s="9">
         <v>-19</v>
       </c>
-      <c r="AQ47" s="11">
+      <c r="AJ47" s="9">
         <v>-135</v>
       </c>
-      <c r="AR47" s="11">
+      <c r="AK47" s="9">
         <v>-37</v>
       </c>
-      <c r="AS47" s="11">
+      <c r="AL47" s="9">
         <v>-397</v>
       </c>
-      <c r="AT47" s="11">
+      <c r="AM47" s="9">
         <v>-8349</v>
       </c>
-      <c r="AU47" s="11">
+      <c r="AN47" s="9">
         <v>-9695</v>
       </c>
-      <c r="AV47" s="11">
+      <c r="AO47" s="9">
         <v>-16312</v>
       </c>
-      <c r="AW47" s="11">
+      <c r="AP47" s="9">
         <v>-24729</v>
       </c>
-      <c r="AX47" s="11">
+      <c r="AQ47" s="9">
         <v>-69610</v>
       </c>
-      <c r="AY47" s="11">
+      <c r="AR47" s="9">
         <v>-251732</v>
       </c>
-      <c r="AZ47" s="11">
+      <c r="AS47" s="9">
         <v>-148404</v>
       </c>
-      <c r="BA47" s="11">
+      <c r="AT47" s="9">
         <v>-140245</v>
       </c>
-      <c r="BB47" s="11">
+      <c r="AU47" s="9">
         <v>-166165</v>
+      </c>
+      <c r="AV47" s="9">
+        <v>-74498</v>
+      </c>
+      <c r="AW47" s="9">
+        <v>-20064</v>
+      </c>
+      <c r="AX47" s="9">
+        <v>-14744</v>
+      </c>
+      <c r="AY47" s="9">
+        <v>-7381</v>
+      </c>
+      <c r="AZ47" s="9">
+        <v>-8574</v>
+      </c>
+      <c r="BA47" s="9">
+        <v>-3226</v>
+      </c>
+      <c r="BB47" s="9">
+        <v>-226</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
-        <v>189017</v>
+        <v>0</v>
       </c>
       <c r="F48" s="19">
-        <v>214536</v>
+        <v>0</v>
       </c>
       <c r="G48" s="19">
-        <v>169432</v>
+        <v>0</v>
       </c>
       <c r="H48" s="19">
-        <v>160981</v>
+        <v>0</v>
       </c>
       <c r="I48" s="19">
-        <v>169111</v>
+        <v>0</v>
       </c>
       <c r="J48" s="19">
-        <v>231161</v>
+        <v>0</v>
       </c>
       <c r="K48" s="19">
-        <v>214358</v>
+        <v>0</v>
       </c>
       <c r="L48" s="19">
-        <v>153211</v>
+        <v>0</v>
       </c>
       <c r="M48" s="19">
-        <v>214331</v>
+        <v>-191</v>
       </c>
       <c r="N48" s="19">
-        <v>206298</v>
+        <v>-144</v>
       </c>
       <c r="O48" s="19">
-        <v>237827</v>
+        <v>-151</v>
       </c>
       <c r="P48" s="19">
-        <v>304372</v>
+        <v>-97</v>
       </c>
       <c r="Q48" s="19">
-        <v>247873</v>
+        <v>-19</v>
       </c>
       <c r="R48" s="19">
-        <v>273114</v>
+        <v>-39</v>
       </c>
       <c r="S48" s="19">
-        <v>231526</v>
+        <v>-61</v>
       </c>
       <c r="T48" s="19">
-        <v>307476</v>
+        <v>-8</v>
       </c>
       <c r="U48" s="19">
-        <v>281261</v>
+        <v>-74</v>
       </c>
       <c r="V48" s="19">
-        <v>305849</v>
+        <v>-39</v>
       </c>
       <c r="W48" s="19">
-        <v>315532</v>
+        <v>-54</v>
       </c>
       <c r="X48" s="19">
-        <v>273511</v>
+        <v>-25</v>
       </c>
       <c r="Y48" s="19">
-        <v>346902</v>
+        <v>-38</v>
       </c>
       <c r="Z48" s="19">
-        <v>389762</v>
+        <v>-73</v>
       </c>
       <c r="AA48" s="19">
-        <v>356174</v>
+        <v>-43</v>
       </c>
       <c r="AB48" s="19">
-        <v>409893</v>
+        <v>-43</v>
       </c>
       <c r="AC48" s="19">
-        <v>280376</v>
+        <v>-121</v>
       </c>
       <c r="AD48" s="19">
-        <v>573416</v>
+        <v>-73</v>
       </c>
       <c r="AE48" s="19">
-        <v>532111</v>
+        <v>-163</v>
       </c>
       <c r="AF48" s="19">
-        <v>491526</v>
+        <v>-99</v>
       </c>
       <c r="AG48" s="19">
-        <v>571145</v>
+        <v>-144</v>
       </c>
       <c r="AH48" s="19">
-        <v>638004</v>
+        <v>-270</v>
       </c>
       <c r="AI48" s="19">
-        <v>485976</v>
+        <v>-19</v>
       </c>
       <c r="AJ48" s="19">
-        <v>619927</v>
+        <v>-135</v>
       </c>
       <c r="AK48" s="19">
-        <v>531468</v>
+        <v>-37</v>
       </c>
       <c r="AL48" s="19">
-        <v>565573</v>
+        <v>-397</v>
       </c>
       <c r="AM48" s="19">
-        <v>507922</v>
+        <v>-8349</v>
       </c>
       <c r="AN48" s="19">
-        <v>842682</v>
+        <v>-9695</v>
       </c>
       <c r="AO48" s="19">
-        <v>554632</v>
+        <v>-16312</v>
       </c>
       <c r="AP48" s="19">
-        <v>637519</v>
+        <v>-24729</v>
       </c>
       <c r="AQ48" s="19">
-        <v>710896</v>
+        <v>-69610</v>
       </c>
       <c r="AR48" s="19">
-        <v>736494</v>
+        <v>-251732</v>
       </c>
       <c r="AS48" s="19">
-        <v>800706</v>
+        <v>-148404</v>
       </c>
       <c r="AT48" s="19">
-        <v>805687</v>
+        <v>-140245</v>
       </c>
       <c r="AU48" s="19">
-        <v>686155</v>
+        <v>-166165</v>
       </c>
       <c r="AV48" s="19">
-        <v>729422</v>
+        <v>-74498</v>
       </c>
       <c r="AW48" s="19">
-        <v>697286</v>
+        <v>-20064</v>
       </c>
       <c r="AX48" s="19">
-        <v>667200</v>
+        <v>-14744</v>
       </c>
       <c r="AY48" s="19">
-        <v>1347922</v>
+        <v>-7381</v>
       </c>
       <c r="AZ48" s="19">
-        <v>1740810</v>
+        <v>-8574</v>
       </c>
       <c r="BA48" s="19">
-        <v>1514763</v>
+        <v>-3226</v>
       </c>
       <c r="BB48" s="19">
-        <v>1497066</v>
+        <v>-226</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
-      <c r="AQ49" s="1"/>
-      <c r="AR49" s="1"/>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="1"/>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="1"/>
-      <c r="AY49" s="1"/>
-      <c r="AZ49" s="1"/>
-      <c r="BA49" s="1"/>
-      <c r="BB49" s="1"/>
+      <c r="B49" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17">
+        <v>153211</v>
+      </c>
+      <c r="F49" s="17">
+        <v>214331</v>
+      </c>
+      <c r="G49" s="17">
+        <v>206298</v>
+      </c>
+      <c r="H49" s="17">
+        <v>237827</v>
+      </c>
+      <c r="I49" s="17">
+        <v>304372</v>
+      </c>
+      <c r="J49" s="17">
+        <v>247873</v>
+      </c>
+      <c r="K49" s="17">
+        <v>273114</v>
+      </c>
+      <c r="L49" s="17">
+        <v>231526</v>
+      </c>
+      <c r="M49" s="17">
+        <v>307476</v>
+      </c>
+      <c r="N49" s="17">
+        <v>281261</v>
+      </c>
+      <c r="O49" s="17">
+        <v>305849</v>
+      </c>
+      <c r="P49" s="17">
+        <v>315532</v>
+      </c>
+      <c r="Q49" s="17">
+        <v>273511</v>
+      </c>
+      <c r="R49" s="17">
+        <v>346902</v>
+      </c>
+      <c r="S49" s="17">
+        <v>389762</v>
+      </c>
+      <c r="T49" s="17">
+        <v>356174</v>
+      </c>
+      <c r="U49" s="17">
+        <v>409893</v>
+      </c>
+      <c r="V49" s="17">
+        <v>280376</v>
+      </c>
+      <c r="W49" s="17">
+        <v>573416</v>
+      </c>
+      <c r="X49" s="17">
+        <v>532111</v>
+      </c>
+      <c r="Y49" s="17">
+        <v>491526</v>
+      </c>
+      <c r="Z49" s="17">
+        <v>571145</v>
+      </c>
+      <c r="AA49" s="17">
+        <v>638004</v>
+      </c>
+      <c r="AB49" s="17">
+        <v>485976</v>
+      </c>
+      <c r="AC49" s="17">
+        <v>619927</v>
+      </c>
+      <c r="AD49" s="17">
+        <v>531468</v>
+      </c>
+      <c r="AE49" s="17">
+        <v>565573</v>
+      </c>
+      <c r="AF49" s="17">
+        <v>507922</v>
+      </c>
+      <c r="AG49" s="17">
+        <v>842682</v>
+      </c>
+      <c r="AH49" s="17">
+        <v>554632</v>
+      </c>
+      <c r="AI49" s="17">
+        <v>637519</v>
+      </c>
+      <c r="AJ49" s="17">
+        <v>710896</v>
+      </c>
+      <c r="AK49" s="17">
+        <v>736494</v>
+      </c>
+      <c r="AL49" s="17">
+        <v>800706</v>
+      </c>
+      <c r="AM49" s="17">
+        <v>805687</v>
+      </c>
+      <c r="AN49" s="17">
+        <v>686155</v>
+      </c>
+      <c r="AO49" s="17">
+        <v>729422</v>
+      </c>
+      <c r="AP49" s="17">
+        <v>697286</v>
+      </c>
+      <c r="AQ49" s="17">
+        <v>667200</v>
+      </c>
+      <c r="AR49" s="17">
+        <v>1347922</v>
+      </c>
+      <c r="AS49" s="17">
+        <v>1740810</v>
+      </c>
+      <c r="AT49" s="17">
+        <v>1514763</v>
+      </c>
+      <c r="AU49" s="17">
+        <v>1497066</v>
+      </c>
+      <c r="AV49" s="17">
+        <v>1482375</v>
+      </c>
+      <c r="AW49" s="17">
+        <v>1515866</v>
+      </c>
+      <c r="AX49" s="17">
+        <v>1496281</v>
+      </c>
+      <c r="AY49" s="17">
+        <v>1130584</v>
+      </c>
+      <c r="AZ49" s="17">
+        <v>1235259</v>
+      </c>
+      <c r="BA49" s="17">
+        <v>1176953</v>
+      </c>
+      <c r="BB49" s="17">
+        <v>1441658</v>
+      </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
@@ -5937,750 +5747,3108 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B52" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+    </row>
+    <row r="53" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B53" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="K53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L53" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M52" s="6" t="s">
+      <c r="M53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N52" s="6" t="s">
+      <c r="N53" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O52" s="6" t="s">
+      <c r="O53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P52" s="6" t="s">
+      <c r="P53" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q52" s="6" t="s">
+      <c r="Q53" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R52" s="6" t="s">
+      <c r="R53" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S52" s="6" t="s">
+      <c r="S53" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T52" s="6" t="s">
+      <c r="T53" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U52" s="6" t="s">
+      <c r="U53" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V52" s="6" t="s">
+      <c r="V53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W52" s="6" t="s">
+      <c r="W53" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X52" s="6" t="s">
+      <c r="X53" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y52" s="6" t="s">
+      <c r="Y53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Z52" s="6" t="s">
+      <c r="Z53" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA52" s="6" t="s">
+      <c r="AA53" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AB52" s="6" t="s">
+      <c r="AB53" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AC52" s="6" t="s">
+      <c r="AC53" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AD52" s="6" t="s">
+      <c r="AD53" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AE52" s="6" t="s">
+      <c r="AE53" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AF52" s="6" t="s">
+      <c r="AF53" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AG52" s="6" t="s">
+      <c r="AG53" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AH52" s="6" t="s">
+      <c r="AH53" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AI52" s="6" t="s">
+      <c r="AI53" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AJ52" s="6" t="s">
+      <c r="AJ53" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AK52" s="6" t="s">
+      <c r="AK53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AL52" s="6" t="s">
+      <c r="AL53" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM52" s="6" t="s">
+      <c r="AM53" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN52" s="6" t="s">
+      <c r="AN53" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AO52" s="6" t="s">
+      <c r="AO53" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AP52" s="6" t="s">
+      <c r="AP53" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AQ52" s="6" t="s">
+      <c r="AQ53" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AR52" s="6" t="s">
+      <c r="AR53" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AS52" s="6" t="s">
+      <c r="AS53" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AT52" s="6" t="s">
+      <c r="AT53" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AU52" s="6" t="s">
+      <c r="AU53" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AV52" s="6" t="s">
+      <c r="AV53" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AW52" s="6" t="s">
+      <c r="AW53" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AX52" s="6" t="s">
+      <c r="AX53" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AY52" s="6" t="s">
+      <c r="AY53" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AZ52" s="6" t="s">
+      <c r="AZ53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BA52" s="6" t="s">
+      <c r="BA53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BB52" s="6" t="s">
+      <c r="BB53" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
-      <c r="AH53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
-      <c r="AL53" s="1"/>
-      <c r="AM53" s="1"/>
-      <c r="AN53" s="1"/>
-      <c r="AO53" s="1"/>
-      <c r="AP53" s="1"/>
-      <c r="AQ53" s="1"/>
-      <c r="AR53" s="1"/>
-      <c r="AS53" s="1"/>
-      <c r="AT53" s="1"/>
-      <c r="AU53" s="1"/>
-      <c r="AV53" s="1"/>
-      <c r="AW53" s="1"/>
-      <c r="AX53" s="1"/>
-      <c r="AY53" s="1"/>
-      <c r="AZ53" s="1"/>
-      <c r="BA53" s="1"/>
-      <c r="BB53" s="1"/>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B54" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="9"/>
-      <c r="AF54" s="9"/>
-      <c r="AG54" s="9"/>
-      <c r="AH54" s="9"/>
-      <c r="AI54" s="9"/>
-      <c r="AJ54" s="9"/>
-      <c r="AK54" s="9"/>
-      <c r="AL54" s="9"/>
-      <c r="AM54" s="9"/>
-      <c r="AN54" s="9"/>
-      <c r="AO54" s="9"/>
-      <c r="AP54" s="9"/>
-      <c r="AQ54" s="9"/>
-      <c r="AR54" s="9"/>
-      <c r="AS54" s="9"/>
-      <c r="AT54" s="9"/>
-      <c r="AU54" s="9"/>
-      <c r="AV54" s="9"/>
-      <c r="AW54" s="9"/>
-      <c r="AX54" s="9"/>
-      <c r="AY54" s="9"/>
-      <c r="AZ54" s="9"/>
-      <c r="BA54" s="9"/>
-      <c r="BB54" s="9"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B55" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H55" s="11">
-        <v>33635813</v>
-      </c>
-      <c r="I55" s="11">
-        <v>34198382</v>
-      </c>
-      <c r="J55" s="11">
-        <v>33994265</v>
-      </c>
-      <c r="K55" s="11">
-        <v>34702606</v>
-      </c>
-      <c r="L55" s="11">
-        <v>34244747</v>
-      </c>
-      <c r="M55" s="11">
-        <v>34276507</v>
-      </c>
-      <c r="N55" s="11">
-        <v>34829985</v>
-      </c>
-      <c r="O55" s="11">
-        <v>34918074</v>
-      </c>
-      <c r="P55" s="11">
-        <v>35586578</v>
-      </c>
-      <c r="Q55" s="11">
-        <v>36033290</v>
-      </c>
-      <c r="R55" s="11">
-        <v>40557470</v>
-      </c>
-      <c r="S55" s="11">
-        <v>42149281</v>
-      </c>
-      <c r="T55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB55" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9"/>
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="9"/>
+      <c r="AJ55" s="9"/>
+      <c r="AK55" s="9"/>
+      <c r="AL55" s="9"/>
+      <c r="AM55" s="9"/>
+      <c r="AN55" s="9"/>
+      <c r="AO55" s="9"/>
+      <c r="AP55" s="9"/>
+      <c r="AQ55" s="9"/>
+      <c r="AR55" s="9"/>
+      <c r="AS55" s="9"/>
+      <c r="AT55" s="9"/>
+      <c r="AU55" s="9"/>
+      <c r="AV55" s="9"/>
+      <c r="AW55" s="9"/>
+      <c r="AX55" s="9"/>
+      <c r="AY55" s="9"/>
+      <c r="AZ55" s="9"/>
+      <c r="BA55" s="9"/>
+      <c r="BB55" s="9"/>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B56" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13">
-        <v>25480857</v>
-      </c>
-      <c r="F56" s="13">
-        <v>29738841</v>
-      </c>
-      <c r="G56" s="13">
-        <v>32260472</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB56" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="B56" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="11"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="11"/>
+      <c r="AR56" s="11"/>
+      <c r="AS56" s="11"/>
+      <c r="AT56" s="11"/>
+      <c r="AU56" s="11"/>
+      <c r="AV56" s="11"/>
+      <c r="AW56" s="11"/>
+      <c r="AX56" s="11"/>
+      <c r="AY56" s="11"/>
+      <c r="AZ56" s="11"/>
+      <c r="BA56" s="11"/>
+      <c r="BB56" s="11"/>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B57" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="11" t="s">
+      <c r="B57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M57" s="9">
+        <v>42799639</v>
+      </c>
+      <c r="N57" s="9">
+        <v>45322113</v>
+      </c>
+      <c r="O57" s="9">
+        <v>46300499</v>
+      </c>
+      <c r="P57" s="9">
+        <v>48070210</v>
+      </c>
+      <c r="Q57" s="9">
+        <v>51912059</v>
+      </c>
+      <c r="R57" s="9">
+        <v>56030523</v>
+      </c>
+      <c r="S57" s="9">
+        <v>58095827</v>
+      </c>
+      <c r="T57" s="9">
+        <v>61021527</v>
+      </c>
+      <c r="U57" s="9">
+        <v>59840461</v>
+      </c>
+      <c r="V57" s="9">
+        <v>63227734</v>
+      </c>
+      <c r="W57" s="9">
+        <v>83292665</v>
+      </c>
+      <c r="X57" s="9">
+        <v>83016537</v>
+      </c>
+      <c r="Y57" s="9">
+        <v>82615798</v>
+      </c>
+      <c r="Z57" s="9">
+        <v>86351927</v>
+      </c>
+      <c r="AA57" s="9">
+        <v>86608119</v>
+      </c>
+      <c r="AB57" s="9">
+        <v>93753665</v>
+      </c>
+      <c r="AC57" s="9">
+        <v>98838983</v>
+      </c>
+      <c r="AD57" s="9">
+        <v>100463787</v>
+      </c>
+      <c r="AE57" s="9">
+        <v>101456344</v>
+      </c>
+      <c r="AF57" s="9">
+        <v>98041935</v>
+      </c>
+      <c r="AG57" s="9">
+        <v>102608473</v>
+      </c>
+      <c r="AH57" s="9">
+        <v>100726448</v>
+      </c>
+      <c r="AI57" s="9">
+        <v>116679722</v>
+      </c>
+      <c r="AJ57" s="9">
+        <v>123614569</v>
+      </c>
+      <c r="AK57" s="9">
+        <v>132414224</v>
+      </c>
+      <c r="AL57" s="9">
+        <v>126436711</v>
+      </c>
+      <c r="AM57" s="9">
+        <v>136106112</v>
+      </c>
+      <c r="AN57" s="9">
+        <v>129762143</v>
+      </c>
+      <c r="AO57" s="9">
+        <v>117829199</v>
+      </c>
+      <c r="AP57" s="9">
+        <v>131225939</v>
+      </c>
+      <c r="AQ57" s="9">
+        <v>140390796</v>
+      </c>
+      <c r="AR57" s="9">
+        <v>138430682</v>
+      </c>
+      <c r="AS57" s="9">
+        <v>133939312</v>
+      </c>
+      <c r="AT57" s="9">
+        <v>131360267</v>
+      </c>
+      <c r="AU57" s="9">
+        <v>131605555</v>
+      </c>
+      <c r="AV57" s="9">
+        <v>135399532</v>
+      </c>
+      <c r="AW57" s="9">
+        <v>135896634</v>
+      </c>
+      <c r="AX57" s="9">
+        <v>129476810</v>
+      </c>
+      <c r="AY57" s="9">
+        <v>130492519</v>
+      </c>
+      <c r="AZ57" s="9">
+        <v>137953170</v>
+      </c>
+      <c r="BA57" s="9">
+        <v>137953961</v>
+      </c>
+      <c r="BB57" s="9">
+        <v>139949709</v>
+      </c>
+    </row>
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B58" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13">
+        <v>34244747</v>
+      </c>
+      <c r="F58" s="13">
+        <v>34276507</v>
+      </c>
+      <c r="G58" s="13">
+        <v>34829985</v>
+      </c>
+      <c r="H58" s="13">
+        <v>34918074</v>
+      </c>
+      <c r="I58" s="13">
+        <v>35586578</v>
+      </c>
+      <c r="J58" s="13">
+        <v>36033290</v>
+      </c>
+      <c r="K58" s="13">
+        <v>40557470</v>
+      </c>
+      <c r="L58" s="13">
+        <v>42149281</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB58" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+    </row>
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1"/>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+    </row>
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1"/>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+    </row>
+    <row r="62" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B62" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T57" s="11">
-        <v>42799639</v>
-      </c>
-      <c r="U57" s="11">
-        <v>45322113</v>
-      </c>
-      <c r="V57" s="11">
-        <v>46300499</v>
-      </c>
-      <c r="W57" s="11">
-        <v>48070210</v>
-      </c>
-      <c r="X57" s="11">
-        <v>51912059</v>
-      </c>
-      <c r="Y57" s="11">
-        <v>56030523</v>
-      </c>
-      <c r="Z57" s="11">
-        <v>58095827</v>
-      </c>
-      <c r="AA57" s="11">
-        <v>61021527</v>
-      </c>
-      <c r="AB57" s="11">
-        <v>59840461</v>
-      </c>
-      <c r="AC57" s="11">
-        <v>63227734</v>
-      </c>
-      <c r="AD57" s="11">
-        <v>83292665</v>
-      </c>
-      <c r="AE57" s="11">
-        <v>83016537</v>
-      </c>
-      <c r="AF57" s="11">
-        <v>82615798</v>
-      </c>
-      <c r="AG57" s="11">
-        <v>86351927</v>
-      </c>
-      <c r="AH57" s="11">
-        <v>86608119</v>
-      </c>
-      <c r="AI57" s="11">
-        <v>93753665</v>
-      </c>
-      <c r="AJ57" s="11">
-        <v>98838983</v>
-      </c>
-      <c r="AK57" s="11">
-        <v>100463787</v>
-      </c>
-      <c r="AL57" s="11">
-        <v>101456344</v>
-      </c>
-      <c r="AM57" s="11">
-        <v>98041935</v>
-      </c>
-      <c r="AN57" s="11">
-        <v>102608473</v>
-      </c>
-      <c r="AO57" s="11">
-        <v>100726448</v>
-      </c>
-      <c r="AP57" s="11">
-        <v>116679722</v>
-      </c>
-      <c r="AQ57" s="11">
-        <v>123614569</v>
-      </c>
-      <c r="AR57" s="11">
-        <v>132414224</v>
-      </c>
-      <c r="AS57" s="11">
-        <v>126436711</v>
-      </c>
-      <c r="AT57" s="11">
-        <v>136106112</v>
-      </c>
-      <c r="AU57" s="11">
-        <v>129762143</v>
-      </c>
-      <c r="AV57" s="11">
-        <v>117829199</v>
-      </c>
-      <c r="AW57" s="11">
-        <v>131225939</v>
-      </c>
-      <c r="AX57" s="11">
-        <v>140390796</v>
-      </c>
-      <c r="AY57" s="11">
-        <v>138430682</v>
-      </c>
-      <c r="AZ57" s="11">
-        <v>133939312</v>
-      </c>
-      <c r="BA57" s="11">
-        <v>131360267</v>
-      </c>
-      <c r="BB57" s="11">
-        <v>131605555</v>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U62" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V62" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA62" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF62" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG62" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH62" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI62" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM62" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN62" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO62" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP62" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ62" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR62" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS62" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT62" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU62" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV62" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW62" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX62" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY62" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ62" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA62" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB62" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="1"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+    </row>
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="9"/>
+      <c r="AJ64" s="9"/>
+      <c r="AK64" s="9"/>
+      <c r="AL64" s="9"/>
+      <c r="AM64" s="9"/>
+      <c r="AN64" s="9"/>
+      <c r="AO64" s="9"/>
+      <c r="AP64" s="9"/>
+      <c r="AQ64" s="9"/>
+      <c r="AR64" s="9"/>
+      <c r="AS64" s="9"/>
+      <c r="AT64" s="9"/>
+      <c r="AU64" s="9"/>
+      <c r="AV64" s="9"/>
+      <c r="AW64" s="9"/>
+      <c r="AX64" s="9"/>
+      <c r="AY64" s="9"/>
+      <c r="AZ64" s="9"/>
+      <c r="BA64" s="9"/>
+      <c r="BB64" s="9"/>
+    </row>
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B65" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX65" s="13">
+        <v>10148</v>
+      </c>
+      <c r="AY65" s="13">
+        <v>9822</v>
+      </c>
+      <c r="AZ65" s="13">
+        <v>9517</v>
+      </c>
+      <c r="BA65" s="13">
+        <v>9534</v>
+      </c>
+      <c r="BB65" s="13">
+        <v>9458</v>
+      </c>
+    </row>
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B66" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX66" s="9">
+        <v>22514</v>
+      </c>
+      <c r="AY66" s="9">
+        <v>25049</v>
+      </c>
+      <c r="AZ66" s="9">
+        <v>19579</v>
+      </c>
+      <c r="BA66" s="9">
+        <v>26357</v>
+      </c>
+      <c r="BB66" s="9">
+        <v>23017</v>
+      </c>
+    </row>
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B67" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19">
+        <v>0</v>
+      </c>
+      <c r="F67" s="19">
+        <v>0</v>
+      </c>
+      <c r="G67" s="19">
+        <v>0</v>
+      </c>
+      <c r="H67" s="19">
+        <v>0</v>
+      </c>
+      <c r="I67" s="19">
+        <v>0</v>
+      </c>
+      <c r="J67" s="19">
+        <v>0</v>
+      </c>
+      <c r="K67" s="19">
+        <v>0</v>
+      </c>
+      <c r="L67" s="19">
+        <v>0</v>
+      </c>
+      <c r="M67" s="19">
+        <v>0</v>
+      </c>
+      <c r="N67" s="19">
+        <v>0</v>
+      </c>
+      <c r="O67" s="19">
+        <v>0</v>
+      </c>
+      <c r="P67" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="19">
+        <v>0</v>
+      </c>
+      <c r="R67" s="19">
+        <v>0</v>
+      </c>
+      <c r="S67" s="19">
+        <v>0</v>
+      </c>
+      <c r="T67" s="19">
+        <v>0</v>
+      </c>
+      <c r="U67" s="19">
+        <v>0</v>
+      </c>
+      <c r="V67" s="19">
+        <v>0</v>
+      </c>
+      <c r="W67" s="19">
+        <v>0</v>
+      </c>
+      <c r="X67" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AU67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW67" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX67" s="19">
+        <v>32662</v>
+      </c>
+      <c r="AY67" s="19">
+        <v>34871</v>
+      </c>
+      <c r="AZ67" s="19">
+        <v>29096</v>
+      </c>
+      <c r="BA67" s="19">
+        <v>35891</v>
+      </c>
+      <c r="BB67" s="19">
+        <v>32475</v>
+      </c>
+    </row>
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="1"/>
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="1"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+    </row>
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+    </row>
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+    </row>
+    <row r="71" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T71" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U71" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V71" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W71" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X71" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y71" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z71" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA71" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB71" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC71" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD71" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE71" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF71" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG71" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH71" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI71" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK71" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL71" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM71" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN71" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO71" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP71" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ71" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS71" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT71" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU71" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV71" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW71" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX71" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY71" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ71" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA71" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB71" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="1"/>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+    </row>
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="9"/>
+      <c r="AD73" s="9"/>
+      <c r="AE73" s="9"/>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="9"/>
+      <c r="AH73" s="9"/>
+      <c r="AI73" s="9"/>
+      <c r="AJ73" s="9"/>
+      <c r="AK73" s="9"/>
+      <c r="AL73" s="9"/>
+      <c r="AM73" s="9"/>
+      <c r="AN73" s="9"/>
+      <c r="AO73" s="9"/>
+      <c r="AP73" s="9"/>
+      <c r="AQ73" s="9"/>
+      <c r="AR73" s="9"/>
+      <c r="AS73" s="9"/>
+      <c r="AT73" s="9"/>
+      <c r="AU73" s="9"/>
+      <c r="AV73" s="9"/>
+      <c r="AW73" s="9"/>
+      <c r="AX73" s="9"/>
+      <c r="AY73" s="9"/>
+      <c r="AZ73" s="9"/>
+      <c r="BA73" s="9"/>
+      <c r="BB73" s="9"/>
+    </row>
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B74" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX74" s="13">
+        <v>4914</v>
+      </c>
+      <c r="AY74" s="13">
+        <v>4738</v>
+      </c>
+      <c r="AZ74" s="13">
+        <v>4593</v>
+      </c>
+      <c r="BA74" s="13">
+        <v>4598</v>
+      </c>
+      <c r="BB74" s="13">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B75" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW75" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX75" s="9">
+        <v>3026842</v>
+      </c>
+      <c r="AY75" s="9">
+        <v>3336674</v>
+      </c>
+      <c r="AZ75" s="9">
+        <v>2606850</v>
+      </c>
+      <c r="BA75" s="9">
+        <v>3511622</v>
+      </c>
+      <c r="BB75" s="9">
+        <v>3258067</v>
+      </c>
+    </row>
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1"/>
+      <c r="AU76" s="1"/>
+      <c r="AV76" s="1"/>
+      <c r="AW76" s="1"/>
+      <c r="AX76" s="1"/>
+      <c r="AY76" s="1"/>
+      <c r="AZ76" s="1"/>
+      <c r="BA76" s="1"/>
+      <c r="BB76" s="1"/>
+    </row>
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="1"/>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="1"/>
+    </row>
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="1"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+    </row>
+    <row r="79" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B79" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T79" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U79" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X79" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA79" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB79" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC79" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD79" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF79" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG79" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH79" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI79" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK79" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM79" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN79" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO79" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP79" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ79" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR79" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS79" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT79" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU79" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV79" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW79" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX79" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY79" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ79" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA79" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB79" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="1"/>
+      <c r="AW80" s="1"/>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+    </row>
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="9"/>
+      <c r="AD81" s="9"/>
+      <c r="AE81" s="9"/>
+      <c r="AF81" s="9"/>
+      <c r="AG81" s="9"/>
+      <c r="AH81" s="9"/>
+      <c r="AI81" s="9"/>
+      <c r="AJ81" s="9"/>
+      <c r="AK81" s="9"/>
+      <c r="AL81" s="9"/>
+      <c r="AM81" s="9"/>
+      <c r="AN81" s="9"/>
+      <c r="AO81" s="9"/>
+      <c r="AP81" s="9"/>
+      <c r="AQ81" s="9"/>
+      <c r="AR81" s="9"/>
+      <c r="AS81" s="9"/>
+      <c r="AT81" s="9"/>
+      <c r="AU81" s="9"/>
+      <c r="AV81" s="9"/>
+      <c r="AW81" s="9"/>
+      <c r="AX81" s="9"/>
+      <c r="AY81" s="9"/>
+      <c r="AZ81" s="9"/>
+      <c r="BA81" s="9"/>
+      <c r="BB81" s="9"/>
+    </row>
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B82" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX82" s="13">
+        <v>2065120</v>
+      </c>
+      <c r="AY82" s="13">
+        <v>2073027</v>
+      </c>
+      <c r="AZ82" s="13">
+        <v>2072066</v>
+      </c>
+      <c r="BA82" s="13">
+        <v>2073510</v>
+      </c>
+      <c r="BB82" s="13">
+        <v>1987810</v>
+      </c>
+    </row>
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B83" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW83" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX83" s="9">
+        <v>7438</v>
+      </c>
+      <c r="AY83" s="9">
+        <v>7507</v>
+      </c>
+      <c r="AZ83" s="9">
+        <v>7511</v>
+      </c>
+      <c r="BA83" s="9">
+        <v>7506</v>
+      </c>
+      <c r="BB83" s="9">
+        <v>7065</v>
       </c>
     </row>
   </sheetData>
